--- a/src_files/data_files/TYNDP-2024_National_Trends.xlsx
+++ b/src_files/data_files/TYNDP-2024_National_Trends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehjeric\git_backbone\balticseah2\backbone_250414\north_european_model_tyndp2024_update\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE803980-C4CA-4244-9915-48D51A7FBCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9609AAF9-6F94-427C-958C-7F662B8CA317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,27 +489,15 @@
     <t>File name</t>
   </si>
   <si>
-    <t>Original lines that were merged into this connection during aggregation (if any)</t>
-  </si>
-  <si>
     <t>aggregated_lines</t>
   </si>
   <si>
     <t>ne_model_export, ne_model_import</t>
   </si>
   <si>
-    <t>Difference between realized flows and reference capacities (positive value -&gt; flows were higher than reference capacity)</t>
-  </si>
-  <si>
     <t>export_diff, import_diff</t>
   </si>
   <si>
-    <t>Maximum flows observed in "NT+ 2030 Modelling Results – Climate Year 2009" -&gt; Crossborder Exchanges</t>
-  </si>
-  <si>
-    <t>Values from "Modelling Methodologies After Public Consultation" -&gt; 1. Elec Ref Grid</t>
-  </si>
-  <si>
     <t>export_capacity, import_capacity</t>
   </si>
   <si>
@@ -520,9 +508,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Contains the transmission line capacities from both PLEXOS modelling results and reference grid ("after public consultation", see sources below), as well as the final capacities chosen for the NE model. Some TYNDP2024 lines were aggregated together to fit the NE model nodes.</t>
   </si>
   <si>
     <t>Overview</t>
@@ -538,10 +523,6 @@
 MMStandardOutputFile_NT2040_Plexos_CY2009_2.5_v40.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Column</t>
-  </si>
-  <si>
     <t>Reference grid and investment candidate data</t>
   </si>
   <si>
@@ -692,9 +673,6 @@
     <t>Common data.xlsx</t>
   </si>
   <si>
-    <t>Final capacities chosen for NE model (maximum of "reference" and "modelled")</t>
-  </si>
-  <si>
     <t>max_modelled_export, max_modelled_import</t>
   </si>
   <si>
@@ -812,9 +790,60 @@
     <t>ETS_CO2</t>
   </si>
   <si>
+    <t>Electrolyser</t>
+  </si>
+  <si>
+    <t>unit_name_prefix</t>
+  </si>
+  <si>
+    <t>trans_lost_lines</t>
+  </si>
+  <si>
+    <t>Shows transmission lines that were lost during the aggregation process because they connect nodes that got aggregated together (e.g., BE00-BEOF became BE00-BE00).</t>
+  </si>
+  <si>
+    <t>Input Data -&gt; General informal - Common Data (ZIP, 81 KB)</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Automated input generation</t>
+  </si>
+  <si>
+    <t>Generates the following sheets: unitdata, demanddata_elec, transferdata, trans_capacities, trans_missing_ref_capacities, trans_lost_lines</t>
+  </si>
+  <si>
+    <t>Run the process_tyndp2024_capacities.py script</t>
+  </si>
+  <si>
+    <t>NT+ 2030 Modelling Results – Climate Year 2009
+NT+ 2040 Modelling Results – Climate Year 2009</t>
+  </si>
+  <si>
+    <t>Electricity and Hydrogen Reference Grid &amp; Investment Candidates After Public Consultation</t>
+  </si>
+  <si>
+    <t>Headline on website (click on these to download)</t>
+  </si>
+  <si>
+    <t>General informal - Common Data (ZIP, 81 KB)</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>National Trends PLEXOS results for system years 2030 and 2040, the weather year being 2009. Contains native annual electricity demands, installed production capacities and crossborder exchanges.</t>
+  </si>
+  <si>
+    <t>EXTERNAL SOURCES</t>
+  </si>
+  <si>
+    <t>Manually added sheets</t>
+  </si>
+  <si>
     <r>
-      <t>This file contains TYNDP2024 electricity capacities and demands for the National Trends scenario.
-The NE model inputs are in the</t>
+      <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
@@ -825,7 +854,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> unitdata, transferdata, demanddata_elec, unittypedata, emissiondata and fueldata</t>
+      <t>unittypedata</t>
     </r>
     <r>
       <rPr>
@@ -835,20 +864,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> sheets. The unittypedata sheet is, in itself, insufficient and must be complemented with e.g. unittypedata_maf2020.xlsx.
-See below for an explanation of the other sheets (they exist mainly for transparency and extra info on electricity transmission line data).</t>
+      <t>, with parameters for Hydrogen CCGT.</t>
     </r>
   </si>
   <si>
-    <t>Electrolyser</t>
-  </si>
-  <si>
-    <t>unit_name_prefix</t>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emissiondata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (NT2025 values copied from maf2020)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fueldata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (NT2025 values copied from maf2020)</t>
+    </r>
+  </si>
+  <si>
+    <t>Original lines in TYNDP2024 that were merged into this connection during aggregation (if any)</t>
+  </si>
+  <si>
+    <t>Maximum flows observed in source 2 (sheet "Crossborder Exchanges")</t>
+  </si>
+  <si>
+    <t>Reference grid capacities from source 1 (sheet "1. Elec Ref Grid")</t>
+  </si>
+  <si>
+    <t>Difference between max modelled flows and reference capacities (positive value -&gt; flows were higher than reference capacity -&gt; investments were required)</t>
+  </si>
+  <si>
+    <t>Final capacities chosen for NE model (reference capacity or modelled maximum, whichever is higher)</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">NOTES
-- currently (2025-05-09) the </t>
+- currently (2025-08-19) the </t>
     </r>
     <r>
       <rPr>
@@ -896,54 +985,9 @@
     </r>
   </si>
   <si>
-    <t>trans_lost_lines</t>
-  </si>
-  <si>
-    <t>Shows transmission lines that were lost during the aggregation process because they connect nodes that got aggregated together (e.g., BE00-BEOF became BE00-BE00).</t>
-  </si>
-  <si>
-    <t>Input Data -&gt; General informal - Common Data (ZIP, 81 KB)</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Automated input generation</t>
-  </si>
-  <si>
-    <t>Generates the following sheets: unitdata, demanddata_elec, transferdata, trans_capacities, trans_missing_ref_capacities, trans_lost_lines</t>
-  </si>
-  <si>
-    <t>Run the process_tyndp2024_capacities.py script</t>
-  </si>
-  <si>
-    <t>NT+ 2030 Modelling Results – Climate Year 2009
-NT+ 2040 Modelling Results – Climate Year 2009</t>
-  </si>
-  <si>
-    <t>Electricity and Hydrogen Reference Grid &amp; Investment Candidates After Public Consultation</t>
-  </si>
-  <si>
-    <t>Headline on website (click on these to download)</t>
-  </si>
-  <si>
-    <t>General informal - Common Data (ZIP, 81 KB)</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>National Trends PLEXOS results for system years 2030 and 2040, the weather year being 2009. Contains native annual electricity demands, installed production capacities and crossborder exchanges.</t>
-  </si>
-  <si>
-    <t>EXTERNAL SOURCES</t>
-  </si>
-  <si>
-    <t>Manually added sheets</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">1. </t>
+      <t>This file contains TYNDP2024 electricity capacities and demands for the National Trends scenario.
+The NE model inputs are in the</t>
     </r>
     <r>
       <rPr>
@@ -954,7 +998,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>unittypedata</t>
+      <t xml:space="preserve"> unitdata, transferdata, demanddata_elec, unittypedata, emissiondata and fueldata</t>
     </r>
     <r>
       <rPr>
@@ -964,60 +1008,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, with parameters for Hydrogen CCGT.</t>
+      <t xml:space="preserve"> sheets. The unittypedata sheet is insufficient and must be complemented with e.g. unittypedata_maf2020.xlsx.
+See below for an explanation of the other sheets (they exist mainly for extra info on electricity transmission line data).</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>emissiondata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (NT2025 values copied from maf2020)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fueldata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (NT2025 values copied from maf2020)</t>
-    </r>
+    <t>Contains the transmission line capacities from both PLEXOS modelling results and reference grid (see sources below), as well as the final capacities chosen for the NE model. Some TYNDP2024 lines were aggregated together to fit the NE model nodes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Column(s)</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1247,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1357,6 +1357,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1819,7 +1822,16 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9719B7EE-3FF9-4612-B637-C2081C2392C1}" name="Table7" displayName="Table7" ref="A1:L85" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:L85" xr:uid="{9719B7EE-3FF9-4612-B637-C2081C2392C1}"/>
+  <autoFilter ref="A1:L85" xr:uid="{9719B7EE-3FF9-4612-B637-C2081C2392C1}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2030"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L43">
+    <sortCondition ref="A1:A85"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{396304D9-1978-4B89-9903-C7F9F98F0689}" name="from"/>
     <tableColumn id="2" xr3:uid="{CA224D49-82C9-43E7-BE46-A0525DF756FC}" name="to"/>
@@ -2133,29 +2145,29 @@
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="180">
       <c r="A1" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75">
       <c r="A3" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -2165,10 +2177,10 @@
     <row r="4" spans="1:6" ht="30.75" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="20" t="s">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2177,22 +2189,22 @@
     <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2201,10 +2213,10 @@
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="14"/>
       <c r="B7" s="22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -2213,10 +2225,10 @@
     <row r="8" spans="1:6" ht="45">
       <c r="A8" s="14"/>
       <c r="B8" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -2225,10 +2237,10 @@
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="14"/>
       <c r="B9" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -2237,10 +2249,10 @@
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="14"/>
       <c r="B10" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2256,10 +2268,10 @@
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="A12" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2276,10 +2288,10 @@
     </row>
     <row r="14" spans="1:6" ht="45">
       <c r="A14" s="11" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2301,72 +2313,73 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+        <v>254</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>145</v>
+      </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="25" t="s">
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18" s="40">
+        <v>1</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75">
+      <c r="A19" s="40">
+        <v>2</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>258</v>
-      </c>
       <c r="D19" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="75">
-      <c r="A20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>154</v>
+        <v>248</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="40">
+        <v>3</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2378,38 +2391,38 @@
     </row>
     <row r="24" spans="1:6" ht="45">
       <c r="A24" s="24" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="17" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1" display="https://2024.entsos-tyndp-scenarios.eu/download/" xr:uid="{A028FEF4-E483-4CB1-ADA3-1B2DA23C5DAC}"/>
-    <hyperlink ref="A21" r:id="rId2" display="https://www.entsoe.eu/eraa/2024/downloads/" xr:uid="{10982887-3358-4EF6-8AC9-497055CEED16}"/>
-    <hyperlink ref="A20" r:id="rId3" display="https://2024.entsos-tyndp-scenarios.eu/download/" xr:uid="{2C9B297A-38F9-4380-B82D-3266BD268E72}"/>
+    <hyperlink ref="B18" r:id="rId1" display="https://2024.entsos-tyndp-scenarios.eu/download/" xr:uid="{A028FEF4-E483-4CB1-ADA3-1B2DA23C5DAC}"/>
+    <hyperlink ref="B20" r:id="rId2" display="https://www.entsoe.eu/eraa/2024/downloads/" xr:uid="{10982887-3358-4EF6-8AC9-497055CEED16}"/>
+    <hyperlink ref="B19" r:id="rId3" display="https://2024.entsos-tyndp-scenarios.eu/download/" xr:uid="{2C9B297A-38F9-4380-B82D-3266BD268E72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2440,10 +2453,10 @@
         <v>92</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>59</v>
@@ -2457,13 +2470,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <v>2030</v>
@@ -2477,10 +2490,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" t="s">
-        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -2497,13 +2510,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -2517,13 +2530,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="23" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -2557,10 +2570,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="23" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2577,13 +2590,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D8">
         <v>2030</v>
@@ -2597,10 +2610,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2617,13 +2630,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D10">
         <v>2030</v>
@@ -2637,7 +2650,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -2657,13 +2670,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="23" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -2677,10 +2690,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -2697,7 +2710,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2717,13 +2730,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>2040</v>
@@ -2737,10 +2750,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
         <v>163</v>
-      </c>
-      <c r="B16" t="s">
-        <v>169</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2757,13 +2770,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D17">
         <v>2040</v>
@@ -2777,13 +2790,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="23" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D18">
         <v>2040</v>
@@ -2817,10 +2830,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="23" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -2837,13 +2850,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D21">
         <v>2040</v>
@@ -2857,10 +2870,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -2877,13 +2890,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D23">
         <v>2040</v>
@@ -2897,7 +2910,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -2917,13 +2930,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="23" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D25">
         <v>2040</v>
@@ -2937,10 +2950,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2957,7 +2970,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2998,10 +3011,10 @@
         <v>92</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>59</v>
@@ -3013,18 +3026,18 @@
         <v>91</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <v>2030</v>
@@ -3036,18 +3049,18 @@
         <v>1400</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -3059,15 +3072,15 @@
         <v>400</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="23" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3082,18 +3095,18 @@
         <v>1200</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -3105,18 +3118,18 @@
         <v>600</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D6">
         <v>2030</v>
@@ -3128,41 +3141,41 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7">
+        <v>2030</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>177</v>
-      </c>
-      <c r="D7">
-        <v>2030</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="23" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D8">
         <v>2030</v>
@@ -3174,18 +3187,18 @@
         <v>2000</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D9">
         <v>2030</v>
@@ -3197,18 +3210,18 @@
         <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D10">
         <v>2030</v>
@@ -3220,18 +3233,18 @@
         <v>400</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D11">
         <v>2030</v>
@@ -3243,18 +3256,18 @@
         <v>600</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="23" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -3266,15 +3279,15 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="23" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -3289,18 +3302,18 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D14">
         <v>2030</v>
@@ -3312,18 +3325,18 @@
         <v>400</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>2040</v>
@@ -3335,18 +3348,18 @@
         <v>3400</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D16">
         <v>2040</v>
@@ -3358,15 +3371,15 @@
         <v>400</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="23" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -3381,18 +3394,18 @@
         <v>1200</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D18">
         <v>2040</v>
@@ -3404,18 +3417,18 @@
         <v>600</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D19">
         <v>2040</v>
@@ -3427,18 +3440,18 @@
         <v>3315.6529999999998</v>
       </c>
       <c r="G19" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D20">
         <v>2040</v>
@@ -3450,18 +3463,18 @@
         <v>1330</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="23" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D21">
         <v>2040</v>
@@ -3473,18 +3486,18 @@
         <v>2000</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D22">
         <v>2040</v>
@@ -3496,18 +3509,18 @@
         <v>1100</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D23">
         <v>2040</v>
@@ -3519,18 +3532,18 @@
         <v>400</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D24">
         <v>2040</v>
@@ -3542,18 +3555,18 @@
         <v>600</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="23" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D25">
         <v>2040</v>
@@ -3565,15 +3578,15 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="23" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -3588,18 +3601,18 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D27">
         <v>2040</v>
@@ -3611,7 +3624,7 @@
         <v>400</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +3690,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -3694,7 +3707,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3711,7 +3724,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3728,7 +3741,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3813,7 +3826,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -3847,7 +3860,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -3864,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -3898,7 +3911,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -3915,7 +3928,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -3932,7 +3945,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -3949,7 +3962,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -3983,7 +3996,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -4000,7 +4013,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -4017,7 +4030,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -4034,7 +4047,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -4051,7 +4064,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -4238,7 +4251,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -4255,7 +4268,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -4289,7 +4302,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -4306,7 +4319,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -4323,7 +4336,7 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -4340,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -4357,7 +4370,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -4374,7 +4387,7 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -4425,7 +4438,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -4442,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -4459,7 +4472,7 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -4493,7 +4506,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -4544,7 +4557,7 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -4595,7 +4608,7 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -4612,7 +4625,7 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -4629,7 +4642,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -4646,7 +4659,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -4663,7 +4676,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -4680,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -4697,7 +4710,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -4748,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -4833,7 +4846,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -4850,7 +4863,7 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
@@ -4884,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
@@ -4901,7 +4914,7 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
@@ -4918,7 +4931,7 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -4935,7 +4948,7 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
@@ -4969,7 +4982,7 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -4986,7 +4999,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -5003,7 +5016,7 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
@@ -5037,7 +5050,7 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -5054,7 +5067,7 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -5071,7 +5084,7 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
@@ -5088,7 +5101,7 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -5105,7 +5118,7 @@
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -5122,7 +5135,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -5156,7 +5169,7 @@
         <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -5173,7 +5186,7 @@
         <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
@@ -5207,7 +5220,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -5224,7 +5237,7 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
@@ -5241,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
@@ -5258,7 +5271,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -5275,7 +5288,7 @@
         <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -5292,7 +5305,7 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -5343,7 +5356,7 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
@@ -5360,7 +5373,7 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -5377,7 +5390,7 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -5394,7 +5407,7 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -5411,7 +5424,7 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -5428,7 +5441,7 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -5530,7 +5543,7 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
@@ -5547,7 +5560,7 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
@@ -5564,7 +5577,7 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
@@ -5598,7 +5611,7 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
@@ -5615,7 +5628,7 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
@@ -5649,7 +5662,7 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -5666,7 +5679,7 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -5683,7 +5696,7 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C120" t="s">
         <v>9</v>
@@ -5700,7 +5713,7 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -5717,7 +5730,7 @@
         <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
@@ -5819,7 +5832,7 @@
         <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
@@ -5836,7 +5849,7 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
@@ -5887,7 +5900,7 @@
         <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
@@ -5904,7 +5917,7 @@
         <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
@@ -5921,7 +5934,7 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
@@ -5938,7 +5951,7 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
@@ -5955,7 +5968,7 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
@@ -5972,7 +5985,7 @@
         <v>16</v>
       </c>
       <c r="B137" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
@@ -6023,7 +6036,7 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
@@ -6040,7 +6053,7 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
@@ -6057,7 +6070,7 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
@@ -6074,7 +6087,7 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
@@ -6091,7 +6104,7 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
@@ -6159,7 +6172,7 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
@@ -6176,7 +6189,7 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
@@ -6193,7 +6206,7 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
@@ -6210,7 +6223,7 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
@@ -6227,7 +6240,7 @@
         <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
@@ -6244,7 +6257,7 @@
         <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
@@ -6278,7 +6291,7 @@
         <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C155" t="s">
         <v>9</v>
@@ -6295,7 +6308,7 @@
         <v>18</v>
       </c>
       <c r="B156" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C156" t="s">
         <v>9</v>
@@ -6312,7 +6325,7 @@
         <v>18</v>
       </c>
       <c r="B157" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C157" t="s">
         <v>9</v>
@@ -6329,7 +6342,7 @@
         <v>18</v>
       </c>
       <c r="B158" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
@@ -6380,7 +6393,7 @@
         <v>18</v>
       </c>
       <c r="B161" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
@@ -6397,7 +6410,7 @@
         <v>18</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
@@ -6414,7 +6427,7 @@
         <v>18</v>
       </c>
       <c r="B163" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
@@ -6448,7 +6461,7 @@
         <v>18</v>
       </c>
       <c r="B165" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
@@ -6465,7 +6478,7 @@
         <v>18</v>
       </c>
       <c r="B166" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
@@ -6482,7 +6495,7 @@
         <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
@@ -6499,7 +6512,7 @@
         <v>19</v>
       </c>
       <c r="B168" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
@@ -6516,7 +6529,7 @@
         <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
@@ -6533,7 +6546,7 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
@@ -6635,7 +6648,7 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
@@ -6652,7 +6665,7 @@
         <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C177" t="s">
         <v>9</v>
@@ -6686,7 +6699,7 @@
         <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -6703,7 +6716,7 @@
         <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -6737,7 +6750,7 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
@@ -6754,7 +6767,7 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -6771,7 +6784,7 @@
         <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
@@ -6788,7 +6801,7 @@
         <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C185" t="s">
         <v>9</v>
@@ -6805,7 +6818,7 @@
         <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -6822,7 +6835,7 @@
         <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
@@ -6839,7 +6852,7 @@
         <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
@@ -6856,7 +6869,7 @@
         <v>21</v>
       </c>
       <c r="B189" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
@@ -6873,7 +6886,7 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C190" t="s">
         <v>9</v>
@@ -6890,7 +6903,7 @@
         <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
@@ -6907,7 +6920,7 @@
         <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
@@ -6924,7 +6937,7 @@
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C193" t="s">
         <v>9</v>
@@ -6941,7 +6954,7 @@
         <v>22</v>
       </c>
       <c r="B194" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -6958,7 +6971,7 @@
         <v>22</v>
       </c>
       <c r="B195" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C195" t="s">
         <v>9</v>
@@ -6975,7 +6988,7 @@
         <v>22</v>
       </c>
       <c r="B196" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
@@ -6992,7 +7005,7 @@
         <v>22</v>
       </c>
       <c r="B197" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C197" t="s">
         <v>9</v>
@@ -7009,7 +7022,7 @@
         <v>22</v>
       </c>
       <c r="B198" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
@@ -7026,7 +7039,7 @@
         <v>22</v>
       </c>
       <c r="B199" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
@@ -7043,7 +7056,7 @@
         <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
@@ -7060,7 +7073,7 @@
         <v>22</v>
       </c>
       <c r="B201" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -7077,7 +7090,7 @@
         <v>23</v>
       </c>
       <c r="B202" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
@@ -7128,7 +7141,7 @@
         <v>23</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -7196,7 +7209,7 @@
         <v>23</v>
       </c>
       <c r="B209" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
@@ -7213,7 +7226,7 @@
         <v>23</v>
       </c>
       <c r="B210" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
@@ -7264,7 +7277,7 @@
         <v>23</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -7281,7 +7294,7 @@
         <v>23</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
@@ -7298,7 +7311,7 @@
         <v>23</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C215" t="s">
         <v>9</v>
@@ -7315,7 +7328,7 @@
         <v>23</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
@@ -7332,7 +7345,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C217" t="s">
         <v>9</v>
@@ -7349,7 +7362,7 @@
         <v>23</v>
       </c>
       <c r="B218" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -7400,7 +7413,7 @@
         <v>23</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -7417,7 +7430,7 @@
         <v>24</v>
       </c>
       <c r="B222" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
@@ -7434,7 +7447,7 @@
         <v>24</v>
       </c>
       <c r="B223" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
@@ -7451,7 +7464,7 @@
         <v>24</v>
       </c>
       <c r="B224" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
@@ -7468,7 +7481,7 @@
         <v>24</v>
       </c>
       <c r="B225" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C225" t="s">
         <v>9</v>
@@ -7502,7 +7515,7 @@
         <v>24</v>
       </c>
       <c r="B227" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
@@ -7519,7 +7532,7 @@
         <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
@@ -7553,7 +7566,7 @@
         <v>25</v>
       </c>
       <c r="B230" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C230" t="s">
         <v>9</v>
@@ -7570,7 +7583,7 @@
         <v>25</v>
       </c>
       <c r="B231" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
@@ -7587,7 +7600,7 @@
         <v>25</v>
       </c>
       <c r="B232" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
@@ -7604,7 +7617,7 @@
         <v>25</v>
       </c>
       <c r="B233" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
@@ -7621,7 +7634,7 @@
         <v>25</v>
       </c>
       <c r="B234" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -7638,7 +7651,7 @@
         <v>25</v>
       </c>
       <c r="B235" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
@@ -7672,7 +7685,7 @@
         <v>25</v>
       </c>
       <c r="B237" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
@@ -7689,7 +7702,7 @@
         <v>26</v>
       </c>
       <c r="B238" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
@@ -7706,7 +7719,7 @@
         <v>26</v>
       </c>
       <c r="B239" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
@@ -7723,7 +7736,7 @@
         <v>26</v>
       </c>
       <c r="B240" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
@@ -7740,7 +7753,7 @@
         <v>26</v>
       </c>
       <c r="B241" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -7774,7 +7787,7 @@
         <v>26</v>
       </c>
       <c r="B243" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C243" t="s">
         <v>9</v>
@@ -7808,7 +7821,7 @@
         <v>26</v>
       </c>
       <c r="B245" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C245" t="s">
         <v>9</v>
@@ -7842,7 +7855,7 @@
         <v>26</v>
       </c>
       <c r="B247" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
@@ -7859,7 +7872,7 @@
         <v>27</v>
       </c>
       <c r="B248" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C248" t="s">
         <v>9</v>
@@ -7876,7 +7889,7 @@
         <v>27</v>
       </c>
       <c r="B249" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
@@ -7893,7 +7906,7 @@
         <v>27</v>
       </c>
       <c r="B250" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C250" t="s">
         <v>9</v>
@@ -7910,7 +7923,7 @@
         <v>27</v>
       </c>
       <c r="B251" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C251" t="s">
         <v>9</v>
@@ -7927,7 +7940,7 @@
         <v>27</v>
       </c>
       <c r="B252" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C252" t="s">
         <v>9</v>
@@ -7944,7 +7957,7 @@
         <v>27</v>
       </c>
       <c r="B253" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C253" t="s">
         <v>9</v>
@@ -7961,7 +7974,7 @@
         <v>27</v>
       </c>
       <c r="B254" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
@@ -7995,7 +8008,7 @@
         <v>27</v>
       </c>
       <c r="B256" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
@@ -8012,7 +8025,7 @@
         <v>28</v>
       </c>
       <c r="B257" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
@@ -8029,7 +8042,7 @@
         <v>28</v>
       </c>
       <c r="B258" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C258" t="s">
         <v>9</v>
@@ -8046,7 +8059,7 @@
         <v>28</v>
       </c>
       <c r="B259" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C259" t="s">
         <v>9</v>
@@ -8063,7 +8076,7 @@
         <v>28</v>
       </c>
       <c r="B260" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C260" t="s">
         <v>9</v>
@@ -8250,7 +8263,7 @@
         <v>28</v>
       </c>
       <c r="B271" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C271" t="s">
         <v>9</v>
@@ -8267,7 +8280,7 @@
         <v>28</v>
       </c>
       <c r="B272" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C272" t="s">
         <v>9</v>
@@ -8301,7 +8314,7 @@
         <v>28</v>
       </c>
       <c r="B274" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C274" t="s">
         <v>9</v>
@@ -8335,7 +8348,7 @@
         <v>28</v>
       </c>
       <c r="B276" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C276" t="s">
         <v>9</v>
@@ -8352,7 +8365,7 @@
         <v>28</v>
       </c>
       <c r="B277" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C277" t="s">
         <v>9</v>
@@ -8369,7 +8382,7 @@
         <v>28</v>
       </c>
       <c r="B278" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C278" t="s">
         <v>9</v>
@@ -8386,7 +8399,7 @@
         <v>28</v>
       </c>
       <c r="B279" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C279" t="s">
         <v>9</v>
@@ -8420,7 +8433,7 @@
         <v>28</v>
       </c>
       <c r="B281" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C281" t="s">
         <v>9</v>
@@ -8437,7 +8450,7 @@
         <v>7</v>
       </c>
       <c r="B282" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C282" t="s">
         <v>9</v>
@@ -8454,7 +8467,7 @@
         <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C283" t="s">
         <v>9</v>
@@ -8471,7 +8484,7 @@
         <v>7</v>
       </c>
       <c r="B284" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C284" t="s">
         <v>9</v>
@@ -8488,7 +8501,7 @@
         <v>7</v>
       </c>
       <c r="B285" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C285" t="s">
         <v>9</v>
@@ -8556,7 +8569,7 @@
         <v>7</v>
       </c>
       <c r="B289" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C289" t="s">
         <v>9</v>
@@ -8607,7 +8620,7 @@
         <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C292" t="s">
         <v>9</v>
@@ -8624,7 +8637,7 @@
         <v>7</v>
       </c>
       <c r="B293" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C293" t="s">
         <v>9</v>
@@ -8641,7 +8654,7 @@
         <v>7</v>
       </c>
       <c r="B294" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C294" t="s">
         <v>9</v>
@@ -8658,7 +8671,7 @@
         <v>7</v>
       </c>
       <c r="B295" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C295" t="s">
         <v>9</v>
@@ -8675,7 +8688,7 @@
         <v>7</v>
       </c>
       <c r="B296" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C296" t="s">
         <v>9</v>
@@ -8692,7 +8705,7 @@
         <v>7</v>
       </c>
       <c r="B297" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C297" t="s">
         <v>9</v>
@@ -8726,7 +8739,7 @@
         <v>7</v>
       </c>
       <c r="B299" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C299" t="s">
         <v>9</v>
@@ -8743,7 +8756,7 @@
         <v>10</v>
       </c>
       <c r="B300" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C300" t="s">
         <v>9</v>
@@ -8760,7 +8773,7 @@
         <v>10</v>
       </c>
       <c r="B301" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C301" t="s">
         <v>9</v>
@@ -8777,7 +8790,7 @@
         <v>10</v>
       </c>
       <c r="B302" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C302" t="s">
         <v>9</v>
@@ -8794,7 +8807,7 @@
         <v>10</v>
       </c>
       <c r="B303" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C303" t="s">
         <v>9</v>
@@ -8930,7 +8943,7 @@
         <v>10</v>
       </c>
       <c r="B311" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C311" t="s">
         <v>9</v>
@@ -8947,7 +8960,7 @@
         <v>10</v>
       </c>
       <c r="B312" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C312" t="s">
         <v>9</v>
@@ -8964,7 +8977,7 @@
         <v>10</v>
       </c>
       <c r="B313" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C313" t="s">
         <v>9</v>
@@ -8981,7 +8994,7 @@
         <v>10</v>
       </c>
       <c r="B314" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C314" t="s">
         <v>9</v>
@@ -8998,7 +9011,7 @@
         <v>10</v>
       </c>
       <c r="B315" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C315" t="s">
         <v>9</v>
@@ -9015,7 +9028,7 @@
         <v>10</v>
       </c>
       <c r="B316" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C316" t="s">
         <v>9</v>
@@ -9032,7 +9045,7 @@
         <v>10</v>
       </c>
       <c r="B317" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C317" t="s">
         <v>9</v>
@@ -9049,7 +9062,7 @@
         <v>10</v>
       </c>
       <c r="B318" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C318" t="s">
         <v>9</v>
@@ -9100,7 +9113,7 @@
         <v>10</v>
       </c>
       <c r="B321" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C321" t="s">
         <v>9</v>
@@ -9117,7 +9130,7 @@
         <v>11</v>
       </c>
       <c r="B322" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C322" t="s">
         <v>9</v>
@@ -9134,7 +9147,7 @@
         <v>11</v>
       </c>
       <c r="B323" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C323" t="s">
         <v>9</v>
@@ -9151,7 +9164,7 @@
         <v>11</v>
       </c>
       <c r="B324" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C324" t="s">
         <v>9</v>
@@ -9202,7 +9215,7 @@
         <v>11</v>
       </c>
       <c r="B327" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C327" t="s">
         <v>9</v>
@@ -9253,7 +9266,7 @@
         <v>11</v>
       </c>
       <c r="B330" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C330" t="s">
         <v>9</v>
@@ -9270,7 +9283,7 @@
         <v>11</v>
       </c>
       <c r="B331" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C331" t="s">
         <v>9</v>
@@ -9287,7 +9300,7 @@
         <v>11</v>
       </c>
       <c r="B332" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C332" t="s">
         <v>9</v>
@@ -9304,7 +9317,7 @@
         <v>12</v>
       </c>
       <c r="B333" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C333" t="s">
         <v>9</v>
@@ -9321,7 +9334,7 @@
         <v>12</v>
       </c>
       <c r="B334" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C334" t="s">
         <v>9</v>
@@ -9338,7 +9351,7 @@
         <v>12</v>
       </c>
       <c r="B335" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C335" t="s">
         <v>9</v>
@@ -9355,7 +9368,7 @@
         <v>12</v>
       </c>
       <c r="B336" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C336" t="s">
         <v>9</v>
@@ -9389,7 +9402,7 @@
         <v>12</v>
       </c>
       <c r="B338" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C338" t="s">
         <v>9</v>
@@ -9440,7 +9453,7 @@
         <v>12</v>
       </c>
       <c r="B341" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C341" t="s">
         <v>9</v>
@@ -9457,7 +9470,7 @@
         <v>12</v>
       </c>
       <c r="B342" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C342" t="s">
         <v>9</v>
@@ -9491,7 +9504,7 @@
         <v>12</v>
       </c>
       <c r="B344" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C344" t="s">
         <v>9</v>
@@ -9508,7 +9521,7 @@
         <v>12</v>
       </c>
       <c r="B345" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C345" t="s">
         <v>9</v>
@@ -9525,7 +9538,7 @@
         <v>12</v>
       </c>
       <c r="B346" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C346" t="s">
         <v>9</v>
@@ -9542,7 +9555,7 @@
         <v>13</v>
       </c>
       <c r="B347" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C347" t="s">
         <v>9</v>
@@ -9576,7 +9589,7 @@
         <v>13</v>
       </c>
       <c r="B349" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C349" t="s">
         <v>9</v>
@@ -9593,7 +9606,7 @@
         <v>13</v>
       </c>
       <c r="B350" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C350" t="s">
         <v>9</v>
@@ -9610,7 +9623,7 @@
         <v>13</v>
       </c>
       <c r="B351" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C351" t="s">
         <v>9</v>
@@ -9627,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B352" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C352" t="s">
         <v>9</v>
@@ -9644,7 +9657,7 @@
         <v>13</v>
       </c>
       <c r="B353" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C353" t="s">
         <v>9</v>
@@ -9661,7 +9674,7 @@
         <v>13</v>
       </c>
       <c r="B354" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C354" t="s">
         <v>9</v>
@@ -9678,7 +9691,7 @@
         <v>14</v>
       </c>
       <c r="B355" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C355" t="s">
         <v>9</v>
@@ -9695,7 +9708,7 @@
         <v>14</v>
       </c>
       <c r="B356" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C356" t="s">
         <v>9</v>
@@ -9712,7 +9725,7 @@
         <v>14</v>
       </c>
       <c r="B357" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C357" t="s">
         <v>9</v>
@@ -9729,7 +9742,7 @@
         <v>14</v>
       </c>
       <c r="B358" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C358" t="s">
         <v>9</v>
@@ -9763,7 +9776,7 @@
         <v>14</v>
       </c>
       <c r="B360" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C360" t="s">
         <v>9</v>
@@ -9780,7 +9793,7 @@
         <v>14</v>
       </c>
       <c r="B361" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C361" t="s">
         <v>9</v>
@@ -9797,7 +9810,7 @@
         <v>14</v>
       </c>
       <c r="B362" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C362" t="s">
         <v>9</v>
@@ -9814,7 +9827,7 @@
         <v>14</v>
       </c>
       <c r="B363" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C363" t="s">
         <v>9</v>
@@ -9831,7 +9844,7 @@
         <v>14</v>
       </c>
       <c r="B364" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C364" t="s">
         <v>9</v>
@@ -9848,7 +9861,7 @@
         <v>14</v>
       </c>
       <c r="B365" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C365" t="s">
         <v>9</v>
@@ -9865,7 +9878,7 @@
         <v>14</v>
       </c>
       <c r="B366" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C366" t="s">
         <v>9</v>
@@ -9882,7 +9895,7 @@
         <v>14</v>
       </c>
       <c r="B367" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C367" t="s">
         <v>9</v>
@@ -9933,7 +9946,7 @@
         <v>14</v>
       </c>
       <c r="B370" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C370" t="s">
         <v>9</v>
@@ -9950,7 +9963,7 @@
         <v>14</v>
       </c>
       <c r="B371" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C371" t="s">
         <v>9</v>
@@ -9967,7 +9980,7 @@
         <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C372" t="s">
         <v>9</v>
@@ -9984,7 +9997,7 @@
         <v>15</v>
       </c>
       <c r="B373" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C373" t="s">
         <v>9</v>
@@ -10001,7 +10014,7 @@
         <v>15</v>
       </c>
       <c r="B374" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C374" t="s">
         <v>9</v>
@@ -10018,7 +10031,7 @@
         <v>15</v>
       </c>
       <c r="B375" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C375" t="s">
         <v>9</v>
@@ -10103,7 +10116,7 @@
         <v>15</v>
       </c>
       <c r="B380" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C380" t="s">
         <v>9</v>
@@ -10120,7 +10133,7 @@
         <v>15</v>
       </c>
       <c r="B381" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C381" t="s">
         <v>9</v>
@@ -10137,7 +10150,7 @@
         <v>15</v>
       </c>
       <c r="B382" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C382" t="s">
         <v>9</v>
@@ -10171,7 +10184,7 @@
         <v>15</v>
       </c>
       <c r="B384" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C384" t="s">
         <v>9</v>
@@ -10188,7 +10201,7 @@
         <v>15</v>
       </c>
       <c r="B385" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C385" t="s">
         <v>9</v>
@@ -10222,7 +10235,7 @@
         <v>15</v>
       </c>
       <c r="B387" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C387" t="s">
         <v>9</v>
@@ -10239,7 +10252,7 @@
         <v>16</v>
       </c>
       <c r="B388" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C388" t="s">
         <v>9</v>
@@ -10256,7 +10269,7 @@
         <v>16</v>
       </c>
       <c r="B389" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C389" t="s">
         <v>9</v>
@@ -10273,7 +10286,7 @@
         <v>16</v>
       </c>
       <c r="B390" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C390" t="s">
         <v>9</v>
@@ -10290,7 +10303,7 @@
         <v>16</v>
       </c>
       <c r="B391" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C391" t="s">
         <v>9</v>
@@ -10358,7 +10371,7 @@
         <v>16</v>
       </c>
       <c r="B395" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C395" t="s">
         <v>9</v>
@@ -10375,7 +10388,7 @@
         <v>16</v>
       </c>
       <c r="B396" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C396" t="s">
         <v>9</v>
@@ -10426,7 +10439,7 @@
         <v>16</v>
       </c>
       <c r="B399" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C399" t="s">
         <v>9</v>
@@ -10443,7 +10456,7 @@
         <v>16</v>
       </c>
       <c r="B400" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C400" t="s">
         <v>9</v>
@@ -10460,7 +10473,7 @@
         <v>16</v>
       </c>
       <c r="B401" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C401" t="s">
         <v>9</v>
@@ -10477,7 +10490,7 @@
         <v>16</v>
       </c>
       <c r="B402" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C402" t="s">
         <v>9</v>
@@ -10494,7 +10507,7 @@
         <v>16</v>
       </c>
       <c r="B403" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C403" t="s">
         <v>9</v>
@@ -10511,7 +10524,7 @@
         <v>16</v>
       </c>
       <c r="B404" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C404" t="s">
         <v>9</v>
@@ -10562,7 +10575,7 @@
         <v>16</v>
       </c>
       <c r="B407" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C407" t="s">
         <v>9</v>
@@ -10579,7 +10592,7 @@
         <v>17</v>
       </c>
       <c r="B408" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C408" t="s">
         <v>9</v>
@@ -10596,7 +10609,7 @@
         <v>17</v>
       </c>
       <c r="B409" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C409" t="s">
         <v>9</v>
@@ -10613,7 +10626,7 @@
         <v>17</v>
       </c>
       <c r="B410" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C410" t="s">
         <v>9</v>
@@ -10630,7 +10643,7 @@
         <v>17</v>
       </c>
       <c r="B411" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C411" t="s">
         <v>9</v>
@@ -10681,7 +10694,7 @@
         <v>17</v>
       </c>
       <c r="B414" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C414" t="s">
         <v>9</v>
@@ -10698,7 +10711,7 @@
         <v>17</v>
       </c>
       <c r="B415" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C415" t="s">
         <v>9</v>
@@ -10715,7 +10728,7 @@
         <v>17</v>
       </c>
       <c r="B416" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C416" t="s">
         <v>9</v>
@@ -10732,7 +10745,7 @@
         <v>17</v>
       </c>
       <c r="B417" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C417" t="s">
         <v>9</v>
@@ -10749,7 +10762,7 @@
         <v>17</v>
       </c>
       <c r="B418" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C418" t="s">
         <v>9</v>
@@ -10766,7 +10779,7 @@
         <v>17</v>
       </c>
       <c r="B419" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C419" t="s">
         <v>9</v>
@@ -10800,7 +10813,7 @@
         <v>17</v>
       </c>
       <c r="B421" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C421" t="s">
         <v>9</v>
@@ -10817,7 +10830,7 @@
         <v>18</v>
       </c>
       <c r="B422" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C422" t="s">
         <v>9</v>
@@ -10834,7 +10847,7 @@
         <v>18</v>
       </c>
       <c r="B423" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C423" t="s">
         <v>9</v>
@@ -10851,7 +10864,7 @@
         <v>18</v>
       </c>
       <c r="B424" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C424" t="s">
         <v>9</v>
@@ -10902,7 +10915,7 @@
         <v>18</v>
       </c>
       <c r="B427" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C427" t="s">
         <v>9</v>
@@ -10919,7 +10932,7 @@
         <v>18</v>
       </c>
       <c r="B428" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C428" t="s">
         <v>9</v>
@@ -10936,7 +10949,7 @@
         <v>18</v>
       </c>
       <c r="B429" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C429" t="s">
         <v>9</v>
@@ -10970,7 +10983,7 @@
         <v>18</v>
       </c>
       <c r="B431" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C431" t="s">
         <v>9</v>
@@ -10987,7 +11000,7 @@
         <v>18</v>
       </c>
       <c r="B432" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C432" t="s">
         <v>9</v>
@@ -11004,7 +11017,7 @@
         <v>19</v>
       </c>
       <c r="B433" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C433" t="s">
         <v>9</v>
@@ -11021,7 +11034,7 @@
         <v>19</v>
       </c>
       <c r="B434" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C434" t="s">
         <v>9</v>
@@ -11038,7 +11051,7 @@
         <v>19</v>
       </c>
       <c r="B435" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C435" t="s">
         <v>9</v>
@@ -11055,7 +11068,7 @@
         <v>19</v>
       </c>
       <c r="B436" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C436" t="s">
         <v>9</v>
@@ -11157,7 +11170,7 @@
         <v>19</v>
       </c>
       <c r="B442" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C442" t="s">
         <v>9</v>
@@ -11174,7 +11187,7 @@
         <v>19</v>
       </c>
       <c r="B443" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C443" t="s">
         <v>9</v>
@@ -11191,7 +11204,7 @@
         <v>19</v>
       </c>
       <c r="B444" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C444" t="s">
         <v>9</v>
@@ -11208,7 +11221,7 @@
         <v>19</v>
       </c>
       <c r="B445" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C445" t="s">
         <v>9</v>
@@ -11242,7 +11255,7 @@
         <v>19</v>
       </c>
       <c r="B447" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C447" t="s">
         <v>9</v>
@@ -11259,7 +11272,7 @@
         <v>20</v>
       </c>
       <c r="B448" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C448" t="s">
         <v>9</v>
@@ -11276,7 +11289,7 @@
         <v>20</v>
       </c>
       <c r="B449" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C449" t="s">
         <v>9</v>
@@ -11293,7 +11306,7 @@
         <v>20</v>
       </c>
       <c r="B450" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C450" t="s">
         <v>9</v>
@@ -11310,7 +11323,7 @@
         <v>20</v>
       </c>
       <c r="B451" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C451" t="s">
         <v>9</v>
@@ -11327,7 +11340,7 @@
         <v>20</v>
       </c>
       <c r="B452" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C452" t="s">
         <v>9</v>
@@ -11344,7 +11357,7 @@
         <v>20</v>
       </c>
       <c r="B453" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C453" t="s">
         <v>9</v>
@@ -11361,7 +11374,7 @@
         <v>20</v>
       </c>
       <c r="B454" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C454" t="s">
         <v>9</v>
@@ -11378,7 +11391,7 @@
         <v>21</v>
       </c>
       <c r="B455" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C455" t="s">
         <v>9</v>
@@ -11395,7 +11408,7 @@
         <v>21</v>
       </c>
       <c r="B456" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C456" t="s">
         <v>9</v>
@@ -11412,7 +11425,7 @@
         <v>21</v>
       </c>
       <c r="B457" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C457" t="s">
         <v>9</v>
@@ -11429,7 +11442,7 @@
         <v>21</v>
       </c>
       <c r="B458" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C458" t="s">
         <v>9</v>
@@ -11446,7 +11459,7 @@
         <v>21</v>
       </c>
       <c r="B459" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C459" t="s">
         <v>9</v>
@@ -11463,7 +11476,7 @@
         <v>21</v>
       </c>
       <c r="B460" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C460" t="s">
         <v>9</v>
@@ -11480,7 +11493,7 @@
         <v>21</v>
       </c>
       <c r="B461" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C461" t="s">
         <v>9</v>
@@ -11497,7 +11510,7 @@
         <v>22</v>
       </c>
       <c r="B462" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C462" t="s">
         <v>9</v>
@@ -11514,7 +11527,7 @@
         <v>22</v>
       </c>
       <c r="B463" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C463" t="s">
         <v>9</v>
@@ -11531,7 +11544,7 @@
         <v>22</v>
       </c>
       <c r="B464" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C464" t="s">
         <v>9</v>
@@ -11548,7 +11561,7 @@
         <v>22</v>
       </c>
       <c r="B465" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C465" t="s">
         <v>9</v>
@@ -11565,7 +11578,7 @@
         <v>22</v>
       </c>
       <c r="B466" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C466" t="s">
         <v>9</v>
@@ -11582,7 +11595,7 @@
         <v>22</v>
       </c>
       <c r="B467" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C467" t="s">
         <v>9</v>
@@ -11599,7 +11612,7 @@
         <v>22</v>
       </c>
       <c r="B468" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C468" t="s">
         <v>9</v>
@@ -11616,7 +11629,7 @@
         <v>22</v>
       </c>
       <c r="B469" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C469" t="s">
         <v>9</v>
@@ -11633,7 +11646,7 @@
         <v>23</v>
       </c>
       <c r="B470" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C470" t="s">
         <v>9</v>
@@ -11735,7 +11748,7 @@
         <v>23</v>
       </c>
       <c r="B476" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C476" t="s">
         <v>9</v>
@@ -11752,7 +11765,7 @@
         <v>23</v>
       </c>
       <c r="B477" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C477" t="s">
         <v>9</v>
@@ -11820,7 +11833,7 @@
         <v>23</v>
       </c>
       <c r="B481" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C481" t="s">
         <v>9</v>
@@ -11837,7 +11850,7 @@
         <v>23</v>
       </c>
       <c r="B482" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C482" t="s">
         <v>9</v>
@@ -11854,7 +11867,7 @@
         <v>23</v>
       </c>
       <c r="B483" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C483" t="s">
         <v>9</v>
@@ -11871,7 +11884,7 @@
         <v>23</v>
       </c>
       <c r="B484" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C484" t="s">
         <v>9</v>
@@ -11888,7 +11901,7 @@
         <v>23</v>
       </c>
       <c r="B485" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C485" t="s">
         <v>9</v>
@@ -11905,7 +11918,7 @@
         <v>23</v>
       </c>
       <c r="B486" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C486" t="s">
         <v>9</v>
@@ -11956,7 +11969,7 @@
         <v>23</v>
       </c>
       <c r="B489" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C489" t="s">
         <v>9</v>
@@ -11973,7 +11986,7 @@
         <v>24</v>
       </c>
       <c r="B490" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C490" t="s">
         <v>9</v>
@@ -11990,7 +12003,7 @@
         <v>24</v>
       </c>
       <c r="B491" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C491" t="s">
         <v>9</v>
@@ -12007,7 +12020,7 @@
         <v>24</v>
       </c>
       <c r="B492" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C492" t="s">
         <v>9</v>
@@ -12024,7 +12037,7 @@
         <v>24</v>
       </c>
       <c r="B493" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C493" t="s">
         <v>9</v>
@@ -12058,7 +12071,7 @@
         <v>24</v>
       </c>
       <c r="B495" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C495" t="s">
         <v>9</v>
@@ -12075,7 +12088,7 @@
         <v>24</v>
       </c>
       <c r="B496" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C496" t="s">
         <v>9</v>
@@ -12109,7 +12122,7 @@
         <v>25</v>
       </c>
       <c r="B498" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C498" t="s">
         <v>9</v>
@@ -12126,7 +12139,7 @@
         <v>25</v>
       </c>
       <c r="B499" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C499" t="s">
         <v>9</v>
@@ -12143,7 +12156,7 @@
         <v>25</v>
       </c>
       <c r="B500" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C500" t="s">
         <v>9</v>
@@ -12160,7 +12173,7 @@
         <v>25</v>
       </c>
       <c r="B501" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C501" t="s">
         <v>9</v>
@@ -12177,7 +12190,7 @@
         <v>25</v>
       </c>
       <c r="B502" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C502" t="s">
         <v>9</v>
@@ -12194,7 +12207,7 @@
         <v>25</v>
       </c>
       <c r="B503" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C503" t="s">
         <v>9</v>
@@ -12211,7 +12224,7 @@
         <v>25</v>
       </c>
       <c r="B504" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C504" t="s">
         <v>9</v>
@@ -12245,7 +12258,7 @@
         <v>25</v>
       </c>
       <c r="B506" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C506" t="s">
         <v>9</v>
@@ -12262,7 +12275,7 @@
         <v>26</v>
       </c>
       <c r="B507" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C507" t="s">
         <v>9</v>
@@ -12279,7 +12292,7 @@
         <v>26</v>
       </c>
       <c r="B508" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C508" t="s">
         <v>9</v>
@@ -12296,7 +12309,7 @@
         <v>26</v>
       </c>
       <c r="B509" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C509" t="s">
         <v>9</v>
@@ -12313,7 +12326,7 @@
         <v>26</v>
       </c>
       <c r="B510" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C510" t="s">
         <v>9</v>
@@ -12330,7 +12343,7 @@
         <v>26</v>
       </c>
       <c r="B511" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C511" t="s">
         <v>9</v>
@@ -12364,7 +12377,7 @@
         <v>26</v>
       </c>
       <c r="B513" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C513" t="s">
         <v>9</v>
@@ -12381,7 +12394,7 @@
         <v>26</v>
       </c>
       <c r="B514" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C514" t="s">
         <v>9</v>
@@ -12415,7 +12428,7 @@
         <v>26</v>
       </c>
       <c r="B516" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C516" t="s">
         <v>9</v>
@@ -12432,7 +12445,7 @@
         <v>27</v>
       </c>
       <c r="B517" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C517" t="s">
         <v>9</v>
@@ -12449,7 +12462,7 @@
         <v>27</v>
       </c>
       <c r="B518" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C518" t="s">
         <v>9</v>
@@ -12466,7 +12479,7 @@
         <v>27</v>
       </c>
       <c r="B519" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C519" t="s">
         <v>9</v>
@@ -12483,7 +12496,7 @@
         <v>27</v>
       </c>
       <c r="B520" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C520" t="s">
         <v>9</v>
@@ -12500,7 +12513,7 @@
         <v>27</v>
       </c>
       <c r="B521" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C521" t="s">
         <v>9</v>
@@ -12517,7 +12530,7 @@
         <v>27</v>
       </c>
       <c r="B522" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C522" t="s">
         <v>9</v>
@@ -12534,7 +12547,7 @@
         <v>27</v>
       </c>
       <c r="B523" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C523" t="s">
         <v>9</v>
@@ -12568,7 +12581,7 @@
         <v>27</v>
       </c>
       <c r="B525" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C525" t="s">
         <v>9</v>
@@ -12585,7 +12598,7 @@
         <v>28</v>
       </c>
       <c r="B526" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C526" t="s">
         <v>9</v>
@@ -12602,7 +12615,7 @@
         <v>28</v>
       </c>
       <c r="B527" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C527" t="s">
         <v>9</v>
@@ -12619,7 +12632,7 @@
         <v>28</v>
       </c>
       <c r="B528" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C528" t="s">
         <v>9</v>
@@ -12636,7 +12649,7 @@
         <v>28</v>
       </c>
       <c r="B529" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C529" t="s">
         <v>9</v>
@@ -12789,7 +12802,7 @@
         <v>28</v>
       </c>
       <c r="B538" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C538" t="s">
         <v>9</v>
@@ -12806,7 +12819,7 @@
         <v>28</v>
       </c>
       <c r="B539" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C539" t="s">
         <v>9</v>
@@ -12840,7 +12853,7 @@
         <v>28</v>
       </c>
       <c r="B541" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C541" t="s">
         <v>9</v>
@@ -12874,7 +12887,7 @@
         <v>28</v>
       </c>
       <c r="B543" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C543" t="s">
         <v>9</v>
@@ -12891,7 +12904,7 @@
         <v>28</v>
       </c>
       <c r="B544" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C544" t="s">
         <v>9</v>
@@ -12908,7 +12921,7 @@
         <v>28</v>
       </c>
       <c r="B545" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C545" t="s">
         <v>9</v>
@@ -12925,7 +12938,7 @@
         <v>28</v>
       </c>
       <c r="B546" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C546" t="s">
         <v>9</v>
@@ -12959,7 +12972,7 @@
         <v>28</v>
       </c>
       <c r="B548" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C548" t="s">
         <v>9</v>
@@ -13714,7 +13727,7 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
@@ -13728,13 +13741,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>89</v>
@@ -16641,7 +16654,7 @@
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AP2" sqref="AO2:AP2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16706,22 +16719,22 @@
         <v>70</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>71</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>72</v>
@@ -16769,7 +16782,7 @@
         <v>86</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>87</v>
@@ -16780,7 +16793,7 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16789,10 +16802,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -16852,13 +16865,13 @@
         <v>36.020000000000003</v>
       </c>
       <c r="AN2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AO2" s="36" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AP2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -16894,13 +16907,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -16911,10 +16924,10 @@
         <v>2030</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E2" s="31">
         <v>105</v>
@@ -16928,10 +16941,10 @@
         <v>2040</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E3" s="31">
         <v>105</v>
@@ -16973,10 +16986,10 @@
         <v>89</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -16987,7 +17000,7 @@
         <v>2030</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D2" s="32">
         <v>27</v>
@@ -17023,7 +17036,7 @@
         <v>2030</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D4" s="32">
         <v>55</v>
@@ -17041,7 +17054,7 @@
         <v>2030</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D5" s="32">
         <v>46</v>
@@ -17077,7 +17090,7 @@
         <v>2030</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D7" s="34">
         <v>8</v>
@@ -17095,7 +17108,7 @@
         <v>2030</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D8" s="32">
         <v>26</v>
@@ -17113,7 +17126,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D9" s="33">
         <v>1</v>
@@ -17131,7 +17144,7 @@
         <v>2030</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D10" s="33">
         <v>1</v>
@@ -17149,7 +17162,7 @@
         <v>2030</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D11" s="33">
         <v>10</v>
@@ -17167,7 +17180,7 @@
         <v>2040</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D12" s="32">
         <v>27</v>
@@ -17203,7 +17216,7 @@
         <v>2040</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D14" s="32">
         <v>55</v>
@@ -17221,7 +17234,7 @@
         <v>2040</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D15" s="32">
         <v>46</v>
@@ -17257,7 +17270,7 @@
         <v>2040</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D17" s="34">
         <v>8</v>
@@ -17275,7 +17288,7 @@
         <v>2040</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D18" s="32">
         <v>26</v>
@@ -17293,7 +17306,7 @@
         <v>2040</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D19" s="33">
         <v>1</v>
@@ -17311,7 +17324,7 @@
         <v>2040</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D20" s="33">
         <v>1</v>
@@ -17329,7 +17342,7 @@
         <v>2040</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D21" s="33">
         <v>10</v>
@@ -17369,7 +17382,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>30</v>
@@ -17393,8 +17406,8 @@
   </sheetPr>
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17402,10 +17415,10 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -17415,10 +17428,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>59</v>
@@ -17430,25 +17443,25 @@
         <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -17591,7 +17604,7 @@
         <v>2400</v>
       </c>
       <c r="L5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -17629,7 +17642,7 @@
         <v>3000</v>
       </c>
       <c r="L6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -17807,7 +17820,7 @@
         <v>3000</v>
       </c>
       <c r="L11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -18195,7 +18208,7 @@
         <v>879</v>
       </c>
       <c r="L22" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -18583,7 +18596,7 @@
         <v>2800</v>
       </c>
       <c r="L33" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -18936,7 +18949,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -18971,7 +18984,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -19006,7 +19019,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -19041,7 +19054,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -19076,10 +19089,10 @@
         <v>4800</v>
       </c>
       <c r="L47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -19114,10 +19127,10 @@
         <v>3000</v>
       </c>
       <c r="L48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -19152,7 +19165,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" hidden="1">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -19187,7 +19200,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" hidden="1">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -19222,7 +19235,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" hidden="1">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -19257,7 +19270,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" hidden="1">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -19292,10 +19305,10 @@
         <v>3000</v>
       </c>
       <c r="L53" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -19330,7 +19343,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" hidden="1">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -19365,7 +19378,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" hidden="1">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -19400,7 +19413,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" hidden="1">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -19435,7 +19448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" hidden="1">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -19470,7 +19483,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" hidden="1">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -19505,7 +19518,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" hidden="1">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -19540,7 +19553,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" hidden="1">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -19575,7 +19588,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" hidden="1">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -19610,7 +19623,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" hidden="1">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -19645,7 +19658,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" hidden="1">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -19680,10 +19693,10 @@
         <v>1879</v>
       </c>
       <c r="L64" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -19718,7 +19731,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" hidden="1">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -19753,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" hidden="1">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -19788,7 +19801,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" hidden="1">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -19823,7 +19836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" hidden="1">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -19858,7 +19871,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" hidden="1">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -19893,7 +19906,7 @@
         <v>8725</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" hidden="1">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -19928,7 +19941,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" hidden="1">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -19963,7 +19976,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" hidden="1">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -19998,7 +20011,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" hidden="1">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -20033,7 +20046,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" hidden="1">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -20068,10 +20081,10 @@
         <v>2800</v>
       </c>
       <c r="L75" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -20106,7 +20119,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" hidden="1">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -20141,7 +20154,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" hidden="1">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -20176,7 +20189,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" hidden="1">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -20211,7 +20224,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" hidden="1">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -20246,7 +20259,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -20281,7 +20294,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -20316,7 +20329,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -20351,7 +20364,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" t="s">
         <v>25</v>
       </c>
@@ -20386,7 +20399,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" t="s">
         <v>26</v>
       </c>

--- a/src_files/data_files/TYNDP-2024_National_Trends.xlsx
+++ b/src_files/data_files/TYNDP-2024_National_Trends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehjeric\git_backbone\balticseah2\backbone_250414\north_european_model_tyndp2024_update\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9609AAF9-6F94-427C-958C-7F662B8CA317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F42ACA6-5046-456A-A429-9D5B92FC956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="9" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="270">
   <si>
     <t>Country</t>
   </si>
@@ -840,32 +840,6 @@
   </si>
   <si>
     <t>Manually added sheets</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>unittypedata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, with parameters for Hydrogen CCGT.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1019,6 +993,38 @@
     <t xml:space="preserve">
 Column(s)</t>
   </si>
+  <si>
+    <t>Hydrogen OCGT</t>
+  </si>
+  <si>
+    <t>hydrogenOCGT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unittypedata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with parameters for Hydrogen CCGT and Hydrogen OCGT.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1027,7 +1033,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,6 +1045,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1114,6 +1121,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1247,7 +1265,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1360,6 +1378,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2137,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC769E0-33E8-4D95-B061-5C4E37A4649E}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2156,10 +2182,10 @@
         <v>146</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75">
@@ -2167,7 +2193,7 @@
         <v>147</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -2177,7 +2203,7 @@
     <row r="4" spans="1:6" ht="30.75" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>145</v>
@@ -2204,7 +2230,7 @@
         <v>142</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2216,7 +2242,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -2228,7 +2254,7 @@
         <v>141</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -2240,7 +2266,7 @@
         <v>140</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -2252,7 +2278,7 @@
         <v>139</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2405,17 +2431,17 @@
         <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3639,8 +3665,8 @@
   </sheetPr>
   <dimension ref="A1:H548"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E548" sqref="E2:E548"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12999,7 +13025,7 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F41"/>
     </sheetView>
   </sheetViews>
@@ -16651,10 +16677,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16832,7 +16858,7 @@
         <v>2</v>
       </c>
       <c r="W2">
-        <v>4.0999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="X2">
         <v>25.06</v>
@@ -16871,15 +16897,113 @@
         <v>198</v>
       </c>
       <c r="AP2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="44">
+        <v>1</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42">
+        <v>0.42</v>
+      </c>
+      <c r="P3" s="42">
+        <v>0.42</v>
+      </c>
+      <c r="Q3" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="R3" s="43">
+        <v>1</v>
+      </c>
+      <c r="S3" s="42">
+        <v>1.6</v>
+      </c>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42">
+        <v>1</v>
+      </c>
+      <c r="V3" s="42">
+        <v>1</v>
+      </c>
+      <c r="W3" s="42">
+        <v>0.21</v>
+      </c>
+      <c r="X3" s="42">
+        <v>20.36</v>
+      </c>
+      <c r="Y3" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="Z3" s="42">
+        <v>24.28</v>
+      </c>
+      <c r="AA3" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="AB3" s="42">
+        <v>17.23</v>
+      </c>
+      <c r="AC3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="42">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="AF3" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42">
+        <v>24.28</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AN3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO3" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP3" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AO2" r:id="rId1" display="https://www.entsoe.eu/eraa/2024/downloads/" xr:uid="{67CF8E31-412D-4600-8E5C-38B0E7B92D2F}"/>
+    <hyperlink ref="AO3" r:id="rId2" display="https://www.entsoe.eu/eraa/2024/downloads/" xr:uid="{334C4004-95A7-4DDB-8754-28228847097F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src_files/data_files/TYNDP-2024_National_Trends.xlsx
+++ b/src_files/data_files/TYNDP-2024_National_Trends.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EF8BA9-3E0E-421A-931B-5913C424C8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7EF24F-5BEF-41E4-8B55-787FF587DAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-105" windowWidth="18240" windowHeight="28320" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="9" r:id="rId1"/>
@@ -526,12 +526,6 @@
     <t>Reference grid and investment candidate data</t>
   </si>
   <si>
-    <t>from_node</t>
-  </si>
-  <si>
-    <t>to_node</t>
-  </si>
-  <si>
     <t>export_diff</t>
   </si>
   <si>
@@ -994,6 +988,12 @@
   </si>
   <si>
     <t>Generates the following sheets: unitdata, demanddata_elec, transferdata, trans_capacities, trans_missing_ref_capacities, trans_lost_lines. Copy these from 'Data_for_TYNDP-2024_National_Trends.xlsx'</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1235,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1356,6 +1356,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1785,8 +1788,8 @@
   <autoFilter ref="A1:K91" xr:uid="{B440C99F-3BB1-4A8C-9867-FC60A58307DE}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{02926FC6-CA21-44BB-975F-A929C6C412D4}" name="from-to"/>
-    <tableColumn id="2" xr3:uid="{9A1A3B49-8442-4D63-8194-9CB505844700}" name="from_node"/>
-    <tableColumn id="3" xr3:uid="{28CF7292-84E4-4FA6-BD4E-4C57CA3CAA7A}" name="to_node"/>
+    <tableColumn id="2" xr3:uid="{9A1A3B49-8442-4D63-8194-9CB505844700}" name="from"/>
+    <tableColumn id="3" xr3:uid="{28CF7292-84E4-4FA6-BD4E-4C57CA3CAA7A}" name="to"/>
     <tableColumn id="4" xr3:uid="{EFB59F1E-3071-43E4-ACBB-3F295D995CD3}" name="grid"/>
     <tableColumn id="5" xr3:uid="{8F71BFD3-97D0-464B-A70B-64EFDF49B13C}" name="scenario"/>
     <tableColumn id="6" xr3:uid="{F97DCB57-9A9F-4ACB-A684-6295D063A97F}" name="Year"/>
@@ -1829,8 +1832,8 @@
     <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{396304D9-1978-4B89-9903-C7F9F98F0689}" name="from_node"/>
-    <tableColumn id="2" xr3:uid="{CA224D49-82C9-43E7-BE46-A0525DF756FC}" name="to_node"/>
+    <tableColumn id="1" xr3:uid="{396304D9-1978-4B89-9903-C7F9F98F0689}" name="from"/>
+    <tableColumn id="2" xr3:uid="{CA224D49-82C9-43E7-BE46-A0525DF756FC}" name="to"/>
     <tableColumn id="3" xr3:uid="{421D624E-087C-4C54-8198-45506D05C6BE}" name="year"/>
     <tableColumn id="4" xr3:uid="{902EF71F-8114-4262-965E-03906B539E7E}" name="export_capacity"/>
     <tableColumn id="5" xr3:uid="{2D578F0F-9403-4368-83BF-318E4D154478}" name="import_capacity"/>
@@ -2133,7 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC769E0-33E8-4D95-B061-5C4E37A4649E}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2152,10 +2155,10 @@
         <v>146</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75">
@@ -2163,7 +2166,7 @@
         <v>147</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -2173,7 +2176,7 @@
     <row r="4" spans="1:6" ht="30.75" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>145</v>
@@ -2200,7 +2203,7 @@
         <v>142</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2209,10 +2212,10 @@
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="14"/>
       <c r="B7" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -2224,7 +2227,7 @@
         <v>141</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -2236,7 +2239,7 @@
         <v>140</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -2248,7 +2251,7 @@
         <v>139</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2267,7 +2270,7 @@
         <v>148</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2284,10 +2287,10 @@
     </row>
     <row r="14" spans="1:6" ht="45">
       <c r="A14" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2311,16 +2314,16 @@
     </row>
     <row r="17" spans="1:6" ht="30">
       <c r="A17" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>138</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>145</v>
@@ -2338,7 +2341,7 @@
         <v>137</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>150</v>
@@ -2355,10 +2358,10 @@
         <v>149</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
@@ -2366,16 +2369,16 @@
         <v>3</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C20" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>185</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2387,31 +2390,31 @@
     </row>
     <row r="24" spans="1:6" ht="60">
       <c r="A24" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2435,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2448,11 +2451,11 @@
       <c r="A1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>152</v>
+      <c r="B1" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>259</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>59</v>
@@ -2473,7 +2476,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>2030</v>
@@ -2491,7 +2494,7 @@
         <v>BEOF-UK00</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -2515,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -2536,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -2575,7 +2578,7 @@
         <v>DKBH-DKE1</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2599,7 +2602,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8">
         <v>2030</v>
@@ -2617,7 +2620,7 @@
         <v>EEOF-LV00</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -2641,7 +2644,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10">
         <v>2030</v>
@@ -2683,7 +2686,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -2701,7 +2704,7 @@
         <v>NLLL-UK00</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -2746,7 +2749,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15">
         <v>2040</v>
@@ -2764,7 +2767,7 @@
         <v>BEOF-UK00</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2788,7 +2791,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17">
         <v>2040</v>
@@ -2809,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18">
         <v>2040</v>
@@ -2848,7 +2851,7 @@
         <v>DKBH-DKE1</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -2872,7 +2875,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D21">
         <v>2040</v>
@@ -2890,7 +2893,7 @@
         <v>EEOF-LV00</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -2914,7 +2917,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23">
         <v>2040</v>
@@ -2956,7 +2959,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D25">
         <v>2040</v>
@@ -2974,7 +2977,7 @@
         <v>NLLL-UK00</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -3022,8 +3025,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3032,11 +3035,11 @@
       <c r="A1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>152</v>
+      <c r="B1" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>259</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>59</v>
@@ -3048,7 +3051,7 @@
         <v>91</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3060,7 +3063,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>2030</v>
@@ -3072,7 +3075,7 @@
         <v>1400</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3084,7 +3087,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -3096,7 +3099,7 @@
         <v>400</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3105,7 +3108,7 @@
         <v>DKBH-DKE1</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3120,7 +3123,7 @@
         <v>1200</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3132,7 +3135,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -3144,7 +3147,7 @@
         <v>600</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3156,7 +3159,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6">
         <v>2030</v>
@@ -3168,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3180,7 +3183,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -3192,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3204,7 +3207,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8">
         <v>2030</v>
@@ -3216,7 +3219,7 @@
         <v>2000</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3228,7 +3231,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D9">
         <v>2030</v>
@@ -3240,7 +3243,7 @@
         <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3252,7 +3255,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10">
         <v>2030</v>
@@ -3264,7 +3267,7 @@
         <v>400</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3276,7 +3279,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11">
         <v>2030</v>
@@ -3288,7 +3291,7 @@
         <v>600</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3300,7 +3303,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -3312,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3321,7 +3324,7 @@
         <v>PL00I-PL00</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -3336,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3348,7 +3351,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14">
         <v>2030</v>
@@ -3360,7 +3363,7 @@
         <v>400</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3372,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15">
         <v>2040</v>
@@ -3384,7 +3387,7 @@
         <v>3400</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3396,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16">
         <v>2040</v>
@@ -3408,7 +3411,7 @@
         <v>400</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3417,7 +3420,7 @@
         <v>DKBH-DKE1</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -3432,7 +3435,7 @@
         <v>1200</v>
       </c>
       <c r="G17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3444,7 +3447,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D18">
         <v>2040</v>
@@ -3456,7 +3459,7 @@
         <v>600</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3468,7 +3471,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D19">
         <v>2040</v>
@@ -3480,7 +3483,7 @@
         <v>3315.6529999999998</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3492,7 +3495,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D20">
         <v>2040</v>
@@ -3504,7 +3507,7 @@
         <v>1330</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3516,7 +3519,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D21">
         <v>2040</v>
@@ -3528,7 +3531,7 @@
         <v>2000</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3540,7 +3543,7 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22">
         <v>2040</v>
@@ -3552,7 +3555,7 @@
         <v>1100</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3564,7 +3567,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D23">
         <v>2040</v>
@@ -3576,7 +3579,7 @@
         <v>400</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3588,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D24">
         <v>2040</v>
@@ -3600,7 +3603,7 @@
         <v>600</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3612,7 +3615,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D25">
         <v>2040</v>
@@ -3624,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3633,7 +3636,7 @@
         <v>PL00I-PL00</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -3648,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3660,7 +3663,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D27">
         <v>2040</v>
@@ -3672,7 +3675,7 @@
         <v>400</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3735,10 +3738,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -3752,10 +3755,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -3769,10 +3772,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -3786,10 +3789,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3803,7 +3806,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -3820,7 +3823,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -3837,7 +3840,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -3871,7 +3874,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -3888,7 +3891,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -3905,7 +3908,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -3922,7 +3925,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -3939,7 +3942,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -3956,10 +3959,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -3973,10 +3976,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -3990,7 +3993,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
@@ -4007,10 +4010,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -4024,10 +4027,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -4041,10 +4044,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -4058,10 +4061,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -4075,10 +4078,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -4092,7 +4095,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -4109,7 +4112,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -4126,10 +4129,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -4146,7 +4149,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -4163,7 +4166,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -4180,7 +4183,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -4197,7 +4200,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -4282,7 +4285,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -4316,7 +4319,7 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -4333,7 +4336,7 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -4367,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -4384,7 +4387,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -4401,7 +4404,7 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -4418,7 +4421,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -4452,7 +4455,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -4466,10 +4469,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -4483,10 +4486,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -4500,10 +4503,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -4517,10 +4520,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -4534,10 +4537,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -4551,10 +4554,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -4568,7 +4571,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
@@ -4585,10 +4588,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -4602,10 +4605,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -4619,10 +4622,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -4636,10 +4639,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -4653,10 +4656,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -4670,7 +4673,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -4687,7 +4690,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -4704,10 +4707,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -4724,7 +4727,7 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -4741,7 +4744,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -4758,7 +4761,7 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -4775,7 +4778,7 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -4962,7 +4965,7 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
@@ -4979,7 +4982,7 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -5013,7 +5016,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -5030,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -5047,7 +5050,7 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -5064,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
@@ -5081,7 +5084,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
@@ -5098,7 +5101,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -5149,7 +5152,7 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -5166,7 +5169,7 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -5183,7 +5186,7 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -5217,7 +5220,7 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -5268,7 +5271,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -5319,7 +5322,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -5336,7 +5339,7 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -5353,7 +5356,7 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -5370,7 +5373,7 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -5387,7 +5390,7 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
@@ -5404,7 +5407,7 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
@@ -5421,7 +5424,7 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -5472,7 +5475,7 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -5557,7 +5560,7 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
@@ -5574,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -5608,7 +5611,7 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
         <v>9</v>
@@ -5625,7 +5628,7 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
@@ -5642,7 +5645,7 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
@@ -5659,7 +5662,7 @@
         <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
@@ -5693,7 +5696,7 @@
         <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
@@ -5710,7 +5713,7 @@
         <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C118" t="s">
         <v>9</v>
@@ -5727,7 +5730,7 @@
         <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C119" t="s">
         <v>9</v>
@@ -5761,7 +5764,7 @@
         <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -5778,7 +5781,7 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
@@ -5795,7 +5798,7 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C123" t="s">
         <v>9</v>
@@ -5812,7 +5815,7 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
         <v>9</v>
@@ -5829,7 +5832,7 @@
         <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
@@ -5846,7 +5849,7 @@
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
@@ -5880,7 +5883,7 @@
         <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
@@ -5897,7 +5900,7 @@
         <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
@@ -5931,7 +5934,7 @@
         <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
@@ -5948,7 +5951,7 @@
         <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
@@ -5965,7 +5968,7 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
@@ -5982,7 +5985,7 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C134" t="s">
         <v>9</v>
@@ -5999,7 +6002,7 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
@@ -6016,7 +6019,7 @@
         <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
@@ -6067,7 +6070,7 @@
         <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
@@ -6084,7 +6087,7 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
@@ -6101,7 +6104,7 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
@@ -6118,7 +6121,7 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
@@ -6135,7 +6138,7 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
@@ -6152,7 +6155,7 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
@@ -6254,7 +6257,7 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
@@ -6271,7 +6274,7 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
@@ -6288,7 +6291,7 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
@@ -6322,7 +6325,7 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C154" t="s">
         <v>9</v>
@@ -6339,7 +6342,7 @@
         <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C155" t="s">
         <v>9</v>
@@ -6373,7 +6376,7 @@
         <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C157" t="s">
         <v>9</v>
@@ -6390,7 +6393,7 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
@@ -6407,7 +6410,7 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C159" t="s">
         <v>9</v>
@@ -6424,7 +6427,7 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C160" t="s">
         <v>9</v>
@@ -6441,7 +6444,7 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
@@ -6543,7 +6546,7 @@
         <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
@@ -6560,7 +6563,7 @@
         <v>16</v>
       </c>
       <c r="B168" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
@@ -6611,7 +6614,7 @@
         <v>16</v>
       </c>
       <c r="B171" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C171" t="s">
         <v>9</v>
@@ -6628,7 +6631,7 @@
         <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C172" t="s">
         <v>9</v>
@@ -6645,7 +6648,7 @@
         <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
@@ -6662,7 +6665,7 @@
         <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
@@ -6679,7 +6682,7 @@
         <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C175" t="s">
         <v>9</v>
@@ -6696,7 +6699,7 @@
         <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
@@ -6747,7 +6750,7 @@
         <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -6764,7 +6767,7 @@
         <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C180" t="s">
         <v>9</v>
@@ -6781,7 +6784,7 @@
         <v>17</v>
       </c>
       <c r="B181" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -6798,7 +6801,7 @@
         <v>17</v>
       </c>
       <c r="B182" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
@@ -6815,7 +6818,7 @@
         <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -6883,7 +6886,7 @@
         <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
@@ -6900,7 +6903,7 @@
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
@@ -6917,7 +6920,7 @@
         <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
@@ -6934,7 +6937,7 @@
         <v>17</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C190" t="s">
         <v>9</v>
@@ -6951,7 +6954,7 @@
         <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
@@ -6968,7 +6971,7 @@
         <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
@@ -7002,7 +7005,7 @@
         <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -7019,7 +7022,7 @@
         <v>18</v>
       </c>
       <c r="B195" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C195" t="s">
         <v>9</v>
@@ -7036,7 +7039,7 @@
         <v>18</v>
       </c>
       <c r="B196" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
@@ -7053,7 +7056,7 @@
         <v>18</v>
       </c>
       <c r="B197" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C197" t="s">
         <v>9</v>
@@ -7104,7 +7107,7 @@
         <v>18</v>
       </c>
       <c r="B200" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
@@ -7121,7 +7124,7 @@
         <v>18</v>
       </c>
       <c r="B201" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
@@ -7138,7 +7141,7 @@
         <v>18</v>
       </c>
       <c r="B202" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
@@ -7172,7 +7175,7 @@
         <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
@@ -7189,7 +7192,7 @@
         <v>18</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -7206,7 +7209,7 @@
         <v>19</v>
       </c>
       <c r="B206" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C206" t="s">
         <v>9</v>
@@ -7223,7 +7226,7 @@
         <v>19</v>
       </c>
       <c r="B207" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
@@ -7240,7 +7243,7 @@
         <v>19</v>
       </c>
       <c r="B208" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
@@ -7257,7 +7260,7 @@
         <v>19</v>
       </c>
       <c r="B209" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
@@ -7359,7 +7362,7 @@
         <v>19</v>
       </c>
       <c r="B215" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C215" t="s">
         <v>9</v>
@@ -7376,7 +7379,7 @@
         <v>19</v>
       </c>
       <c r="B216" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
@@ -7410,7 +7413,7 @@
         <v>19</v>
       </c>
       <c r="B218" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -7427,7 +7430,7 @@
         <v>19</v>
       </c>
       <c r="B219" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
@@ -7461,7 +7464,7 @@
         <v>19</v>
       </c>
       <c r="B221" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -7478,7 +7481,7 @@
         <v>20</v>
       </c>
       <c r="B222" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
@@ -7495,7 +7498,7 @@
         <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
@@ -7512,7 +7515,7 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
@@ -7529,7 +7532,7 @@
         <v>20</v>
       </c>
       <c r="B225" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C225" t="s">
         <v>9</v>
@@ -7546,7 +7549,7 @@
         <v>20</v>
       </c>
       <c r="B226" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C226" t="s">
         <v>9</v>
@@ -7563,7 +7566,7 @@
         <v>20</v>
       </c>
       <c r="B227" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
@@ -7580,7 +7583,7 @@
         <v>21</v>
       </c>
       <c r="B228" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
@@ -7597,7 +7600,7 @@
         <v>21</v>
       </c>
       <c r="B229" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
@@ -7614,7 +7617,7 @@
         <v>21</v>
       </c>
       <c r="B230" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C230" t="s">
         <v>9</v>
@@ -7631,7 +7634,7 @@
         <v>21</v>
       </c>
       <c r="B231" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
@@ -7648,7 +7651,7 @@
         <v>21</v>
       </c>
       <c r="B232" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
@@ -7665,7 +7668,7 @@
         <v>22</v>
       </c>
       <c r="B233" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
@@ -7682,7 +7685,7 @@
         <v>22</v>
       </c>
       <c r="B234" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -7699,7 +7702,7 @@
         <v>22</v>
       </c>
       <c r="B235" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
@@ -7716,7 +7719,7 @@
         <v>22</v>
       </c>
       <c r="B236" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
@@ -7733,7 +7736,7 @@
         <v>22</v>
       </c>
       <c r="B237" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
@@ -7750,7 +7753,7 @@
         <v>22</v>
       </c>
       <c r="B238" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
@@ -7767,7 +7770,7 @@
         <v>22</v>
       </c>
       <c r="B239" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
@@ -7784,7 +7787,7 @@
         <v>22</v>
       </c>
       <c r="B240" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
@@ -7801,7 +7804,7 @@
         <v>23</v>
       </c>
       <c r="B241" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -7852,7 +7855,7 @@
         <v>23</v>
       </c>
       <c r="B244" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C244" t="s">
         <v>9</v>
@@ -7920,7 +7923,7 @@
         <v>23</v>
       </c>
       <c r="B248" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C248" t="s">
         <v>9</v>
@@ -7937,7 +7940,7 @@
         <v>23</v>
       </c>
       <c r="B249" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
@@ -7988,7 +7991,7 @@
         <v>23</v>
       </c>
       <c r="B252" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C252" t="s">
         <v>9</v>
@@ -8005,7 +8008,7 @@
         <v>23</v>
       </c>
       <c r="B253" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C253" t="s">
         <v>9</v>
@@ -8022,7 +8025,7 @@
         <v>23</v>
       </c>
       <c r="B254" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
@@ -8039,7 +8042,7 @@
         <v>23</v>
       </c>
       <c r="B255" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
@@ -8056,7 +8059,7 @@
         <v>23</v>
       </c>
       <c r="B256" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
@@ -8073,7 +8076,7 @@
         <v>23</v>
       </c>
       <c r="B257" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
@@ -8124,7 +8127,7 @@
         <v>23</v>
       </c>
       <c r="B260" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C260" t="s">
         <v>9</v>
@@ -8141,7 +8144,7 @@
         <v>24</v>
       </c>
       <c r="B261" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C261" t="s">
         <v>9</v>
@@ -8158,7 +8161,7 @@
         <v>24</v>
       </c>
       <c r="B262" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C262" t="s">
         <v>9</v>
@@ -8175,7 +8178,7 @@
         <v>24</v>
       </c>
       <c r="B263" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C263" t="s">
         <v>9</v>
@@ -8192,7 +8195,7 @@
         <v>24</v>
       </c>
       <c r="B264" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C264" t="s">
         <v>9</v>
@@ -8226,7 +8229,7 @@
         <v>24</v>
       </c>
       <c r="B266" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C266" t="s">
         <v>9</v>
@@ -8243,7 +8246,7 @@
         <v>24</v>
       </c>
       <c r="B267" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C267" t="s">
         <v>9</v>
@@ -8277,7 +8280,7 @@
         <v>25</v>
       </c>
       <c r="B269" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
@@ -8294,7 +8297,7 @@
         <v>25</v>
       </c>
       <c r="B270" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C270" t="s">
         <v>9</v>
@@ -8311,7 +8314,7 @@
         <v>25</v>
       </c>
       <c r="B271" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C271" t="s">
         <v>9</v>
@@ -8328,7 +8331,7 @@
         <v>25</v>
       </c>
       <c r="B272" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C272" t="s">
         <v>9</v>
@@ -8345,7 +8348,7 @@
         <v>25</v>
       </c>
       <c r="B273" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C273" t="s">
         <v>9</v>
@@ -8362,7 +8365,7 @@
         <v>25</v>
       </c>
       <c r="B274" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C274" t="s">
         <v>9</v>
@@ -8396,7 +8399,7 @@
         <v>25</v>
       </c>
       <c r="B276" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C276" t="s">
         <v>9</v>
@@ -8413,7 +8416,7 @@
         <v>26</v>
       </c>
       <c r="B277" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C277" t="s">
         <v>9</v>
@@ -8430,7 +8433,7 @@
         <v>26</v>
       </c>
       <c r="B278" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C278" t="s">
         <v>9</v>
@@ -8447,7 +8450,7 @@
         <v>26</v>
       </c>
       <c r="B279" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C279" t="s">
         <v>9</v>
@@ -8464,7 +8467,7 @@
         <v>26</v>
       </c>
       <c r="B280" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C280" t="s">
         <v>9</v>
@@ -8498,7 +8501,7 @@
         <v>26</v>
       </c>
       <c r="B282" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C282" t="s">
         <v>9</v>
@@ -8532,7 +8535,7 @@
         <v>26</v>
       </c>
       <c r="B284" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C284" t="s">
         <v>9</v>
@@ -8566,7 +8569,7 @@
         <v>26</v>
       </c>
       <c r="B286" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C286" t="s">
         <v>9</v>
@@ -8583,7 +8586,7 @@
         <v>27</v>
       </c>
       <c r="B287" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C287" t="s">
         <v>9</v>
@@ -8600,7 +8603,7 @@
         <v>27</v>
       </c>
       <c r="B288" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C288" t="s">
         <v>9</v>
@@ -8617,7 +8620,7 @@
         <v>27</v>
       </c>
       <c r="B289" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C289" t="s">
         <v>9</v>
@@ -8634,7 +8637,7 @@
         <v>27</v>
       </c>
       <c r="B290" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C290" t="s">
         <v>9</v>
@@ -8651,7 +8654,7 @@
         <v>27</v>
       </c>
       <c r="B291" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C291" t="s">
         <v>9</v>
@@ -8668,7 +8671,7 @@
         <v>27</v>
       </c>
       <c r="B292" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C292" t="s">
         <v>9</v>
@@ -8685,7 +8688,7 @@
         <v>27</v>
       </c>
       <c r="B293" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C293" t="s">
         <v>9</v>
@@ -8719,7 +8722,7 @@
         <v>27</v>
       </c>
       <c r="B295" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C295" t="s">
         <v>9</v>
@@ -8736,7 +8739,7 @@
         <v>28</v>
       </c>
       <c r="B296" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C296" t="s">
         <v>9</v>
@@ -8753,7 +8756,7 @@
         <v>28</v>
       </c>
       <c r="B297" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C297" t="s">
         <v>9</v>
@@ -8770,7 +8773,7 @@
         <v>28</v>
       </c>
       <c r="B298" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C298" t="s">
         <v>9</v>
@@ -8787,7 +8790,7 @@
         <v>28</v>
       </c>
       <c r="B299" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C299" t="s">
         <v>9</v>
@@ -8974,7 +8977,7 @@
         <v>28</v>
       </c>
       <c r="B310" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C310" t="s">
         <v>9</v>
@@ -8991,7 +8994,7 @@
         <v>28</v>
       </c>
       <c r="B311" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C311" t="s">
         <v>9</v>
@@ -9025,7 +9028,7 @@
         <v>28</v>
       </c>
       <c r="B313" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C313" t="s">
         <v>9</v>
@@ -9059,7 +9062,7 @@
         <v>28</v>
       </c>
       <c r="B315" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C315" t="s">
         <v>9</v>
@@ -9076,7 +9079,7 @@
         <v>28</v>
       </c>
       <c r="B316" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C316" t="s">
         <v>9</v>
@@ -9093,7 +9096,7 @@
         <v>28</v>
       </c>
       <c r="B317" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C317" t="s">
         <v>9</v>
@@ -9110,7 +9113,7 @@
         <v>28</v>
       </c>
       <c r="B318" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C318" t="s">
         <v>9</v>
@@ -9144,7 +9147,7 @@
         <v>28</v>
       </c>
       <c r="B320" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C320" t="s">
         <v>9</v>
@@ -9158,10 +9161,10 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B321" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C321" t="s">
         <v>9</v>
@@ -9175,10 +9178,10 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B322" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C322" t="s">
         <v>9</v>
@@ -9192,10 +9195,10 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B323" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C323" t="s">
         <v>9</v>
@@ -9209,10 +9212,10 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B324" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C324" t="s">
         <v>9</v>
@@ -9226,7 +9229,7 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B325" t="s">
         <v>49</v>
@@ -9243,10 +9246,10 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B326" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C326" t="s">
         <v>9</v>
@@ -9260,10 +9263,10 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B327" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C327" t="s">
         <v>9</v>
@@ -9277,10 +9280,10 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B328" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C328" t="s">
         <v>9</v>
@@ -9294,10 +9297,10 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B329" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C329" t="s">
         <v>9</v>
@@ -9311,10 +9314,10 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B330" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C330" t="s">
         <v>9</v>
@@ -9328,10 +9331,10 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B331" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C331" t="s">
         <v>9</v>
@@ -9345,10 +9348,10 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B332" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C332" t="s">
         <v>9</v>
@@ -9362,7 +9365,7 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B333" t="s">
         <v>48</v>
@@ -9379,7 +9382,7 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B334" t="s">
         <v>41</v>
@@ -9396,10 +9399,10 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B335" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C335" t="s">
         <v>9</v>
@@ -9416,7 +9419,7 @@
         <v>7</v>
       </c>
       <c r="B336" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C336" t="s">
         <v>9</v>
@@ -9433,7 +9436,7 @@
         <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C337" t="s">
         <v>9</v>
@@ -9450,7 +9453,7 @@
         <v>7</v>
       </c>
       <c r="B338" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C338" t="s">
         <v>9</v>
@@ -9467,7 +9470,7 @@
         <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C339" t="s">
         <v>9</v>
@@ -9535,7 +9538,7 @@
         <v>7</v>
       </c>
       <c r="B343" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C343" t="s">
         <v>9</v>
@@ -9586,7 +9589,7 @@
         <v>7</v>
       </c>
       <c r="B346" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C346" t="s">
         <v>9</v>
@@ -9603,7 +9606,7 @@
         <v>7</v>
       </c>
       <c r="B347" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C347" t="s">
         <v>9</v>
@@ -9620,7 +9623,7 @@
         <v>7</v>
       </c>
       <c r="B348" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C348" t="s">
         <v>9</v>
@@ -9637,7 +9640,7 @@
         <v>7</v>
       </c>
       <c r="B349" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C349" t="s">
         <v>9</v>
@@ -9654,7 +9657,7 @@
         <v>7</v>
       </c>
       <c r="B350" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C350" t="s">
         <v>9</v>
@@ -9671,7 +9674,7 @@
         <v>7</v>
       </c>
       <c r="B351" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C351" t="s">
         <v>9</v>
@@ -9705,7 +9708,7 @@
         <v>7</v>
       </c>
       <c r="B353" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C353" t="s">
         <v>9</v>
@@ -9719,10 +9722,10 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B354" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C354" t="s">
         <v>9</v>
@@ -9736,10 +9739,10 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B355" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C355" t="s">
         <v>9</v>
@@ -9753,10 +9756,10 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B356" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C356" t="s">
         <v>9</v>
@@ -9770,10 +9773,10 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B357" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C357" t="s">
         <v>9</v>
@@ -9787,10 +9790,10 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B358" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C358" t="s">
         <v>9</v>
@@ -9804,10 +9807,10 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B359" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C359" t="s">
         <v>9</v>
@@ -9821,10 +9824,10 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B360" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C360" t="s">
         <v>9</v>
@@ -9838,10 +9841,10 @@
     </row>
     <row r="361" spans="1:5">
       <c r="A361" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B361" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C361" t="s">
         <v>9</v>
@@ -9855,10 +9858,10 @@
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B362" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C362" t="s">
         <v>9</v>
@@ -9872,10 +9875,10 @@
     </row>
     <row r="363" spans="1:5">
       <c r="A363" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B363" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C363" t="s">
         <v>9</v>
@@ -9889,10 +9892,10 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B364" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C364" t="s">
         <v>9</v>
@@ -9906,7 +9909,7 @@
     </row>
     <row r="365" spans="1:5">
       <c r="A365" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B365" t="s">
         <v>48</v>
@@ -9923,7 +9926,7 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B366" t="s">
         <v>41</v>
@@ -9940,10 +9943,10 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B367" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C367" t="s">
         <v>9</v>
@@ -9960,7 +9963,7 @@
         <v>10</v>
       </c>
       <c r="B368" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C368" t="s">
         <v>9</v>
@@ -9977,7 +9980,7 @@
         <v>10</v>
       </c>
       <c r="B369" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C369" t="s">
         <v>9</v>
@@ -9994,7 +9997,7 @@
         <v>10</v>
       </c>
       <c r="B370" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C370" t="s">
         <v>9</v>
@@ -10011,7 +10014,7 @@
         <v>10</v>
       </c>
       <c r="B371" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C371" t="s">
         <v>9</v>
@@ -10147,7 +10150,7 @@
         <v>10</v>
       </c>
       <c r="B379" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C379" t="s">
         <v>9</v>
@@ -10164,7 +10167,7 @@
         <v>10</v>
       </c>
       <c r="B380" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C380" t="s">
         <v>9</v>
@@ -10181,7 +10184,7 @@
         <v>10</v>
       </c>
       <c r="B381" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C381" t="s">
         <v>9</v>
@@ -10198,7 +10201,7 @@
         <v>10</v>
       </c>
       <c r="B382" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C382" t="s">
         <v>9</v>
@@ -10215,7 +10218,7 @@
         <v>10</v>
       </c>
       <c r="B383" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C383" t="s">
         <v>9</v>
@@ -10232,7 +10235,7 @@
         <v>10</v>
       </c>
       <c r="B384" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C384" t="s">
         <v>9</v>
@@ -10249,7 +10252,7 @@
         <v>10</v>
       </c>
       <c r="B385" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C385" t="s">
         <v>9</v>
@@ -10266,7 +10269,7 @@
         <v>10</v>
       </c>
       <c r="B386" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C386" t="s">
         <v>9</v>
@@ -10317,7 +10320,7 @@
         <v>10</v>
       </c>
       <c r="B389" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C389" t="s">
         <v>9</v>
@@ -10334,7 +10337,7 @@
         <v>11</v>
       </c>
       <c r="B390" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C390" t="s">
         <v>9</v>
@@ -10351,7 +10354,7 @@
         <v>11</v>
       </c>
       <c r="B391" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C391" t="s">
         <v>9</v>
@@ -10368,7 +10371,7 @@
         <v>11</v>
       </c>
       <c r="B392" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C392" t="s">
         <v>9</v>
@@ -10419,7 +10422,7 @@
         <v>11</v>
       </c>
       <c r="B395" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C395" t="s">
         <v>9</v>
@@ -10470,7 +10473,7 @@
         <v>11</v>
       </c>
       <c r="B398" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C398" t="s">
         <v>9</v>
@@ -10487,7 +10490,7 @@
         <v>11</v>
       </c>
       <c r="B399" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C399" t="s">
         <v>9</v>
@@ -10504,7 +10507,7 @@
         <v>11</v>
       </c>
       <c r="B400" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C400" t="s">
         <v>9</v>
@@ -10521,7 +10524,7 @@
         <v>12</v>
       </c>
       <c r="B401" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C401" t="s">
         <v>9</v>
@@ -10538,7 +10541,7 @@
         <v>12</v>
       </c>
       <c r="B402" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C402" t="s">
         <v>9</v>
@@ -10555,7 +10558,7 @@
         <v>12</v>
       </c>
       <c r="B403" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C403" t="s">
         <v>9</v>
@@ -10572,7 +10575,7 @@
         <v>12</v>
       </c>
       <c r="B404" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C404" t="s">
         <v>9</v>
@@ -10606,7 +10609,7 @@
         <v>12</v>
       </c>
       <c r="B406" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C406" t="s">
         <v>9</v>
@@ -10657,7 +10660,7 @@
         <v>12</v>
       </c>
       <c r="B409" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C409" t="s">
         <v>9</v>
@@ -10674,7 +10677,7 @@
         <v>12</v>
       </c>
       <c r="B410" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C410" t="s">
         <v>9</v>
@@ -10708,7 +10711,7 @@
         <v>12</v>
       </c>
       <c r="B412" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C412" t="s">
         <v>9</v>
@@ -10725,7 +10728,7 @@
         <v>12</v>
       </c>
       <c r="B413" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C413" t="s">
         <v>9</v>
@@ -10742,7 +10745,7 @@
         <v>12</v>
       </c>
       <c r="B414" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C414" t="s">
         <v>9</v>
@@ -10759,7 +10762,7 @@
         <v>13</v>
       </c>
       <c r="B415" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C415" t="s">
         <v>9</v>
@@ -10793,7 +10796,7 @@
         <v>13</v>
       </c>
       <c r="B417" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C417" t="s">
         <v>9</v>
@@ -10810,7 +10813,7 @@
         <v>13</v>
       </c>
       <c r="B418" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C418" t="s">
         <v>9</v>
@@ -10827,7 +10830,7 @@
         <v>13</v>
       </c>
       <c r="B419" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C419" t="s">
         <v>9</v>
@@ -10844,7 +10847,7 @@
         <v>13</v>
       </c>
       <c r="B420" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C420" t="s">
         <v>9</v>
@@ -10861,7 +10864,7 @@
         <v>13</v>
       </c>
       <c r="B421" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C421" t="s">
         <v>9</v>
@@ -10878,7 +10881,7 @@
         <v>13</v>
       </c>
       <c r="B422" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C422" t="s">
         <v>9</v>
@@ -10895,7 +10898,7 @@
         <v>14</v>
       </c>
       <c r="B423" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C423" t="s">
         <v>9</v>
@@ -10912,7 +10915,7 @@
         <v>14</v>
       </c>
       <c r="B424" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C424" t="s">
         <v>9</v>
@@ -10929,7 +10932,7 @@
         <v>14</v>
       </c>
       <c r="B425" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C425" t="s">
         <v>9</v>
@@ -10946,7 +10949,7 @@
         <v>14</v>
       </c>
       <c r="B426" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C426" t="s">
         <v>9</v>
@@ -10980,7 +10983,7 @@
         <v>14</v>
       </c>
       <c r="B428" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C428" t="s">
         <v>9</v>
@@ -10997,7 +11000,7 @@
         <v>14</v>
       </c>
       <c r="B429" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C429" t="s">
         <v>9</v>
@@ -11014,7 +11017,7 @@
         <v>14</v>
       </c>
       <c r="B430" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C430" t="s">
         <v>9</v>
@@ -11031,7 +11034,7 @@
         <v>14</v>
       </c>
       <c r="B431" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C431" t="s">
         <v>9</v>
@@ -11048,7 +11051,7 @@
         <v>14</v>
       </c>
       <c r="B432" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C432" t="s">
         <v>9</v>
@@ -11065,7 +11068,7 @@
         <v>14</v>
       </c>
       <c r="B433" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C433" t="s">
         <v>9</v>
@@ -11082,7 +11085,7 @@
         <v>14</v>
       </c>
       <c r="B434" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C434" t="s">
         <v>9</v>
@@ -11099,7 +11102,7 @@
         <v>14</v>
       </c>
       <c r="B435" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C435" t="s">
         <v>9</v>
@@ -11150,7 +11153,7 @@
         <v>14</v>
       </c>
       <c r="B438" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C438" t="s">
         <v>9</v>
@@ -11167,7 +11170,7 @@
         <v>14</v>
       </c>
       <c r="B439" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C439" t="s">
         <v>9</v>
@@ -11184,7 +11187,7 @@
         <v>15</v>
       </c>
       <c r="B440" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C440" t="s">
         <v>9</v>
@@ -11201,7 +11204,7 @@
         <v>15</v>
       </c>
       <c r="B441" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C441" t="s">
         <v>9</v>
@@ -11218,7 +11221,7 @@
         <v>15</v>
       </c>
       <c r="B442" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C442" t="s">
         <v>9</v>
@@ -11235,7 +11238,7 @@
         <v>15</v>
       </c>
       <c r="B443" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C443" t="s">
         <v>9</v>
@@ -11320,7 +11323,7 @@
         <v>15</v>
       </c>
       <c r="B448" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C448" t="s">
         <v>9</v>
@@ -11337,7 +11340,7 @@
         <v>15</v>
       </c>
       <c r="B449" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C449" t="s">
         <v>9</v>
@@ -11354,7 +11357,7 @@
         <v>15</v>
       </c>
       <c r="B450" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C450" t="s">
         <v>9</v>
@@ -11388,7 +11391,7 @@
         <v>15</v>
       </c>
       <c r="B452" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C452" t="s">
         <v>9</v>
@@ -11405,7 +11408,7 @@
         <v>15</v>
       </c>
       <c r="B453" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C453" t="s">
         <v>9</v>
@@ -11439,7 +11442,7 @@
         <v>15</v>
       </c>
       <c r="B455" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C455" t="s">
         <v>9</v>
@@ -11456,7 +11459,7 @@
         <v>16</v>
       </c>
       <c r="B456" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C456" t="s">
         <v>9</v>
@@ -11473,7 +11476,7 @@
         <v>16</v>
       </c>
       <c r="B457" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C457" t="s">
         <v>9</v>
@@ -11490,7 +11493,7 @@
         <v>16</v>
       </c>
       <c r="B458" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C458" t="s">
         <v>9</v>
@@ -11507,7 +11510,7 @@
         <v>16</v>
       </c>
       <c r="B459" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C459" t="s">
         <v>9</v>
@@ -11575,7 +11578,7 @@
         <v>16</v>
       </c>
       <c r="B463" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C463" t="s">
         <v>9</v>
@@ -11592,7 +11595,7 @@
         <v>16</v>
       </c>
       <c r="B464" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C464" t="s">
         <v>9</v>
@@ -11643,7 +11646,7 @@
         <v>16</v>
       </c>
       <c r="B467" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C467" t="s">
         <v>9</v>
@@ -11660,7 +11663,7 @@
         <v>16</v>
       </c>
       <c r="B468" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C468" t="s">
         <v>9</v>
@@ -11677,7 +11680,7 @@
         <v>16</v>
       </c>
       <c r="B469" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C469" t="s">
         <v>9</v>
@@ -11694,7 +11697,7 @@
         <v>16</v>
       </c>
       <c r="B470" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C470" t="s">
         <v>9</v>
@@ -11711,7 +11714,7 @@
         <v>16</v>
       </c>
       <c r="B471" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C471" t="s">
         <v>9</v>
@@ -11728,7 +11731,7 @@
         <v>16</v>
       </c>
       <c r="B472" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C472" t="s">
         <v>9</v>
@@ -11779,7 +11782,7 @@
         <v>16</v>
       </c>
       <c r="B475" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C475" t="s">
         <v>9</v>
@@ -11796,7 +11799,7 @@
         <v>17</v>
       </c>
       <c r="B476" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C476" t="s">
         <v>9</v>
@@ -11813,7 +11816,7 @@
         <v>17</v>
       </c>
       <c r="B477" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C477" t="s">
         <v>9</v>
@@ -11830,7 +11833,7 @@
         <v>17</v>
       </c>
       <c r="B478" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C478" t="s">
         <v>9</v>
@@ -11847,7 +11850,7 @@
         <v>17</v>
       </c>
       <c r="B479" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C479" t="s">
         <v>9</v>
@@ -11898,7 +11901,7 @@
         <v>17</v>
       </c>
       <c r="B482" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C482" t="s">
         <v>9</v>
@@ -11915,7 +11918,7 @@
         <v>17</v>
       </c>
       <c r="B483" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C483" t="s">
         <v>9</v>
@@ -11932,7 +11935,7 @@
         <v>17</v>
       </c>
       <c r="B484" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C484" t="s">
         <v>9</v>
@@ -11949,7 +11952,7 @@
         <v>17</v>
       </c>
       <c r="B485" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C485" t="s">
         <v>9</v>
@@ -11966,7 +11969,7 @@
         <v>17</v>
       </c>
       <c r="B486" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C486" t="s">
         <v>9</v>
@@ -11983,7 +11986,7 @@
         <v>17</v>
       </c>
       <c r="B487" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C487" t="s">
         <v>9</v>
@@ -12017,7 +12020,7 @@
         <v>17</v>
       </c>
       <c r="B489" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C489" t="s">
         <v>9</v>
@@ -12034,7 +12037,7 @@
         <v>18</v>
       </c>
       <c r="B490" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C490" t="s">
         <v>9</v>
@@ -12051,7 +12054,7 @@
         <v>18</v>
       </c>
       <c r="B491" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C491" t="s">
         <v>9</v>
@@ -12068,7 +12071,7 @@
         <v>18</v>
       </c>
       <c r="B492" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C492" t="s">
         <v>9</v>
@@ -12119,7 +12122,7 @@
         <v>18</v>
       </c>
       <c r="B495" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C495" t="s">
         <v>9</v>
@@ -12136,7 +12139,7 @@
         <v>18</v>
       </c>
       <c r="B496" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C496" t="s">
         <v>9</v>
@@ -12153,7 +12156,7 @@
         <v>18</v>
       </c>
       <c r="B497" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C497" t="s">
         <v>9</v>
@@ -12187,7 +12190,7 @@
         <v>18</v>
       </c>
       <c r="B499" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C499" t="s">
         <v>9</v>
@@ -12204,7 +12207,7 @@
         <v>18</v>
       </c>
       <c r="B500" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C500" t="s">
         <v>9</v>
@@ -12221,7 +12224,7 @@
         <v>19</v>
       </c>
       <c r="B501" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C501" t="s">
         <v>9</v>
@@ -12238,7 +12241,7 @@
         <v>19</v>
       </c>
       <c r="B502" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C502" t="s">
         <v>9</v>
@@ -12255,7 +12258,7 @@
         <v>19</v>
       </c>
       <c r="B503" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C503" t="s">
         <v>9</v>
@@ -12272,7 +12275,7 @@
         <v>19</v>
       </c>
       <c r="B504" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C504" t="s">
         <v>9</v>
@@ -12374,7 +12377,7 @@
         <v>19</v>
       </c>
       <c r="B510" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C510" t="s">
         <v>9</v>
@@ -12391,7 +12394,7 @@
         <v>19</v>
       </c>
       <c r="B511" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C511" t="s">
         <v>9</v>
@@ -12408,7 +12411,7 @@
         <v>19</v>
       </c>
       <c r="B512" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C512" t="s">
         <v>9</v>
@@ -12425,7 +12428,7 @@
         <v>19</v>
       </c>
       <c r="B513" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C513" t="s">
         <v>9</v>
@@ -12459,7 +12462,7 @@
         <v>19</v>
       </c>
       <c r="B515" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C515" t="s">
         <v>9</v>
@@ -12476,7 +12479,7 @@
         <v>20</v>
       </c>
       <c r="B516" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C516" t="s">
         <v>9</v>
@@ -12493,7 +12496,7 @@
         <v>20</v>
       </c>
       <c r="B517" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C517" t="s">
         <v>9</v>
@@ -12510,7 +12513,7 @@
         <v>20</v>
       </c>
       <c r="B518" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C518" t="s">
         <v>9</v>
@@ -12527,7 +12530,7 @@
         <v>20</v>
       </c>
       <c r="B519" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C519" t="s">
         <v>9</v>
@@ -12544,7 +12547,7 @@
         <v>20</v>
       </c>
       <c r="B520" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C520" t="s">
         <v>9</v>
@@ -12561,7 +12564,7 @@
         <v>20</v>
       </c>
       <c r="B521" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C521" t="s">
         <v>9</v>
@@ -12578,7 +12581,7 @@
         <v>20</v>
       </c>
       <c r="B522" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C522" t="s">
         <v>9</v>
@@ -12595,7 +12598,7 @@
         <v>21</v>
       </c>
       <c r="B523" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C523" t="s">
         <v>9</v>
@@ -12612,7 +12615,7 @@
         <v>21</v>
       </c>
       <c r="B524" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C524" t="s">
         <v>9</v>
@@ -12629,7 +12632,7 @@
         <v>21</v>
       </c>
       <c r="B525" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C525" t="s">
         <v>9</v>
@@ -12646,7 +12649,7 @@
         <v>21</v>
       </c>
       <c r="B526" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C526" t="s">
         <v>9</v>
@@ -12663,7 +12666,7 @@
         <v>21</v>
       </c>
       <c r="B527" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C527" t="s">
         <v>9</v>
@@ -12680,7 +12683,7 @@
         <v>21</v>
       </c>
       <c r="B528" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C528" t="s">
         <v>9</v>
@@ -12697,7 +12700,7 @@
         <v>21</v>
       </c>
       <c r="B529" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C529" t="s">
         <v>9</v>
@@ -12714,7 +12717,7 @@
         <v>22</v>
       </c>
       <c r="B530" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C530" t="s">
         <v>9</v>
@@ -12731,7 +12734,7 @@
         <v>22</v>
       </c>
       <c r="B531" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C531" t="s">
         <v>9</v>
@@ -12748,7 +12751,7 @@
         <v>22</v>
       </c>
       <c r="B532" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C532" t="s">
         <v>9</v>
@@ -12765,7 +12768,7 @@
         <v>22</v>
       </c>
       <c r="B533" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C533" t="s">
         <v>9</v>
@@ -12782,7 +12785,7 @@
         <v>22</v>
       </c>
       <c r="B534" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C534" t="s">
         <v>9</v>
@@ -12799,7 +12802,7 @@
         <v>22</v>
       </c>
       <c r="B535" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C535" t="s">
         <v>9</v>
@@ -12816,7 +12819,7 @@
         <v>22</v>
       </c>
       <c r="B536" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C536" t="s">
         <v>9</v>
@@ -12833,7 +12836,7 @@
         <v>22</v>
       </c>
       <c r="B537" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C537" t="s">
         <v>9</v>
@@ -12850,7 +12853,7 @@
         <v>23</v>
       </c>
       <c r="B538" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C538" t="s">
         <v>9</v>
@@ -12952,7 +12955,7 @@
         <v>23</v>
       </c>
       <c r="B544" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C544" t="s">
         <v>9</v>
@@ -12969,7 +12972,7 @@
         <v>23</v>
       </c>
       <c r="B545" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C545" t="s">
         <v>9</v>
@@ -13037,7 +13040,7 @@
         <v>23</v>
       </c>
       <c r="B549" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C549" t="s">
         <v>9</v>
@@ -13054,7 +13057,7 @@
         <v>23</v>
       </c>
       <c r="B550" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C550" t="s">
         <v>9</v>
@@ -13071,7 +13074,7 @@
         <v>23</v>
       </c>
       <c r="B551" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C551" t="s">
         <v>9</v>
@@ -13088,7 +13091,7 @@
         <v>23</v>
       </c>
       <c r="B552" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C552" t="s">
         <v>9</v>
@@ -13105,7 +13108,7 @@
         <v>23</v>
       </c>
       <c r="B553" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C553" t="s">
         <v>9</v>
@@ -13122,7 +13125,7 @@
         <v>23</v>
       </c>
       <c r="B554" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C554" t="s">
         <v>9</v>
@@ -13173,7 +13176,7 @@
         <v>23</v>
       </c>
       <c r="B557" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C557" t="s">
         <v>9</v>
@@ -13190,7 +13193,7 @@
         <v>24</v>
       </c>
       <c r="B558" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C558" t="s">
         <v>9</v>
@@ -13207,7 +13210,7 @@
         <v>24</v>
       </c>
       <c r="B559" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C559" t="s">
         <v>9</v>
@@ -13224,7 +13227,7 @@
         <v>24</v>
       </c>
       <c r="B560" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C560" t="s">
         <v>9</v>
@@ -13241,7 +13244,7 @@
         <v>24</v>
       </c>
       <c r="B561" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C561" t="s">
         <v>9</v>
@@ -13275,7 +13278,7 @@
         <v>24</v>
       </c>
       <c r="B563" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C563" t="s">
         <v>9</v>
@@ -13292,7 +13295,7 @@
         <v>24</v>
       </c>
       <c r="B564" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C564" t="s">
         <v>9</v>
@@ -13326,7 +13329,7 @@
         <v>25</v>
       </c>
       <c r="B566" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C566" t="s">
         <v>9</v>
@@ -13343,7 +13346,7 @@
         <v>25</v>
       </c>
       <c r="B567" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C567" t="s">
         <v>9</v>
@@ -13360,7 +13363,7 @@
         <v>25</v>
       </c>
       <c r="B568" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C568" t="s">
         <v>9</v>
@@ -13377,7 +13380,7 @@
         <v>25</v>
       </c>
       <c r="B569" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C569" t="s">
         <v>9</v>
@@ -13394,7 +13397,7 @@
         <v>25</v>
       </c>
       <c r="B570" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C570" t="s">
         <v>9</v>
@@ -13411,7 +13414,7 @@
         <v>25</v>
       </c>
       <c r="B571" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C571" t="s">
         <v>9</v>
@@ -13428,7 +13431,7 @@
         <v>25</v>
       </c>
       <c r="B572" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C572" t="s">
         <v>9</v>
@@ -13462,7 +13465,7 @@
         <v>25</v>
       </c>
       <c r="B574" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C574" t="s">
         <v>9</v>
@@ -13479,7 +13482,7 @@
         <v>26</v>
       </c>
       <c r="B575" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C575" t="s">
         <v>9</v>
@@ -13496,7 +13499,7 @@
         <v>26</v>
       </c>
       <c r="B576" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C576" t="s">
         <v>9</v>
@@ -13513,7 +13516,7 @@
         <v>26</v>
       </c>
       <c r="B577" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C577" t="s">
         <v>9</v>
@@ -13530,7 +13533,7 @@
         <v>26</v>
       </c>
       <c r="B578" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C578" t="s">
         <v>9</v>
@@ -13547,7 +13550,7 @@
         <v>26</v>
       </c>
       <c r="B579" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C579" t="s">
         <v>9</v>
@@ -13581,7 +13584,7 @@
         <v>26</v>
       </c>
       <c r="B581" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C581" t="s">
         <v>9</v>
@@ -13598,7 +13601,7 @@
         <v>26</v>
       </c>
       <c r="B582" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C582" t="s">
         <v>9</v>
@@ -13632,7 +13635,7 @@
         <v>26</v>
       </c>
       <c r="B584" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C584" t="s">
         <v>9</v>
@@ -13649,7 +13652,7 @@
         <v>27</v>
       </c>
       <c r="B585" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C585" t="s">
         <v>9</v>
@@ -13666,7 +13669,7 @@
         <v>27</v>
       </c>
       <c r="B586" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C586" t="s">
         <v>9</v>
@@ -13683,7 +13686,7 @@
         <v>27</v>
       </c>
       <c r="B587" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C587" t="s">
         <v>9</v>
@@ -13700,7 +13703,7 @@
         <v>27</v>
       </c>
       <c r="B588" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C588" t="s">
         <v>9</v>
@@ -13717,7 +13720,7 @@
         <v>27</v>
       </c>
       <c r="B589" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C589" t="s">
         <v>9</v>
@@ -13734,7 +13737,7 @@
         <v>27</v>
       </c>
       <c r="B590" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C590" t="s">
         <v>9</v>
@@ -13751,7 +13754,7 @@
         <v>27</v>
       </c>
       <c r="B591" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C591" t="s">
         <v>9</v>
@@ -13785,7 +13788,7 @@
         <v>27</v>
       </c>
       <c r="B593" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C593" t="s">
         <v>9</v>
@@ -13802,7 +13805,7 @@
         <v>28</v>
       </c>
       <c r="B594" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C594" t="s">
         <v>9</v>
@@ -13819,7 +13822,7 @@
         <v>28</v>
       </c>
       <c r="B595" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C595" t="s">
         <v>9</v>
@@ -13836,7 +13839,7 @@
         <v>28</v>
       </c>
       <c r="B596" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C596" t="s">
         <v>9</v>
@@ -13853,7 +13856,7 @@
         <v>28</v>
       </c>
       <c r="B597" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C597" t="s">
         <v>9</v>
@@ -14006,7 +14009,7 @@
         <v>28</v>
       </c>
       <c r="B606" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C606" t="s">
         <v>9</v>
@@ -14023,7 +14026,7 @@
         <v>28</v>
       </c>
       <c r="B607" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C607" t="s">
         <v>9</v>
@@ -14057,7 +14060,7 @@
         <v>28</v>
       </c>
       <c r="B609" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C609" t="s">
         <v>9</v>
@@ -14091,7 +14094,7 @@
         <v>28</v>
       </c>
       <c r="B611" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C611" t="s">
         <v>9</v>
@@ -14108,7 +14111,7 @@
         <v>28</v>
       </c>
       <c r="B612" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C612" t="s">
         <v>9</v>
@@ -14125,7 +14128,7 @@
         <v>28</v>
       </c>
       <c r="B613" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C613" t="s">
         <v>9</v>
@@ -14142,7 +14145,7 @@
         <v>28</v>
       </c>
       <c r="B614" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C614" t="s">
         <v>9</v>
@@ -14176,7 +14179,7 @@
         <v>28</v>
       </c>
       <c r="B616" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C616" t="s">
         <v>9</v>
@@ -14238,7 +14241,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -14272,7 +14275,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -14612,7 +14615,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -14646,7 +14649,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -15000,7 +15003,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K91"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15013,13 +15016,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>89</v>
@@ -15048,13 +15051,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" t="s">
         <v>251</v>
-      </c>
-      <c r="C2" t="s">
-        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -15083,10 +15086,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -15258,10 +15261,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -15293,10 +15296,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -16617,13 +16620,13 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" t="s">
         <v>251</v>
-      </c>
-      <c r="C47" t="s">
-        <v>253</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -16652,10 +16655,10 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -16827,10 +16830,10 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -16862,10 +16865,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -18271,22 +18274,22 @@
         <v>70</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>71</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>72</v>
@@ -18334,7 +18337,7 @@
         <v>86</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>87</v>
@@ -18345,7 +18348,7 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -18354,10 +18357,10 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -18417,27 +18420,27 @@
         <v>36.020000000000003</v>
       </c>
       <c r="AN2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO2" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AP2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" s="44">
         <v>1</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
@@ -18445,7 +18448,7 @@
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>8</v>
@@ -18514,13 +18517,13 @@
       <c r="AK3" s="42"/>
       <c r="AL3" s="42"/>
       <c r="AN3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AO3" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AP3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -18557,13 +18560,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18574,10 +18577,10 @@
         <v>2030</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E2" s="31">
         <v>105</v>
@@ -18591,10 +18594,10 @@
         <v>2040</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E3" s="31">
         <v>105</v>
@@ -18636,10 +18639,10 @@
         <v>89</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18650,7 +18653,7 @@
         <v>2030</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" s="32">
         <v>27</v>
@@ -18686,7 +18689,7 @@
         <v>2030</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D4" s="32">
         <v>55</v>
@@ -18704,7 +18707,7 @@
         <v>2030</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="32">
         <v>46</v>
@@ -18740,7 +18743,7 @@
         <v>2030</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D7" s="34">
         <v>8</v>
@@ -18758,7 +18761,7 @@
         <v>2030</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="32">
         <v>26</v>
@@ -18776,7 +18779,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" s="33">
         <v>1</v>
@@ -18794,7 +18797,7 @@
         <v>2030</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D10" s="33">
         <v>1</v>
@@ -18812,7 +18815,7 @@
         <v>2030</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D11" s="33">
         <v>10</v>
@@ -18830,7 +18833,7 @@
         <v>2040</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D12" s="32">
         <v>27</v>
@@ -18866,7 +18869,7 @@
         <v>2040</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" s="32">
         <v>55</v>
@@ -18884,7 +18887,7 @@
         <v>2040</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D15" s="32">
         <v>46</v>
@@ -18920,7 +18923,7 @@
         <v>2040</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D17" s="34">
         <v>8</v>
@@ -18938,7 +18941,7 @@
         <v>2040</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D18" s="32">
         <v>26</v>
@@ -18956,7 +18959,7 @@
         <v>2040</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D19" s="33">
         <v>1</v>
@@ -18974,7 +18977,7 @@
         <v>2040</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D20" s="33">
         <v>1</v>
@@ -18992,7 +18995,7 @@
         <v>2040</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D21" s="33">
         <v>10</v>
@@ -19032,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>30</v>
@@ -19057,7 +19060,7 @@
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L93"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19078,10 +19081,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>59</v>
@@ -19093,22 +19096,22 @@
         <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>139</v>
@@ -19116,10 +19119,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
         <v>251</v>
-      </c>
-      <c r="B2" t="s">
-        <v>253</v>
       </c>
       <c r="C2">
         <v>2030</v>
@@ -19151,7 +19154,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -19324,12 +19327,12 @@
         <v>2400</v>
       </c>
       <c r="L7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -19364,7 +19367,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -19432,7 +19435,7 @@
         <v>3000</v>
       </c>
       <c r="L10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -19610,7 +19613,7 @@
         <v>3000</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -19998,7 +20001,7 @@
         <v>879</v>
       </c>
       <c r="L26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -20386,7 +20389,7 @@
         <v>2800</v>
       </c>
       <c r="L37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -20741,10 +20744,10 @@
     </row>
     <row r="48" spans="1:12" hidden="1">
       <c r="A48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" t="s">
         <v>251</v>
-      </c>
-      <c r="B48" t="s">
-        <v>253</v>
       </c>
       <c r="C48">
         <v>2040</v>
@@ -20776,7 +20779,7 @@
     </row>
     <row r="49" spans="1:12" hidden="1">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -20949,12 +20952,12 @@
         <v>4800</v>
       </c>
       <c r="L53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:12" hidden="1">
       <c r="A54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -20989,7 +20992,7 @@
     </row>
     <row r="55" spans="1:12" hidden="1">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -21057,7 +21060,7 @@
         <v>3000</v>
       </c>
       <c r="L56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:12" hidden="1">
@@ -21235,7 +21238,7 @@
         <v>3000</v>
       </c>
       <c r="L61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:12" hidden="1">
@@ -21623,7 +21626,7 @@
         <v>1879</v>
       </c>
       <c r="L72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:12" hidden="1">
@@ -22011,7 +22014,7 @@
         <v>2800</v>
       </c>
       <c r="L83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:12" hidden="1">

--- a/src_files/data_files/TYNDP-2024_National_Trends.xlsx
+++ b/src_files/data_files/TYNDP-2024_National_Trends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7EF24F-5BEF-41E4-8B55-787FF587DAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F43566-C0CA-436C-80DE-19B27854D35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="9" r:id="rId1"/>
@@ -919,9 +919,6 @@
     <t>AT00</t>
   </si>
   <si>
-    <t>Electrolyser (load)</t>
-  </si>
-  <si>
     <t>CH00</t>
   </si>
   <si>
@@ -994,6 +991,9 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>Electrolyser</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1752,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4481F0AF-41D8-47A8-8506-AC52CB6AB7F9}" name="Table5" displayName="Table5" ref="A1:H616" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A1:H616" xr:uid="{4481F0AF-41D8-47A8-8506-AC52CB6AB7F9}"/>
+  <autoFilter ref="A1:H616" xr:uid="{4481F0AF-41D8-47A8-8506-AC52CB6AB7F9}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Industry non-renewable CHP"/>
+        <filter val="Industry renewable CHP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{14DB2276-9455-4899-8611-51B747E70434}" name="Country"/>
     <tableColumn id="2" xr3:uid="{D7F790AB-9622-40B2-AB9B-D03D110E50D3}" name="Generator_ID"/>
@@ -2158,7 +2165,7 @@
         <v>243</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75">
@@ -2396,7 +2403,7 @@
         <v>227</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2452,10 +2459,10 @@
         <v>92</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>258</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>259</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>59</v>
@@ -3025,7 +3032,7 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3036,10 +3043,10 @@
         <v>92</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>258</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>259</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>59</v>
@@ -3690,8 +3697,8 @@
   </sheetPr>
   <dimension ref="A1:H616"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H616"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="M380" sqref="M380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3736,7 +3743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" t="s">
         <v>249</v>
       </c>
@@ -3753,7 +3760,7 @@
         <v>67.757999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -3770,7 +3777,7 @@
         <v>67.757999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -3787,12 +3794,12 @@
         <v>1009.997</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" t="s">
         <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3804,7 +3811,7 @@
         <v>1000.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -3821,7 +3828,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -3838,7 +3845,7 @@
         <v>356.50299999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -3855,7 +3862,7 @@
         <v>220.00200000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -3872,7 +3879,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" t="s">
         <v>249</v>
       </c>
@@ -3889,7 +3896,7 @@
         <v>1751.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -3906,7 +3913,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" t="s">
         <v>249</v>
       </c>
@@ -3923,7 +3930,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -3940,7 +3947,7 @@
         <v>414.33</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" t="s">
         <v>249</v>
       </c>
@@ -3991,7 +3998,7 @@
         <v>760.64499999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -4008,7 +4015,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" t="s">
         <v>249</v>
       </c>
@@ -4025,7 +4032,7 @@
         <v>9000.0010000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -4042,7 +4049,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -4059,7 +4066,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" t="s">
         <v>249</v>
       </c>
@@ -4076,7 +4083,7 @@
         <v>5052.92</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" t="s">
         <v>249</v>
       </c>
@@ -4093,7 +4100,7 @@
         <v>5607.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -4110,7 +4117,7 @@
         <v>2787.1289999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
         <v>249</v>
       </c>
@@ -4127,7 +4134,7 @@
         <v>6377.933</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" t="s">
         <v>249</v>
       </c>
@@ -4144,7 +4151,7 @@
         <v>12000.257</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4161,7 +4168,7 @@
         <v>594.35799999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -4178,7 +4185,7 @@
         <v>594.35799999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -4195,12 +4202,12 @@
         <v>2871.2750000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -4212,7 +4219,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -4229,7 +4236,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -4246,7 +4253,7 @@
         <v>1732.1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4263,7 +4270,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -4280,7 +4287,7 @@
         <v>870.99800000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4297,7 +4304,7 @@
         <v>354.4</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4348,7 +4355,7 @@
         <v>614.625</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4365,7 +4372,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4399,7 +4406,7 @@
         <v>5248</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4416,7 +4423,7 @@
         <v>1226.76</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4433,7 +4440,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4450,7 +4457,7 @@
         <v>148.202</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4467,9 +4474,9 @@
         <v>13610</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s">
         <v>187</v>
@@ -4484,9 +4491,9 @@
         <v>1221.2840000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s">
         <v>188</v>
@@ -4501,9 +4508,9 @@
         <v>1221.2840000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B47" t="s">
         <v>189</v>
@@ -4518,12 +4525,12 @@
         <v>2491.98</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -4537,7 +4544,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B49" t="s">
         <v>191</v>
@@ -4554,7 +4561,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B50" t="s">
         <v>192</v>
@@ -4569,9 +4576,9 @@
         <v>425.88900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
@@ -4586,9 +4593,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B52" t="s">
         <v>194</v>
@@ -4603,9 +4610,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B53" t="s">
         <v>195</v>
@@ -4620,9 +4627,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B54" t="s">
         <v>196</v>
@@ -4637,9 +4644,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
         <v>198</v>
@@ -4654,9 +4661,9 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B56" t="s">
         <v>199</v>
@@ -4671,9 +4678,9 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -4688,9 +4695,9 @@
         <v>8530</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -4705,9 +4712,9 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B59" t="s">
         <v>197</v>
@@ -4722,7 +4729,7 @@
         <v>9770.2690000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -4739,7 +4746,7 @@
         <v>3200.4</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -4756,7 +4763,7 @@
         <v>3200.4</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -4773,12 +4780,12 @@
         <v>53701.56</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" t="s">
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -4790,7 +4797,7 @@
         <v>12789</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -4807,7 +4814,7 @@
         <v>1620.404</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -4824,7 +4831,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -4841,7 +4848,7 @@
         <v>460.41399999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -4858,7 +4865,7 @@
         <v>1658.6</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -4875,7 +4882,7 @@
         <v>18452.862000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -4892,7 +4899,7 @@
         <v>2355.79</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -4909,7 +4916,7 @@
         <v>43.298999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -4926,7 +4933,7 @@
         <v>109.68</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -4943,7 +4950,7 @@
         <v>945.08699999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -4994,7 +5001,7 @@
         <v>13067.585999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -5011,7 +5018,7 @@
         <v>1585.3389999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -5028,7 +5035,7 @@
         <v>30521.3</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -5045,7 +5052,7 @@
         <v>115000.7</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -5062,7 +5069,7 @@
         <v>7166.6</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" hidden="1">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -5079,7 +5086,7 @@
         <v>7009.84</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -5096,7 +5103,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -5113,7 +5120,7 @@
         <v>2144.1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -5130,7 +5137,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -5147,7 +5154,7 @@
         <v>3933.9</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -5164,7 +5171,7 @@
         <v>215002</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -5181,12 +5188,12 @@
         <v>893.73099999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" t="s">
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -5198,7 +5205,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -5215,7 +5222,7 @@
         <v>57.752000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -5232,7 +5239,7 @@
         <v>54.555</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -5249,7 +5256,7 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -5266,7 +5273,7 @@
         <v>103.084</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -5283,7 +5290,7 @@
         <v>1165.52</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -5300,7 +5307,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" hidden="1">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -5317,7 +5324,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -5334,7 +5341,7 @@
         <v>5528.2</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -5351,7 +5358,7 @@
         <v>1155.384</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -5368,7 +5375,7 @@
         <v>4884.9399999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -5385,7 +5392,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -5402,7 +5409,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -5419,12 +5426,12 @@
         <v>1392.133</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" t="s">
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -5436,7 +5443,7 @@
         <v>3587</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -5453,7 +5460,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -5470,7 +5477,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -5487,7 +5494,7 @@
         <v>129.565</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -5504,7 +5511,7 @@
         <v>69.680000000000007</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -5521,7 +5528,7 @@
         <v>448.18200000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -5538,7 +5545,7 @@
         <v>111.706</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -5555,7 +5562,7 @@
         <v>375.42</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -5589,7 +5596,7 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -5606,7 +5613,7 @@
         <v>165.8</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -5623,7 +5630,7 @@
         <v>2722.4</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -5640,7 +5647,7 @@
         <v>6150.2280000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -5657,7 +5664,7 @@
         <v>12859.47</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -5674,7 +5681,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -5725,7 +5732,7 @@
         <v>167.65</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -5742,7 +5749,7 @@
         <v>657.99900000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -5759,7 +5766,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -5776,7 +5783,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -5793,7 +5800,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -5810,7 +5817,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -5827,7 +5834,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -5844,12 +5851,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" t="s">
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
@@ -5861,7 +5868,7 @@
         <v>10881</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -5912,7 +5919,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -5929,7 +5936,7 @@
         <v>5100.3599999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -5946,7 +5953,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -5963,7 +5970,7 @@
         <v>55617.493999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -5980,7 +5987,7 @@
         <v>5204.59</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>5304.4849999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -6014,7 +6021,7 @@
         <v>3964.0059999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -6031,7 +6038,7 @@
         <v>4223.32</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -6048,7 +6055,7 @@
         <v>11414.19</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -6065,7 +6072,7 @@
         <v>3424.6660000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -6082,7 +6089,7 @@
         <v>73548.126999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -6099,7 +6106,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -6116,7 +6123,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -6133,7 +6140,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -6150,12 +6157,12 @@
         <v>4960.607</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144" t="s">
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
@@ -6167,7 +6174,7 @@
         <v>8727.2729999999992</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -6184,7 +6191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -6201,7 +6208,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -6218,7 +6225,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -6235,7 +6242,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -6252,7 +6259,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" hidden="1">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>2624.82</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -6320,7 +6327,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -6337,7 +6344,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -6354,7 +6361,7 @@
         <v>25992.471000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -6371,7 +6378,7 @@
         <v>3236.6080000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -6388,7 +6395,7 @@
         <v>10695.187</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" hidden="1">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -6405,7 +6412,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -6422,7 +6429,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -6439,12 +6446,12 @@
         <v>5000.8999999999996</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" t="s">
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
@@ -6456,7 +6463,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -6473,7 +6480,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -6490,7 +6497,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" t="s">
         <v>16</v>
       </c>
@@ -6507,7 +6514,7 @@
         <v>5346.9960000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -6524,7 +6531,7 @@
         <v>437.00099999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -6575,7 +6582,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" t="s">
         <v>16</v>
       </c>
@@ -6592,7 +6599,7 @@
         <v>1254.998</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -6609,7 +6616,7 @@
         <v>61760.982000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -6626,7 +6633,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -6643,7 +6650,7 @@
         <v>31328.799999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -6660,7 +6667,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -6677,7 +6684,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -6694,7 +6701,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -6711,7 +6718,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -6728,7 +6735,7 @@
         <v>10029</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -6745,7 +6752,7 @@
         <v>13614</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -6762,7 +6769,7 @@
         <v>42622.19</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -6779,7 +6786,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -6796,7 +6803,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -6813,12 +6820,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183" t="s">
         <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -6830,7 +6837,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -6847,7 +6854,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -6864,7 +6871,7 @@
         <v>402.99900000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -6915,7 +6922,7 @@
         <v>209.89</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -6932,7 +6939,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -6949,7 +6956,7 @@
         <v>5000.0200000000004</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -6966,7 +6973,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -6983,7 +6990,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -7000,7 +7007,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -7017,7 +7024,7 @@
         <v>5000.3</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -7034,7 +7041,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -7051,7 +7058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -7068,7 +7075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -7085,7 +7092,7 @@
         <v>1004.003</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" t="s">
         <v>18</v>
       </c>
@@ -7119,7 +7126,7 @@
         <v>159.018</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201" t="s">
         <v>18</v>
       </c>
@@ -7136,7 +7143,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -7153,7 +7160,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" t="s">
         <v>18</v>
       </c>
@@ -7170,7 +7177,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -7187,7 +7194,7 @@
         <v>146.03</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205" t="s">
         <v>18</v>
       </c>
@@ -7204,7 +7211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -7221,7 +7228,7 @@
         <v>9331</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -7238,7 +7245,7 @@
         <v>9331</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -7255,12 +7262,12 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" t="s">
         <v>19</v>
       </c>
       <c r="B209" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
@@ -7272,7 +7279,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -7289,7 +7296,7 @@
         <v>2536.5059999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -7306,7 +7313,7 @@
         <v>7083.0060000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -7323,7 +7330,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -7340,7 +7347,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -7391,7 +7398,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -7408,7 +7415,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -7425,7 +7432,7 @@
         <v>16542.5</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -7442,7 +7449,7 @@
         <v>9100.0499999999993</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -7459,7 +7466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -7476,7 +7483,7 @@
         <v>59317.088000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" hidden="1">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -7510,7 +7517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" hidden="1">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -7527,7 +7534,7 @@
         <v>2424.5749999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" hidden="1">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -7544,7 +7551,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" hidden="1">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -7561,7 +7568,7 @@
         <v>4450.268</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" hidden="1">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -7578,7 +7585,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" hidden="1">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -7612,7 +7619,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" hidden="1">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -7629,7 +7636,7 @@
         <v>1108.0899999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" hidden="1">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -7646,7 +7653,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" hidden="1">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -7663,7 +7670,7 @@
         <v>5482.9719999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" hidden="1">
       <c r="A233" t="s">
         <v>22</v>
       </c>
@@ -7680,12 +7687,12 @@
         <v>5968.29</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" hidden="1">
       <c r="A234" t="s">
         <v>22</v>
       </c>
       <c r="B234" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -7714,7 +7721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" hidden="1">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -7731,7 +7738,7 @@
         <v>3003.5</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" hidden="1">
       <c r="A237" t="s">
         <v>22</v>
       </c>
@@ -7748,7 +7755,7 @@
         <v>2240.56</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" hidden="1">
       <c r="A238" t="s">
         <v>22</v>
       </c>
@@ -7765,7 +7772,7 @@
         <v>682.00800000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" hidden="1">
       <c r="A239" t="s">
         <v>22</v>
       </c>
@@ -7782,7 +7789,7 @@
         <v>25895.947</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" hidden="1">
       <c r="A240" t="s">
         <v>22</v>
       </c>
@@ -7799,12 +7806,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" hidden="1">
       <c r="A241" t="s">
         <v>23</v>
       </c>
       <c r="B241" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -7816,7 +7823,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" hidden="1">
       <c r="A242" t="s">
         <v>23</v>
       </c>
@@ -7833,7 +7840,7 @@
         <v>9620.7150000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" hidden="1">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -7850,7 +7857,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" hidden="1">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -7867,7 +7874,7 @@
         <v>3305.5059999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" hidden="1">
       <c r="A245" t="s">
         <v>23</v>
       </c>
@@ -7884,7 +7891,7 @@
         <v>5466.5709999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" hidden="1">
       <c r="A246" t="s">
         <v>23</v>
       </c>
@@ -7901,7 +7908,7 @@
         <v>1872.12</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" hidden="1">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -7952,7 +7959,7 @@
         <v>2155.0540000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" hidden="1">
       <c r="A250" t="s">
         <v>23</v>
       </c>
@@ -7969,7 +7976,7 @@
         <v>4696.0050000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" hidden="1">
       <c r="A251" t="s">
         <v>23</v>
       </c>
@@ -7986,7 +7993,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" hidden="1">
       <c r="A252" t="s">
         <v>23</v>
       </c>
@@ -8003,7 +8010,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" hidden="1">
       <c r="A253" t="s">
         <v>23</v>
       </c>
@@ -8020,7 +8027,7 @@
         <v>13767.84</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" hidden="1">
       <c r="A254" t="s">
         <v>23</v>
       </c>
@@ -8037,7 +8044,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" hidden="1">
       <c r="A255" t="s">
         <v>23</v>
       </c>
@@ -8054,7 +8061,7 @@
         <v>1333.35</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" hidden="1">
       <c r="A256" t="s">
         <v>23</v>
       </c>
@@ -8071,7 +8078,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" hidden="1">
       <c r="A257" t="s">
         <v>23</v>
       </c>
@@ -8088,7 +8095,7 @@
         <v>216.26</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" hidden="1">
       <c r="A258" t="s">
         <v>23</v>
       </c>
@@ -8105,7 +8112,7 @@
         <v>427.48</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" hidden="1">
       <c r="A259" t="s">
         <v>23</v>
       </c>
@@ -8122,7 +8129,7 @@
         <v>367.31</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" hidden="1">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -8139,7 +8146,7 @@
         <v>21663.41</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" hidden="1">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -8156,7 +8163,7 @@
         <v>11.542999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" hidden="1">
       <c r="A262" t="s">
         <v>24</v>
       </c>
@@ -8173,7 +8180,7 @@
         <v>11.542999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" hidden="1">
       <c r="A263" t="s">
         <v>24</v>
       </c>
@@ -8190,12 +8197,12 @@
         <v>236.768</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" hidden="1">
       <c r="A264" t="s">
         <v>24</v>
       </c>
       <c r="B264" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C264" t="s">
         <v>9</v>
@@ -8207,7 +8214,7 @@
         <v>6451.3090000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" hidden="1">
       <c r="A265" t="s">
         <v>24</v>
       </c>
@@ -8241,7 +8248,7 @@
         <v>198.7</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" hidden="1">
       <c r="A267" t="s">
         <v>24</v>
       </c>
@@ -8258,7 +8265,7 @@
         <v>3580.5430000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" hidden="1">
       <c r="A268" t="s">
         <v>24</v>
       </c>
@@ -8275,7 +8282,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" hidden="1">
       <c r="A269" t="s">
         <v>25</v>
       </c>
@@ -8292,7 +8299,7 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" hidden="1">
       <c r="A270" t="s">
         <v>25</v>
       </c>
@@ -8309,7 +8316,7 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" hidden="1">
       <c r="A271" t="s">
         <v>25</v>
       </c>
@@ -8326,12 +8333,12 @@
         <v>369.29199999999997</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" hidden="1">
       <c r="A272" t="s">
         <v>25</v>
       </c>
       <c r="B272" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C272" t="s">
         <v>9</v>
@@ -8360,7 +8367,7 @@
         <v>743.57</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" hidden="1">
       <c r="A274" t="s">
         <v>25</v>
       </c>
@@ -8377,7 +8384,7 @@
         <v>8280.4480000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" hidden="1">
       <c r="A275" t="s">
         <v>25</v>
       </c>
@@ -8394,7 +8401,7 @@
         <v>7650.1</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" hidden="1">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -8411,7 +8418,7 @@
         <v>333.88600000000002</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" hidden="1">
       <c r="A277" t="s">
         <v>26</v>
       </c>
@@ -8428,7 +8435,7 @@
         <v>161.72300000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" hidden="1">
       <c r="A278" t="s">
         <v>26</v>
       </c>
@@ -8445,7 +8452,7 @@
         <v>161.72300000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279" t="s">
         <v>26</v>
       </c>
@@ -8462,12 +8469,12 @@
         <v>968.27100000000007</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280" t="s">
         <v>26</v>
       </c>
       <c r="B280" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C280" t="s">
         <v>9</v>
@@ -8479,7 +8486,7 @@
         <v>133.96700000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281" t="s">
         <v>26</v>
       </c>
@@ -8513,7 +8520,7 @@
         <v>2818.0549999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283" t="s">
         <v>26</v>
       </c>
@@ -8530,7 +8537,7 @@
         <v>6883</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284" t="s">
         <v>26</v>
       </c>
@@ -8547,7 +8554,7 @@
         <v>3868.223</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285" t="s">
         <v>26</v>
       </c>
@@ -8564,7 +8571,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286" t="s">
         <v>26</v>
       </c>
@@ -8581,7 +8588,7 @@
         <v>4851.692</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287" t="s">
         <v>27</v>
       </c>
@@ -8598,7 +8605,7 @@
         <v>70.540000000000006</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288" t="s">
         <v>27</v>
       </c>
@@ -8615,7 +8622,7 @@
         <v>70.540000000000006</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" t="s">
         <v>27</v>
       </c>
@@ -8632,12 +8639,12 @@
         <v>393.99</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" t="s">
         <v>27</v>
       </c>
       <c r="B290" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C290" t="s">
         <v>9</v>
@@ -8666,7 +8673,7 @@
         <v>698.09</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -8683,7 +8690,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" t="s">
         <v>27</v>
       </c>
@@ -8700,7 +8707,7 @@
         <v>2222.9389999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" t="s">
         <v>27</v>
       </c>
@@ -8717,7 +8724,7 @@
         <v>237.1</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295" t="s">
         <v>27</v>
       </c>
@@ -8734,7 +8741,7 @@
         <v>2116.1889999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" t="s">
         <v>28</v>
       </c>
@@ -8751,7 +8758,7 @@
         <v>15506.541999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -8768,7 +8775,7 @@
         <v>15506.541999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298" t="s">
         <v>28</v>
       </c>
@@ -8785,12 +8792,12 @@
         <v>11485.967000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299" t="s">
         <v>28</v>
       </c>
       <c r="B299" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C299" t="s">
         <v>9</v>
@@ -8802,7 +8809,7 @@
         <v>8017.5810000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300" t="s">
         <v>28</v>
       </c>
@@ -8819,7 +8826,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" hidden="1">
       <c r="A301" t="s">
         <v>28</v>
       </c>
@@ -8836,7 +8843,7 @@
         <v>1029.999</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302" t="s">
         <v>28</v>
       </c>
@@ -8853,7 +8860,7 @@
         <v>539.00099999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" t="s">
         <v>28</v>
       </c>
@@ -8870,7 +8877,7 @@
         <v>21988.455000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304" t="s">
         <v>28</v>
       </c>
@@ -8887,7 +8894,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" hidden="1">
       <c r="A305" t="s">
         <v>28</v>
       </c>
@@ -8904,7 +8911,7 @@
         <v>2456.89</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" hidden="1">
       <c r="A306" t="s">
         <v>28</v>
       </c>
@@ -8921,7 +8928,7 @@
         <v>2448.7399999999998</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" hidden="1">
       <c r="A307" t="s">
         <v>28</v>
       </c>
@@ -8938,7 +8945,7 @@
         <v>5062.1400000000003</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" hidden="1">
       <c r="A308" t="s">
         <v>28</v>
       </c>
@@ -8955,7 +8962,7 @@
         <v>204.66</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" hidden="1">
       <c r="A309" t="s">
         <v>28</v>
       </c>
@@ -9006,7 +9013,7 @@
         <v>2906.1660000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" hidden="1">
       <c r="A312" t="s">
         <v>28</v>
       </c>
@@ -9023,7 +9030,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" hidden="1">
       <c r="A313" t="s">
         <v>28</v>
       </c>
@@ -9040,7 +9047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" hidden="1">
       <c r="A314" t="s">
         <v>28</v>
       </c>
@@ -9057,7 +9064,7 @@
         <v>5510.0010000000002</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" hidden="1">
       <c r="A315" t="s">
         <v>28</v>
       </c>
@@ -9074,7 +9081,7 @@
         <v>52467.47</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" hidden="1">
       <c r="A316" t="s">
         <v>28</v>
       </c>
@@ -9091,7 +9098,7 @@
         <v>32199.174999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" hidden="1">
       <c r="A317" t="s">
         <v>28</v>
       </c>
@@ -9108,7 +9115,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" hidden="1">
       <c r="A318" t="s">
         <v>28</v>
       </c>
@@ -9125,7 +9132,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" hidden="1">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -9142,7 +9149,7 @@
         <v>2219.471</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" hidden="1">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -9159,7 +9166,7 @@
         <v>35042.421999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" hidden="1">
       <c r="A321" t="s">
         <v>249</v>
       </c>
@@ -9176,7 +9183,7 @@
         <v>238.69499999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" hidden="1">
       <c r="A322" t="s">
         <v>249</v>
       </c>
@@ -9193,7 +9200,7 @@
         <v>238.69499999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" hidden="1">
       <c r="A323" t="s">
         <v>249</v>
       </c>
@@ -9210,12 +9217,12 @@
         <v>1395.653</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" hidden="1">
       <c r="A324" t="s">
         <v>249</v>
       </c>
       <c r="B324" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C324" t="s">
         <v>9</v>
@@ -9227,7 +9234,7 @@
         <v>6859.2</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" hidden="1">
       <c r="A325" t="s">
         <v>249</v>
       </c>
@@ -9278,7 +9285,7 @@
         <v>760.64499999999998</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" hidden="1">
       <c r="A328" t="s">
         <v>249</v>
       </c>
@@ -9295,7 +9302,7 @@
         <v>16000.001</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" hidden="1">
       <c r="A329" t="s">
         <v>249</v>
       </c>
@@ -9312,7 +9319,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" hidden="1">
       <c r="A330" t="s">
         <v>249</v>
       </c>
@@ -9329,7 +9336,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" hidden="1">
       <c r="A331" t="s">
         <v>249</v>
       </c>
@@ -9346,7 +9353,7 @@
         <v>6952.92</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" hidden="1">
       <c r="A332" t="s">
         <v>249</v>
       </c>
@@ -9363,7 +9370,7 @@
         <v>8082.5</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" hidden="1">
       <c r="A333" t="s">
         <v>249</v>
       </c>
@@ -9380,7 +9387,7 @@
         <v>2787.1289999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" hidden="1">
       <c r="A334" t="s">
         <v>249</v>
       </c>
@@ -9397,7 +9404,7 @@
         <v>6499.433</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" hidden="1">
       <c r="A335" t="s">
         <v>249</v>
       </c>
@@ -9414,7 +9421,7 @@
         <v>30000.257000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" hidden="1">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -9431,7 +9438,7 @@
         <v>1821.306</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" hidden="1">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -9448,7 +9455,7 @@
         <v>1821.306</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" hidden="1">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -9465,12 +9472,12 @@
         <v>4283.63</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" hidden="1">
       <c r="A339" t="s">
         <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C339" t="s">
         <v>9</v>
@@ -9482,7 +9489,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" hidden="1">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -9499,7 +9506,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" hidden="1">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -9516,7 +9523,7 @@
         <v>1281.0999999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" hidden="1">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -9533,7 +9540,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" hidden="1">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -9550,7 +9557,7 @@
         <v>354.4</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" hidden="1">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -9567,7 +9574,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" hidden="1">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -9618,7 +9625,7 @@
         <v>614.625</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" hidden="1">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -9635,7 +9642,7 @@
         <v>7960</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" hidden="1">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -9652,7 +9659,7 @@
         <v>7504.9530000000004</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" hidden="1">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -9669,7 +9676,7 @@
         <v>1226.76</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" hidden="1">
       <c r="A351" t="s">
         <v>7</v>
       </c>
@@ -9686,7 +9693,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" hidden="1">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -9703,7 +9710,7 @@
         <v>165.00200000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" hidden="1">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -9720,9 +9727,9 @@
         <v>26285.274000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" hidden="1">
       <c r="A354" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B354" t="s">
         <v>187</v>
@@ -9737,9 +9744,9 @@
         <v>5554.8760000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" hidden="1">
       <c r="A355" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B355" t="s">
         <v>188</v>
@@ -9754,9 +9761,9 @@
         <v>5554.8760000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" hidden="1">
       <c r="A356" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B356" t="s">
         <v>189</v>
@@ -9771,12 +9778,12 @@
         <v>3947.1559999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" hidden="1">
       <c r="A357" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B357" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C357" t="s">
         <v>9</v>
@@ -9790,7 +9797,7 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B358" t="s">
         <v>191</v>
@@ -9807,7 +9814,7 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B359" t="s">
         <v>192</v>
@@ -9822,9 +9829,9 @@
         <v>621.351</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" hidden="1">
       <c r="A360" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B360" t="s">
         <v>194</v>
@@ -9839,9 +9846,9 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" hidden="1">
       <c r="A361" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B361" t="s">
         <v>195</v>
@@ -9856,9 +9863,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" hidden="1">
       <c r="A362" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B362" t="s">
         <v>196</v>
@@ -9873,9 +9880,9 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" hidden="1">
       <c r="A363" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B363" t="s">
         <v>198</v>
@@ -9890,9 +9897,9 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" hidden="1">
       <c r="A364" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B364" t="s">
         <v>199</v>
@@ -9907,9 +9914,9 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" hidden="1">
       <c r="A365" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B365" t="s">
         <v>48</v>
@@ -9924,9 +9931,9 @@
         <v>8930</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" hidden="1">
       <c r="A366" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B366" t="s">
         <v>41</v>
@@ -9941,9 +9948,9 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" hidden="1">
       <c r="A367" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B367" t="s">
         <v>197</v>
@@ -9958,7 +9965,7 @@
         <v>24071.131000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" hidden="1">
       <c r="A368" t="s">
         <v>10</v>
       </c>
@@ -9975,7 +9982,7 @@
         <v>109812.03</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" hidden="1">
       <c r="A369" t="s">
         <v>10</v>
       </c>
@@ -9992,7 +9999,7 @@
         <v>109812.03</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" hidden="1">
       <c r="A370" t="s">
         <v>10</v>
       </c>
@@ -10009,12 +10016,12 @@
         <v>84918.937000000005</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" hidden="1">
       <c r="A371" t="s">
         <v>10</v>
       </c>
       <c r="B371" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C371" t="s">
         <v>9</v>
@@ -10026,7 +10033,7 @@
         <v>35044.1</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" hidden="1">
       <c r="A372" t="s">
         <v>10</v>
       </c>
@@ -10043,7 +10050,7 @@
         <v>857.16</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" hidden="1">
       <c r="A373" t="s">
         <v>10</v>
       </c>
@@ -10060,7 +10067,7 @@
         <v>39.651000000000003</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" hidden="1">
       <c r="A374" t="s">
         <v>10</v>
       </c>
@@ -10077,7 +10084,7 @@
         <v>265.52800000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" hidden="1">
       <c r="A375" t="s">
         <v>10</v>
       </c>
@@ -10094,7 +10101,7 @@
         <v>5009.768</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" hidden="1">
       <c r="A376" t="s">
         <v>10</v>
       </c>
@@ -10111,7 +10118,7 @@
         <v>669.91600000000005</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" hidden="1">
       <c r="A377" t="s">
         <v>10</v>
       </c>
@@ -10128,7 +10135,7 @@
         <v>318.69600000000003</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" hidden="1">
       <c r="A378" t="s">
         <v>10</v>
       </c>
@@ -10179,7 +10186,7 @@
         <v>5835.1959999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" hidden="1">
       <c r="A381" t="s">
         <v>10</v>
       </c>
@@ -10196,7 +10203,7 @@
         <v>65395.6</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" hidden="1">
       <c r="A382" t="s">
         <v>10</v>
       </c>
@@ -10213,7 +10220,7 @@
         <v>158878.29</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" hidden="1">
       <c r="A383" t="s">
         <v>10</v>
       </c>
@@ -10230,7 +10237,7 @@
         <v>7661.6</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" hidden="1">
       <c r="A384" t="s">
         <v>10</v>
       </c>
@@ -10247,7 +10254,7 @@
         <v>7529.84</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" hidden="1">
       <c r="A385" t="s">
         <v>10</v>
       </c>
@@ -10264,7 +10271,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" hidden="1">
       <c r="A386" t="s">
         <v>10</v>
       </c>
@@ -10281,7 +10288,7 @@
         <v>3194.1</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" hidden="1">
       <c r="A387" t="s">
         <v>10</v>
       </c>
@@ -10298,7 +10305,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" hidden="1">
       <c r="A388" t="s">
         <v>10</v>
       </c>
@@ -10315,7 +10322,7 @@
         <v>3933.9</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" hidden="1">
       <c r="A389" t="s">
         <v>10</v>
       </c>
@@ -10332,7 +10339,7 @@
         <v>365875.4</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" hidden="1">
       <c r="A390" t="s">
         <v>11</v>
       </c>
@@ -10349,12 +10356,12 @@
         <v>1308.385</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" hidden="1">
       <c r="A391" t="s">
         <v>11</v>
       </c>
       <c r="B391" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C391" t="s">
         <v>9</v>
@@ -10366,7 +10373,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" hidden="1">
       <c r="A392" t="s">
         <v>11</v>
       </c>
@@ -10383,7 +10390,7 @@
         <v>22.196999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" hidden="1">
       <c r="A393" t="s">
         <v>11</v>
       </c>
@@ -10400,7 +10407,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" hidden="1">
       <c r="A394" t="s">
         <v>11</v>
       </c>
@@ -10417,7 +10424,7 @@
         <v>88.787999999999997</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" hidden="1">
       <c r="A395" t="s">
         <v>11</v>
       </c>
@@ -10434,7 +10441,7 @@
         <v>823.12</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" hidden="1">
       <c r="A396" t="s">
         <v>11</v>
       </c>
@@ -10451,7 +10458,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" hidden="1">
       <c r="A397" t="s">
         <v>11</v>
       </c>
@@ -10468,7 +10475,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" hidden="1">
       <c r="A398" t="s">
         <v>11</v>
       </c>
@@ -10485,7 +10492,7 @@
         <v>6528.2</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" hidden="1">
       <c r="A399" t="s">
         <v>11</v>
       </c>
@@ -10502,7 +10509,7 @@
         <v>1020.9450000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" hidden="1">
       <c r="A400" t="s">
         <v>11</v>
       </c>
@@ -10519,7 +10526,7 @@
         <v>7876.0230000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" hidden="1">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -10536,7 +10543,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -10553,7 +10560,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403" t="s">
         <v>12</v>
       </c>
@@ -10570,12 +10577,12 @@
         <v>2240.77</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" hidden="1">
       <c r="A404" t="s">
         <v>12</v>
       </c>
       <c r="B404" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C404" t="s">
         <v>9</v>
@@ -10587,7 +10594,7 @@
         <v>14587</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" hidden="1">
       <c r="A405" t="s">
         <v>12</v>
       </c>
@@ -10604,7 +10611,7 @@
         <v>10.385</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" hidden="1">
       <c r="A406" t="s">
         <v>12</v>
       </c>
@@ -10621,7 +10628,7 @@
         <v>27.209</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -10638,7 +10645,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" hidden="1">
       <c r="A408" t="s">
         <v>12</v>
       </c>
@@ -10655,7 +10662,7 @@
         <v>353.71699999999998</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" hidden="1">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -10689,7 +10696,7 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411" t="s">
         <v>12</v>
       </c>
@@ -10706,7 +10713,7 @@
         <v>151.80199999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -10723,7 +10730,7 @@
         <v>10722.4</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" hidden="1">
       <c r="A413" t="s">
         <v>12</v>
       </c>
@@ -10740,7 +10747,7 @@
         <v>4925.49</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414" t="s">
         <v>12</v>
       </c>
@@ -10757,7 +10764,7 @@
         <v>19096.107</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415" t="s">
         <v>13</v>
       </c>
@@ -10774,7 +10781,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" hidden="1">
       <c r="A416" t="s">
         <v>13</v>
       </c>
@@ -10825,7 +10832,7 @@
         <v>134.65</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" hidden="1">
       <c r="A419" t="s">
         <v>13</v>
       </c>
@@ -10842,7 +10849,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420" t="s">
         <v>13</v>
       </c>
@@ -10859,7 +10866,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" hidden="1">
       <c r="A421" t="s">
         <v>13</v>
       </c>
@@ -10876,7 +10883,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422" t="s">
         <v>13</v>
       </c>
@@ -10893,7 +10900,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" hidden="1">
       <c r="A423" t="s">
         <v>14</v>
       </c>
@@ -10910,7 +10917,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" hidden="1">
       <c r="A424" t="s">
         <v>14</v>
       </c>
@@ -10927,7 +10934,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" hidden="1">
       <c r="A425" t="s">
         <v>14</v>
       </c>
@@ -10944,12 +10951,12 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426" t="s">
         <v>14</v>
       </c>
       <c r="B426" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C426" t="s">
         <v>9</v>
@@ -10961,7 +10968,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" t="s">
         <v>14</v>
       </c>
@@ -11012,7 +11019,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430" t="s">
         <v>14</v>
       </c>
@@ -11029,7 +11036,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431" t="s">
         <v>14</v>
       </c>
@@ -11046,7 +11053,7 @@
         <v>79916.948999999993</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432" t="s">
         <v>14</v>
       </c>
@@ -11063,7 +11070,7 @@
         <v>6758.59</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" hidden="1">
       <c r="A433" t="s">
         <v>14</v>
       </c>
@@ -11080,7 +11087,7 @@
         <v>6908.4849999999997</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" hidden="1">
       <c r="A434" t="s">
         <v>14</v>
       </c>
@@ -11097,7 +11104,7 @@
         <v>4564.0060000000003</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" hidden="1">
       <c r="A435" t="s">
         <v>14</v>
       </c>
@@ -11114,7 +11121,7 @@
         <v>4823.32</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" hidden="1">
       <c r="A436" t="s">
         <v>14</v>
       </c>
@@ -11131,7 +11138,7 @@
         <v>11414.19</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" hidden="1">
       <c r="A437" t="s">
         <v>14</v>
       </c>
@@ -11148,7 +11155,7 @@
         <v>3424.6660000000002</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" hidden="1">
       <c r="A438" t="s">
         <v>14</v>
       </c>
@@ -11165,7 +11172,7 @@
         <v>138548.12700000001</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" hidden="1">
       <c r="A439" t="s">
         <v>14</v>
       </c>
@@ -11182,7 +11189,7 @@
         <v>8550</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" hidden="1">
       <c r="A440" t="s">
         <v>15</v>
       </c>
@@ -11199,7 +11206,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" hidden="1">
       <c r="A441" t="s">
         <v>15</v>
       </c>
@@ -11216,7 +11223,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" hidden="1">
       <c r="A442" t="s">
         <v>15</v>
       </c>
@@ -11233,12 +11240,12 @@
         <v>7629.3230000000003</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" hidden="1">
       <c r="A443" t="s">
         <v>15</v>
       </c>
       <c r="B443" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C443" t="s">
         <v>9</v>
@@ -11250,7 +11257,7 @@
         <v>29500</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" hidden="1">
       <c r="A444" t="s">
         <v>15</v>
       </c>
@@ -11267,7 +11274,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" hidden="1">
       <c r="A445" t="s">
         <v>15</v>
       </c>
@@ -11284,7 +11291,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" hidden="1">
       <c r="A446" t="s">
         <v>15</v>
       </c>
@@ -11301,7 +11308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" hidden="1">
       <c r="A447" t="s">
         <v>15</v>
       </c>
@@ -11318,7 +11325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" hidden="1">
       <c r="A448" t="s">
         <v>15</v>
       </c>
@@ -11369,7 +11376,7 @@
         <v>2624.82</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" hidden="1">
       <c r="A451" t="s">
         <v>15</v>
       </c>
@@ -11386,7 +11393,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" hidden="1">
       <c r="A452" t="s">
         <v>15</v>
       </c>
@@ -11403,7 +11410,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" hidden="1">
       <c r="A453" t="s">
         <v>15</v>
       </c>
@@ -11420,7 +11427,7 @@
         <v>54790.053999999996</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" hidden="1">
       <c r="A454" t="s">
         <v>15</v>
       </c>
@@ -11437,7 +11444,7 @@
         <v>3236.6080000000002</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" hidden="1">
       <c r="A455" t="s">
         <v>15</v>
       </c>
@@ -11454,7 +11461,7 @@
         <v>21390.374</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" hidden="1">
       <c r="A456" t="s">
         <v>16</v>
       </c>
@@ -11471,7 +11478,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" hidden="1">
       <c r="A457" t="s">
         <v>16</v>
       </c>
@@ -11488,7 +11495,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" hidden="1">
       <c r="A458" t="s">
         <v>16</v>
       </c>
@@ -11505,12 +11512,12 @@
         <v>6501.5</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" hidden="1">
       <c r="A459" t="s">
         <v>16</v>
       </c>
       <c r="B459" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C459" t="s">
         <v>9</v>
@@ -11522,7 +11529,7 @@
         <v>15776</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" hidden="1">
       <c r="A460" t="s">
         <v>16</v>
       </c>
@@ -11539,7 +11546,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" hidden="1">
       <c r="A461" t="s">
         <v>16</v>
       </c>
@@ -11556,7 +11563,7 @@
         <v>5346.9960000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" hidden="1">
       <c r="A462" t="s">
         <v>16</v>
       </c>
@@ -11607,7 +11614,7 @@
         <v>2451.06</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" hidden="1">
       <c r="A465" t="s">
         <v>16</v>
       </c>
@@ -11624,7 +11631,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" hidden="1">
       <c r="A466" t="s">
         <v>16</v>
       </c>
@@ -11641,7 +11648,7 @@
         <v>62907.02</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" hidden="1">
       <c r="A467" t="s">
         <v>16</v>
       </c>
@@ -11658,7 +11665,7 @@
         <v>26375</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" hidden="1">
       <c r="A468" t="s">
         <v>16</v>
       </c>
@@ -11675,7 +11682,7 @@
         <v>44449.530000000013</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" hidden="1">
       <c r="A469" t="s">
         <v>16</v>
       </c>
@@ -11692,7 +11699,7 @@
         <v>2485.2939999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" hidden="1">
       <c r="A470" t="s">
         <v>16</v>
       </c>
@@ -11709,7 +11716,7 @@
         <v>2485.2939999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" hidden="1">
       <c r="A471" t="s">
         <v>16</v>
       </c>
@@ -11726,7 +11733,7 @@
         <v>2357.8429999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" hidden="1">
       <c r="A472" t="s">
         <v>16</v>
       </c>
@@ -11743,7 +11750,7 @@
         <v>2357.8429999999998</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" hidden="1">
       <c r="A473" t="s">
         <v>16</v>
       </c>
@@ -11760,7 +11767,7 @@
         <v>10029</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" hidden="1">
       <c r="A474" t="s">
         <v>16</v>
       </c>
@@ -11777,7 +11784,7 @@
         <v>13614</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" hidden="1">
       <c r="A475" t="s">
         <v>16</v>
       </c>
@@ -11794,7 +11801,7 @@
         <v>67009.8</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" hidden="1">
       <c r="A476" t="s">
         <v>17</v>
       </c>
@@ -11811,7 +11818,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" hidden="1">
       <c r="A477" t="s">
         <v>17</v>
       </c>
@@ -11828,7 +11835,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" hidden="1">
       <c r="A478" t="s">
         <v>17</v>
       </c>
@@ -11845,12 +11852,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" hidden="1">
       <c r="A479" t="s">
         <v>17</v>
       </c>
       <c r="B479" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C479" t="s">
         <v>9</v>
@@ -11862,7 +11869,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" hidden="1">
       <c r="A480" t="s">
         <v>17</v>
       </c>
@@ -11879,7 +11886,7 @@
         <v>402.99900000000002</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" hidden="1">
       <c r="A481" t="s">
         <v>17</v>
       </c>
@@ -11930,7 +11937,7 @@
         <v>209.89</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" hidden="1">
       <c r="A484" t="s">
         <v>17</v>
       </c>
@@ -11947,7 +11954,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" hidden="1">
       <c r="A485" t="s">
         <v>17</v>
       </c>
@@ -11964,7 +11971,7 @@
         <v>5430.02</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" hidden="1">
       <c r="A486" t="s">
         <v>17</v>
       </c>
@@ -11981,7 +11988,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" hidden="1">
       <c r="A487" t="s">
         <v>17</v>
       </c>
@@ -11998,7 +12005,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" hidden="1">
       <c r="A488" t="s">
         <v>17</v>
       </c>
@@ -12015,7 +12022,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" hidden="1">
       <c r="A489" t="s">
         <v>17</v>
       </c>
@@ -12032,7 +12039,7 @@
         <v>5600.3</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" hidden="1">
       <c r="A490" t="s">
         <v>18</v>
       </c>
@@ -12049,7 +12056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" hidden="1">
       <c r="A491" t="s">
         <v>18</v>
       </c>
@@ -12066,7 +12073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" hidden="1">
       <c r="A492" t="s">
         <v>18</v>
       </c>
@@ -12083,7 +12090,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" hidden="1">
       <c r="A493" t="s">
         <v>18</v>
       </c>
@@ -12100,7 +12107,7 @@
         <v>1004.003</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" hidden="1">
       <c r="A494" t="s">
         <v>18</v>
       </c>
@@ -12134,7 +12141,7 @@
         <v>299.92700000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" hidden="1">
       <c r="A496" t="s">
         <v>18</v>
       </c>
@@ -12151,7 +12158,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" hidden="1">
       <c r="A497" t="s">
         <v>18</v>
       </c>
@@ -12168,7 +12175,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" hidden="1">
       <c r="A498" t="s">
         <v>18</v>
       </c>
@@ -12185,7 +12192,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" hidden="1">
       <c r="A499" t="s">
         <v>18</v>
       </c>
@@ -12202,7 +12209,7 @@
         <v>386.03</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" hidden="1">
       <c r="A500" t="s">
         <v>18</v>
       </c>
@@ -12219,7 +12226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" hidden="1">
       <c r="A501" t="s">
         <v>19</v>
       </c>
@@ -12236,7 +12243,7 @@
         <v>30817</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" hidden="1">
       <c r="A502" t="s">
         <v>19</v>
       </c>
@@ -12253,7 +12260,7 @@
         <v>30817</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" hidden="1">
       <c r="A503" t="s">
         <v>19</v>
       </c>
@@ -12270,12 +12277,12 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" hidden="1">
       <c r="A504" t="s">
         <v>19</v>
       </c>
       <c r="B504" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C504" t="s">
         <v>9</v>
@@ -12287,7 +12294,7 @@
         <v>20869</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" hidden="1">
       <c r="A505" t="s">
         <v>19</v>
       </c>
@@ -12304,7 +12311,7 @@
         <v>476.00299999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" hidden="1">
       <c r="A506" t="s">
         <v>19</v>
       </c>
@@ -12321,7 +12328,7 @@
         <v>3043.9989999999998</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" hidden="1">
       <c r="A507" t="s">
         <v>19</v>
       </c>
@@ -12338,7 +12345,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" hidden="1">
       <c r="A508" t="s">
         <v>19</v>
       </c>
@@ -12355,7 +12362,7 @@
         <v>160.99799999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" hidden="1">
       <c r="A509" t="s">
         <v>19</v>
       </c>
@@ -12406,7 +12413,7 @@
         <v>208.6</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" hidden="1">
       <c r="A512" t="s">
         <v>19</v>
       </c>
@@ -12423,7 +12430,7 @@
         <v>35242.5</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" hidden="1">
       <c r="A513" t="s">
         <v>19</v>
       </c>
@@ -12440,7 +12447,7 @@
         <v>11425.05</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" hidden="1">
       <c r="A514" t="s">
         <v>19</v>
       </c>
@@ -12457,7 +12464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" hidden="1">
       <c r="A515" t="s">
         <v>19</v>
       </c>
@@ -12474,7 +12481,7 @@
         <v>102414.2</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" hidden="1">
       <c r="A516" t="s">
         <v>20</v>
       </c>
@@ -12508,7 +12515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" hidden="1">
       <c r="A518" t="s">
         <v>20</v>
       </c>
@@ -12525,7 +12532,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" hidden="1">
       <c r="A519" t="s">
         <v>20</v>
       </c>
@@ -12542,7 +12549,7 @@
         <v>2424.5749999999998</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" hidden="1">
       <c r="A520" t="s">
         <v>20</v>
       </c>
@@ -12559,7 +12566,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" hidden="1">
       <c r="A521" t="s">
         <v>20</v>
       </c>
@@ -12576,7 +12583,7 @@
         <v>4592.058</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" hidden="1">
       <c r="A522" t="s">
         <v>20</v>
       </c>
@@ -12593,7 +12600,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" hidden="1">
       <c r="A523" t="s">
         <v>21</v>
       </c>
@@ -12610,12 +12617,12 @@
         <v>1792.01</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" hidden="1">
       <c r="A524" t="s">
         <v>21</v>
       </c>
       <c r="B524" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C524" t="s">
         <v>9</v>
@@ -12644,7 +12651,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" hidden="1">
       <c r="A526" t="s">
         <v>21</v>
       </c>
@@ -12661,7 +12668,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" hidden="1">
       <c r="A527" t="s">
         <v>21</v>
       </c>
@@ -12678,7 +12685,7 @@
         <v>1858.09</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" hidden="1">
       <c r="A528" t="s">
         <v>21</v>
       </c>
@@ -12695,7 +12702,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" hidden="1">
       <c r="A529" t="s">
         <v>21</v>
       </c>
@@ -12712,7 +12719,7 @@
         <v>5619.6259999999993</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" hidden="1">
       <c r="A530" t="s">
         <v>22</v>
       </c>
@@ -12729,12 +12736,12 @@
         <v>6549.2070000000003</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" hidden="1">
       <c r="A531" t="s">
         <v>22</v>
       </c>
       <c r="B531" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C531" t="s">
         <v>9</v>
@@ -12763,7 +12770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" hidden="1">
       <c r="A533" t="s">
         <v>22</v>
       </c>
@@ -12780,7 +12787,7 @@
         <v>7503.5</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" hidden="1">
       <c r="A534" t="s">
         <v>22</v>
       </c>
@@ -12797,7 +12804,7 @@
         <v>2640.56</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" hidden="1">
       <c r="A535" t="s">
         <v>22</v>
       </c>
@@ -12814,7 +12821,7 @@
         <v>682.00800000000004</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" hidden="1">
       <c r="A536" t="s">
         <v>22</v>
       </c>
@@ -12831,7 +12838,7 @@
         <v>28394.12</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" hidden="1">
       <c r="A537" t="s">
         <v>22</v>
       </c>
@@ -12848,12 +12855,12 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" hidden="1">
       <c r="A538" t="s">
         <v>23</v>
       </c>
       <c r="B538" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C538" t="s">
         <v>9</v>
@@ -12865,7 +12872,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" hidden="1">
       <c r="A539" t="s">
         <v>23</v>
       </c>
@@ -12882,7 +12889,7 @@
         <v>9781.7160000000003</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" hidden="1">
       <c r="A540" t="s">
         <v>23</v>
       </c>
@@ -12899,7 +12906,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" hidden="1">
       <c r="A541" t="s">
         <v>23</v>
       </c>
@@ -12916,7 +12923,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" hidden="1">
       <c r="A542" t="s">
         <v>23</v>
       </c>
@@ -12933,7 +12940,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" hidden="1">
       <c r="A543" t="s">
         <v>23</v>
       </c>
@@ -12984,7 +12991,7 @@
         <v>1969.3689999999999</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" hidden="1">
       <c r="A546" t="s">
         <v>23</v>
       </c>
@@ -13001,7 +13008,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" hidden="1">
       <c r="A547" t="s">
         <v>23</v>
       </c>
@@ -13018,7 +13025,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" hidden="1">
       <c r="A548" t="s">
         <v>23</v>
       </c>
@@ -13035,7 +13042,7 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" hidden="1">
       <c r="A549" t="s">
         <v>23</v>
       </c>
@@ -13052,7 +13059,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" hidden="1">
       <c r="A550" t="s">
         <v>23</v>
       </c>
@@ -13069,7 +13076,7 @@
         <v>13767.84</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" hidden="1">
       <c r="A551" t="s">
         <v>23</v>
       </c>
@@ -13086,7 +13093,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" hidden="1">
       <c r="A552" t="s">
         <v>23</v>
       </c>
@@ -13103,7 +13110,7 @@
         <v>1333.35</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" hidden="1">
       <c r="A553" t="s">
         <v>23</v>
       </c>
@@ -13120,7 +13127,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" hidden="1">
       <c r="A554" t="s">
         <v>23</v>
       </c>
@@ -13137,7 +13144,7 @@
         <v>216.26</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" hidden="1">
       <c r="A555" t="s">
         <v>23</v>
       </c>
@@ -13154,7 +13161,7 @@
         <v>427.48</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" hidden="1">
       <c r="A556" t="s">
         <v>23</v>
       </c>
@@ -13171,7 +13178,7 @@
         <v>367.31</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" hidden="1">
       <c r="A557" t="s">
         <v>23</v>
       </c>
@@ -13188,7 +13195,7 @@
         <v>26000.29</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" hidden="1">
       <c r="A558" t="s">
         <v>24</v>
       </c>
@@ -13205,7 +13212,7 @@
         <v>34.628</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" hidden="1">
       <c r="A559" t="s">
         <v>24</v>
       </c>
@@ -13222,7 +13229,7 @@
         <v>34.628</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" hidden="1">
       <c r="A560" t="s">
         <v>24</v>
       </c>
@@ -13239,12 +13246,12 @@
         <v>314.55599999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" hidden="1">
       <c r="A561" t="s">
         <v>24</v>
       </c>
       <c r="B561" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C561" t="s">
         <v>9</v>
@@ -13256,7 +13263,7 @@
         <v>16393.726999999999</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" hidden="1">
       <c r="A562" t="s">
         <v>24</v>
       </c>
@@ -13290,7 +13297,7 @@
         <v>198.7</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" hidden="1">
       <c r="A564" t="s">
         <v>24</v>
       </c>
@@ -13307,7 +13314,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" hidden="1">
       <c r="A565" t="s">
         <v>24</v>
       </c>
@@ -13324,7 +13331,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" hidden="1">
       <c r="A566" t="s">
         <v>25</v>
       </c>
@@ -13341,7 +13348,7 @@
         <v>33.389000000000003</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" hidden="1">
       <c r="A567" t="s">
         <v>25</v>
       </c>
@@ -13358,7 +13365,7 @@
         <v>33.389000000000003</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" hidden="1">
       <c r="A568" t="s">
         <v>25</v>
       </c>
@@ -13375,12 +13382,12 @@
         <v>527.471</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" hidden="1">
       <c r="A569" t="s">
         <v>25</v>
       </c>
       <c r="B569" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C569" t="s">
         <v>9</v>
@@ -13409,7 +13416,7 @@
         <v>743.57</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" hidden="1">
       <c r="A571" t="s">
         <v>25</v>
       </c>
@@ -13426,7 +13433,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" hidden="1">
       <c r="A572" t="s">
         <v>25</v>
       </c>
@@ -13443,7 +13450,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" hidden="1">
       <c r="A573" t="s">
         <v>25</v>
       </c>
@@ -13460,7 +13467,7 @@
         <v>7650.1</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" hidden="1">
       <c r="A574" t="s">
         <v>25</v>
       </c>
@@ -13477,7 +13484,7 @@
         <v>667.77200000000005</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" hidden="1">
       <c r="A575" t="s">
         <v>26</v>
       </c>
@@ -13494,7 +13501,7 @@
         <v>485.16899999999998</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" hidden="1">
       <c r="A576" t="s">
         <v>26</v>
       </c>
@@ -13511,7 +13518,7 @@
         <v>485.16899999999998</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" hidden="1">
       <c r="A577" t="s">
         <v>26</v>
       </c>
@@ -13528,12 +13535,12 @@
         <v>1613.9580000000001</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" hidden="1">
       <c r="A578" t="s">
         <v>26</v>
       </c>
       <c r="B578" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C578" t="s">
         <v>9</v>
@@ -13562,7 +13569,7 @@
         <v>2554.0549999999998</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" hidden="1">
       <c r="A580" t="s">
         <v>26</v>
       </c>
@@ -13579,7 +13586,7 @@
         <v>5893</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" hidden="1">
       <c r="A581" t="s">
         <v>26</v>
       </c>
@@ -13596,7 +13603,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" hidden="1">
       <c r="A582" t="s">
         <v>26</v>
       </c>
@@ -13613,7 +13620,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" hidden="1">
       <c r="A583" t="s">
         <v>26</v>
       </c>
@@ -13630,7 +13637,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" hidden="1">
       <c r="A584" t="s">
         <v>26</v>
       </c>
@@ -13647,7 +13654,7 @@
         <v>9703.384</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" hidden="1">
       <c r="A585" t="s">
         <v>27</v>
       </c>
@@ -13664,7 +13671,7 @@
         <v>211.619</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" hidden="1">
       <c r="A586" t="s">
         <v>27</v>
       </c>
@@ -13681,7 +13688,7 @@
         <v>211.619</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" hidden="1">
       <c r="A587" t="s">
         <v>27</v>
       </c>
@@ -13698,12 +13705,12 @@
         <v>839.96300000000008</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" hidden="1">
       <c r="A588" t="s">
         <v>27</v>
       </c>
       <c r="B588" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C588" t="s">
         <v>9</v>
@@ -13732,7 +13739,7 @@
         <v>698.09</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" hidden="1">
       <c r="A590" t="s">
         <v>27</v>
       </c>
@@ -13749,7 +13756,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" hidden="1">
       <c r="A591" t="s">
         <v>27</v>
       </c>
@@ -13766,7 +13773,7 @@
         <v>2222.9389999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" hidden="1">
       <c r="A592" t="s">
         <v>27</v>
       </c>
@@ -13783,7 +13790,7 @@
         <v>237.1</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" hidden="1">
       <c r="A593" t="s">
         <v>27</v>
       </c>
@@ -13800,7 +13807,7 @@
         <v>4232.3779999999997</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" hidden="1">
       <c r="A594" t="s">
         <v>28</v>
       </c>
@@ -13817,7 +13824,7 @@
         <v>26054.291000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" hidden="1">
       <c r="A595" t="s">
         <v>28</v>
       </c>
@@ -13834,7 +13841,7 @@
         <v>26054.291000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" hidden="1">
       <c r="A596" t="s">
         <v>28</v>
       </c>
@@ -13851,12 +13858,12 @@
         <v>36111.913999999997</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" hidden="1">
       <c r="A597" t="s">
         <v>28</v>
       </c>
       <c r="B597" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C597" t="s">
         <v>9</v>
@@ -13868,7 +13875,7 @@
         <v>25157.843000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" hidden="1">
       <c r="A598" t="s">
         <v>28</v>
       </c>
@@ -13885,7 +13892,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" hidden="1">
       <c r="A599" t="s">
         <v>28</v>
       </c>
@@ -13902,7 +13909,7 @@
         <v>1029.999</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" hidden="1">
       <c r="A600" t="s">
         <v>28</v>
       </c>
@@ -13919,7 +13926,7 @@
         <v>539.00099999999998</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" hidden="1">
       <c r="A601" t="s">
         <v>28</v>
       </c>
@@ -13936,7 +13943,7 @@
         <v>5983.1009999999997</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" hidden="1">
       <c r="A602" t="s">
         <v>28</v>
       </c>
@@ -13953,7 +13960,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" hidden="1">
       <c r="A603" t="s">
         <v>28</v>
       </c>
@@ -13970,7 +13977,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" hidden="1">
       <c r="A604" t="s">
         <v>28</v>
       </c>
@@ -13987,7 +13994,7 @@
         <v>536.02200000000005</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" hidden="1">
       <c r="A605" t="s">
         <v>28</v>
       </c>
@@ -14038,7 +14045,7 @@
         <v>8155.7269999999999</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" hidden="1">
       <c r="A608" t="s">
         <v>28</v>
       </c>
@@ -14055,7 +14062,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" hidden="1">
       <c r="A609" t="s">
         <v>28</v>
       </c>
@@ -14072,7 +14079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" hidden="1">
       <c r="A610" t="s">
         <v>28</v>
       </c>
@@ -14089,7 +14096,7 @@
         <v>13236</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" hidden="1">
       <c r="A611" t="s">
         <v>28</v>
       </c>
@@ -14106,7 +14113,7 @@
         <v>96157.57</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" hidden="1">
       <c r="A612" t="s">
         <v>28</v>
       </c>
@@ -14123,7 +14130,7 @@
         <v>45453.082999999999</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" hidden="1">
       <c r="A613" t="s">
         <v>28</v>
       </c>
@@ -14140,7 +14147,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" hidden="1">
       <c r="A614" t="s">
         <v>28</v>
       </c>
@@ -14157,7 +14164,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" hidden="1">
       <c r="A615" t="s">
         <v>28</v>
       </c>
@@ -14174,7 +14181,7 @@
         <v>2385.6030000000001</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" hidden="1">
       <c r="A616" t="s">
         <v>28</v>
       </c>
@@ -14275,7 +14282,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -14649,7 +14656,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -15019,10 +15026,10 @@
         <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>89</v>
@@ -15051,13 +15058,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
         <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -15086,7 +15093,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
         <v>249</v>
@@ -15261,10 +15268,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -15296,10 +15303,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -16620,13 +16627,13 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B47" t="s">
         <v>249</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -16655,7 +16662,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B48" t="s">
         <v>249</v>
@@ -16830,10 +16837,10 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -16865,10 +16872,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -19081,10 +19088,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>59</v>
@@ -19122,7 +19129,7 @@
         <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2">
         <v>2030</v>
@@ -19332,7 +19339,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -19367,7 +19374,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -20747,7 +20754,7 @@
         <v>249</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C48">
         <v>2040</v>
@@ -20957,7 +20964,7 @@
     </row>
     <row r="54" spans="1:12" hidden="1">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -20992,7 +20999,7 @@
     </row>
     <row r="55" spans="1:12" hidden="1">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>

--- a/src_files/data_files/TYNDP-2024_National_Trends.xlsx
+++ b/src_files/data_files/TYNDP-2024_National_Trends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehjeric\git_backbone\balticseah2\backbone_250414\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA0696F-3EBF-4E06-9F17-9DA1D07A7E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF571A-DBF3-41B8-86D0-5D9E3BDCD9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="9" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="259">
   <si>
     <t>Country</t>
   </si>
@@ -987,6 +987,9 @@
   </si>
   <si>
     <t>Constant_share</t>
+  </si>
+  <si>
+    <t>NOS0-UK00</t>
   </si>
 </sst>
 </file>
@@ -1781,8 +1784,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B440C99F-3BB1-4A8C-9867-FC60A58307DE}" name="Table6" displayName="Table6" ref="A1:K91" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:K91" xr:uid="{B440C99F-3BB1-4A8C-9867-FC60A58307DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B440C99F-3BB1-4A8C-9867-FC60A58307DE}" name="Table6" displayName="Table6" ref="A1:K93" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:K93" xr:uid="{B440C99F-3BB1-4A8C-9867-FC60A58307DE}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{02926FC6-CA21-44BB-975F-A929C6C412D4}" name="from-to"/>
     <tableColumn id="2" xr3:uid="{9A1A3B49-8442-4D63-8194-9CB505844700}" name="from"/>
@@ -3096,7 +3099,7 @@
   </sheetPr>
   <dimension ref="A1:H616"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
+    <sheetView topLeftCell="A110" workbookViewId="0">
       <selection activeCell="M380" sqref="M380"/>
     </sheetView>
   </sheetViews>
@@ -14406,10 +14409,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15886,13 +15889,13 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -15904,13 +15907,13 @@
         <v>2030</v>
       </c>
       <c r="G43">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="H43">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="I43">
-        <v>8.3330000000000001E-3</v>
+        <v>2.7680000000000001E-3</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -15921,13 +15924,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -15939,13 +15942,13 @@
         <v>2030</v>
       </c>
       <c r="G44">
-        <v>3300</v>
+        <v>600</v>
       </c>
       <c r="H44">
-        <v>3300</v>
+        <v>600</v>
       </c>
       <c r="I44">
-        <v>2.1359999999999999E-3</v>
+        <v>8.3330000000000001E-3</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -15956,13 +15959,13 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
         <v>24</v>
-      </c>
-      <c r="C45" t="s">
-        <v>25</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -15974,13 +15977,13 @@
         <v>2030</v>
       </c>
       <c r="G45">
-        <v>7300</v>
+        <v>3300</v>
       </c>
       <c r="H45">
-        <v>7300</v>
+        <v>3300</v>
       </c>
       <c r="I45">
-        <v>1.8680000000000001E-3</v>
+        <v>2.1359999999999999E-3</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -15991,13 +15994,13 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
         <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -16009,13 +16012,13 @@
         <v>2030</v>
       </c>
       <c r="G46">
-        <v>6200</v>
+        <v>7300</v>
       </c>
       <c r="H46">
-        <v>2800</v>
+        <v>7300</v>
       </c>
       <c r="I46">
-        <v>2.679E-3</v>
+        <v>1.8680000000000001E-3</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -16026,13 +16029,13 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -16041,16 +16044,16 @@
         <v>8</v>
       </c>
       <c r="F47">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="G47">
-        <v>1200</v>
+        <v>6200</v>
       </c>
       <c r="H47">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="I47">
-        <v>8.7790000000000003E-3</v>
+        <v>2.679E-3</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -16061,13 +16064,13 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
         <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -16079,13 +16082,13 @@
         <v>2040</v>
       </c>
       <c r="G48">
-        <v>7500</v>
+        <v>1200</v>
       </c>
       <c r="H48">
-        <v>7500</v>
+        <v>1200</v>
       </c>
       <c r="I48">
-        <v>2.134E-3</v>
+        <v>8.7790000000000003E-3</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -16096,10 +16099,10 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -16114,13 +16117,13 @@
         <v>2040</v>
       </c>
       <c r="G49">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="H49">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="I49">
-        <v>9.5930000000000008E-3</v>
+        <v>2.134E-3</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -16131,13 +16134,13 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -16149,13 +16152,13 @@
         <v>2040</v>
       </c>
       <c r="G50">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="H50">
-        <v>5300</v>
+        <v>1000</v>
       </c>
       <c r="I50">
-        <v>4.0200000000000001E-3</v>
+        <v>9.5930000000000008E-3</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -16166,13 +16169,13 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -16184,13 +16187,13 @@
         <v>2040</v>
       </c>
       <c r="G51">
-        <v>5400</v>
+        <v>3800</v>
       </c>
       <c r="H51">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="I51">
-        <v>4.6319999999999998E-3</v>
+        <v>4.0200000000000001E-3</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -16201,13 +16204,13 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -16219,13 +16222,13 @@
         <v>2040</v>
       </c>
       <c r="G52">
-        <v>4800</v>
+        <v>5400</v>
       </c>
       <c r="H52">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="I52">
-        <v>8.4419999999999999E-3</v>
+        <v>4.6319999999999998E-3</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -16236,13 +16239,13 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -16254,13 +16257,13 @@
         <v>2040</v>
       </c>
       <c r="G53">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="H53">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="I53">
-        <v>5.7710000000000001E-3</v>
+        <v>8.4419999999999999E-3</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -16271,13 +16274,13 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s">
         <v>246</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -16289,13 +16292,13 @@
         <v>2040</v>
       </c>
       <c r="G54">
-        <v>2200</v>
+        <v>4500</v>
       </c>
       <c r="H54">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="I54">
-        <v>7.3699999999999998E-3</v>
+        <v>5.7710000000000001E-3</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -16306,13 +16309,13 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -16327,10 +16330,10 @@
         <v>2200</v>
       </c>
       <c r="H55">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="I55">
-        <v>5.143E-3</v>
+        <v>7.3699999999999998E-3</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -16341,13 +16344,13 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -16359,13 +16362,13 @@
         <v>2040</v>
       </c>
       <c r="G56">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="H56">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="I56">
-        <v>4.2859999999999999E-3</v>
+        <v>5.143E-3</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -16376,13 +16379,13 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -16394,13 +16397,13 @@
         <v>2040</v>
       </c>
       <c r="G57">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="H57">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="I57">
-        <v>4.2189999999999997E-3</v>
+        <v>4.2859999999999999E-3</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -16411,13 +16414,13 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -16429,13 +16432,13 @@
         <v>2040</v>
       </c>
       <c r="G58">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H58">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="I58">
-        <v>2.7590000000000002E-3</v>
+        <v>4.2189999999999997E-3</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -16446,13 +16449,13 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -16464,13 +16467,13 @@
         <v>2040</v>
       </c>
       <c r="G59">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="H59">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="I59">
-        <v>3.571E-3</v>
+        <v>2.7590000000000002E-3</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -16481,13 +16484,13 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -16499,13 +16502,13 @@
         <v>2040</v>
       </c>
       <c r="G60">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="H60">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="I60">
-        <v>3.388E-3</v>
+        <v>3.571E-3</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -16516,13 +16519,13 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -16534,13 +16537,13 @@
         <v>2040</v>
       </c>
       <c r="G61">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="H61">
-        <v>2015</v>
+        <v>3000</v>
       </c>
       <c r="I61">
-        <v>8.1300000000000001E-3</v>
+        <v>3.388E-3</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -16551,13 +16554,13 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -16569,13 +16572,13 @@
         <v>2040</v>
       </c>
       <c r="G62">
-        <v>2800</v>
+        <v>2015</v>
       </c>
       <c r="H62">
-        <v>2800</v>
+        <v>2015</v>
       </c>
       <c r="I62">
-        <v>4.7959999999999999E-3</v>
+        <v>8.1300000000000001E-3</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -16586,13 +16589,13 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -16604,13 +16607,13 @@
         <v>2040</v>
       </c>
       <c r="G63">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="H63">
-        <v>590</v>
+        <v>2800</v>
       </c>
       <c r="I63">
-        <v>8.4030000000000007E-3</v>
+        <v>4.7959999999999999E-3</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -16621,13 +16624,13 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -16639,13 +16642,13 @@
         <v>2040</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="I64">
-        <v>4.7959999999999999E-3</v>
+        <v>8.4030000000000007E-3</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -16656,13 +16659,13 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -16674,13 +16677,13 @@
         <v>2040</v>
       </c>
       <c r="G65">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>5.5469999999999998E-3</v>
+        <v>4.7959999999999999E-3</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -16691,13 +16694,13 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -16709,13 +16712,13 @@
         <v>2040</v>
       </c>
       <c r="G66">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="H66">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="I66">
-        <v>4.7959999999999999E-3</v>
+        <v>5.5469999999999998E-3</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -16726,13 +16729,13 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -16744,13 +16747,13 @@
         <v>2040</v>
       </c>
       <c r="G67">
-        <v>1632</v>
+        <v>700</v>
       </c>
       <c r="H67">
-        <v>1632</v>
+        <v>700</v>
       </c>
       <c r="I67">
-        <v>2.3080000000000002E-3</v>
+        <v>4.7959999999999999E-3</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -16761,13 +16764,13 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -16779,13 +16782,13 @@
         <v>2040</v>
       </c>
       <c r="G68">
-        <v>715</v>
+        <v>1632</v>
       </c>
       <c r="H68">
-        <v>715</v>
+        <v>1632</v>
       </c>
       <c r="I68">
-        <v>6.8729999999999998E-3</v>
+        <v>2.3080000000000002E-3</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -16796,13 +16799,13 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -16814,13 +16817,13 @@
         <v>2040</v>
       </c>
       <c r="G69">
-        <v>2800</v>
+        <v>715</v>
       </c>
       <c r="H69">
-        <v>2800</v>
+        <v>715</v>
       </c>
       <c r="I69">
-        <v>4.7959999999999999E-3</v>
+        <v>6.8729999999999998E-3</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -16831,13 +16834,13 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -16849,13 +16852,13 @@
         <v>2040</v>
       </c>
       <c r="G70">
-        <v>1716</v>
+        <v>2800</v>
       </c>
       <c r="H70">
-        <v>1716</v>
+        <v>2800</v>
       </c>
       <c r="I70">
-        <v>3.2859999999999999E-3</v>
+        <v>4.7959999999999999E-3</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -16866,13 +16869,13 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -16884,13 +16887,13 @@
         <v>2040</v>
       </c>
       <c r="G71">
-        <v>1950</v>
+        <v>1716</v>
       </c>
       <c r="H71">
-        <v>1879</v>
+        <v>1716</v>
       </c>
       <c r="I71">
-        <v>3.3059999999999999E-3</v>
+        <v>3.2859999999999999E-3</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -16901,13 +16904,13 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -16919,13 +16922,13 @@
         <v>2040</v>
       </c>
       <c r="G72">
-        <v>6500</v>
+        <v>1950</v>
       </c>
       <c r="H72">
-        <v>6500</v>
+        <v>1879</v>
       </c>
       <c r="I72">
-        <v>4.627E-3</v>
+        <v>3.3059999999999999E-3</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -16936,13 +16939,13 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -16954,13 +16957,13 @@
         <v>2040</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="I73">
-        <v>4.7959999999999999E-3</v>
+        <v>4.627E-3</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -16971,13 +16974,13 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -16989,13 +16992,13 @@
         <v>2040</v>
       </c>
       <c r="G74">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2.9039999999999999E-3</v>
+        <v>4.7959999999999999E-3</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -17006,13 +17009,13 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -17024,13 +17027,13 @@
         <v>2040</v>
       </c>
       <c r="G75">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="H75">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="I75">
-        <v>4.1539999999999997E-3</v>
+        <v>2.9039999999999999E-3</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -17041,13 +17044,13 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -17059,13 +17062,13 @@
         <v>2040</v>
       </c>
       <c r="G76">
-        <v>8725</v>
+        <v>1200</v>
       </c>
       <c r="H76">
-        <v>8725</v>
+        <v>1200</v>
       </c>
       <c r="I76">
-        <v>4.3889999999999997E-3</v>
+        <v>4.1539999999999997E-3</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -17076,13 +17079,13 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -17094,13 +17097,13 @@
         <v>2040</v>
       </c>
       <c r="G77">
-        <v>950</v>
+        <v>8725</v>
       </c>
       <c r="H77">
-        <v>950</v>
+        <v>8725</v>
       </c>
       <c r="I77">
-        <v>3.3210000000000002E-3</v>
+        <v>4.3889999999999997E-3</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -17111,13 +17114,13 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -17129,13 +17132,13 @@
         <v>2040</v>
       </c>
       <c r="G78">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="H78">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="I78">
-        <v>8.796E-3</v>
+        <v>3.3210000000000002E-3</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -17146,13 +17149,13 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -17170,7 +17173,7 @@
         <v>700</v>
       </c>
       <c r="I79">
-        <v>4.8089999999999999E-3</v>
+        <v>8.796E-3</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -17181,13 +17184,13 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -17205,7 +17208,7 @@
         <v>700</v>
       </c>
       <c r="I80">
-        <v>3.813E-3</v>
+        <v>4.8089999999999999E-3</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -17216,13 +17219,13 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -17234,13 +17237,13 @@
         <v>2040</v>
       </c>
       <c r="G81">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="H81">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="I81">
-        <v>9.7680000000000006E-3</v>
+        <v>3.813E-3</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -17251,13 +17254,13 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -17269,13 +17272,13 @@
         <v>2040</v>
       </c>
       <c r="G82">
-        <v>350</v>
+        <v>2800</v>
       </c>
       <c r="H82">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="I82">
-        <v>2.5279999999999999E-3</v>
+        <v>9.7680000000000006E-3</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -17286,13 +17289,13 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -17304,13 +17307,13 @@
         <v>2040</v>
       </c>
       <c r="G83">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="H83">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="I83">
-        <v>1.603E-3</v>
+        <v>2.5279999999999999E-3</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -17321,13 +17324,13 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -17339,13 +17342,13 @@
         <v>2040</v>
       </c>
       <c r="G84">
+        <v>800</v>
+      </c>
+      <c r="H84">
         <v>600</v>
       </c>
-      <c r="H84">
-        <v>1000</v>
-      </c>
       <c r="I84">
-        <v>3.9880000000000002E-3</v>
+        <v>1.603E-3</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -17356,13 +17359,13 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -17374,13 +17377,13 @@
         <v>2040</v>
       </c>
       <c r="G85">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H85">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="I85">
-        <v>4.3309999999999998E-3</v>
+        <v>3.9880000000000002E-3</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -17391,13 +17394,13 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -17409,13 +17412,13 @@
         <v>2040</v>
       </c>
       <c r="G86">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="H86">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I86">
-        <v>3.2550000000000001E-3</v>
+        <v>4.3309999999999998E-3</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -17426,13 +17429,13 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -17444,13 +17447,13 @@
         <v>2040</v>
       </c>
       <c r="G87">
-        <v>2145</v>
+        <v>250</v>
       </c>
       <c r="H87">
-        <v>2095</v>
+        <v>300</v>
       </c>
       <c r="I87">
-        <v>4.248E-3</v>
+        <v>3.2550000000000001E-3</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -17461,13 +17464,13 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -17479,13 +17482,13 @@
         <v>2040</v>
       </c>
       <c r="G88">
-        <v>600</v>
+        <v>2145</v>
       </c>
       <c r="H88">
-        <v>600</v>
+        <v>2095</v>
       </c>
       <c r="I88">
-        <v>8.3330000000000001E-3</v>
+        <v>4.248E-3</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -17496,13 +17499,13 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -17514,13 +17517,13 @@
         <v>2040</v>
       </c>
       <c r="G89">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="H89">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="I89">
-        <v>2.1359999999999999E-3</v>
+        <v>2.7680000000000001E-3</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -17531,13 +17534,13 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -17549,13 +17552,13 @@
         <v>2040</v>
       </c>
       <c r="G90">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="H90">
-        <v>7300</v>
+        <v>600</v>
       </c>
       <c r="I90">
-        <v>1.8680000000000001E-3</v>
+        <v>8.3330000000000001E-3</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -17566,13 +17569,13 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -17584,18 +17587,88 @@
         <v>2040</v>
       </c>
       <c r="G91">
-        <v>6200</v>
+        <v>3300</v>
       </c>
       <c r="H91">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="I91">
-        <v>2.679E-3</v>
+        <v>2.1359999999999999E-3</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>2040</v>
+      </c>
+      <c r="G92">
+        <v>7300</v>
+      </c>
+      <c r="H92">
+        <v>7300</v>
+      </c>
+      <c r="I92">
+        <v>1.8680000000000001E-3</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>2040</v>
+      </c>
+      <c r="G93">
+        <v>6200</v>
+      </c>
+      <c r="H93">
+        <v>2800</v>
+      </c>
+      <c r="I93">
+        <v>2.679E-3</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
         <v>0.01</v>
       </c>
     </row>
@@ -17614,8 +17687,8 @@
   </sheetPr>
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17946,7 +18019,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18422,7 +18495,7 @@
   </sheetPr>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/src_files/data_files/TYNDP-2024_National_Trends.xlsx
+++ b/src_files/data_files/TYNDP-2024_National_Trends.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehjeric\git_backbone\balticseah2\backbone_250414\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF571A-DBF3-41B8-86D0-5D9E3BDCD9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85714FB-65FE-40E7-A711-EC2F57CDFBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="9" r:id="rId1"/>
@@ -347,12 +347,6 @@
     <t>rampLimit</t>
   </si>
   <si>
-    <t>vomCost</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
     <t>BE00-DE00</t>
   </si>
   <si>
@@ -990,6 +984,12 @@
   </si>
   <si>
     <t>NOS0-UK00</t>
+  </si>
+  <si>
+    <t>variableTransCost</t>
+  </si>
+  <si>
+    <t>transferLoss</t>
   </si>
 </sst>
 </file>
@@ -1796,8 +1796,8 @@
     <tableColumn id="7" xr3:uid="{F818D0F2-31A7-430C-8940-4C3E0C60C88F}" name="export_capacity"/>
     <tableColumn id="8" xr3:uid="{9B30C3ED-0512-4857-96AA-0DDEB6B35219}" name="import_capacity"/>
     <tableColumn id="9" xr3:uid="{F4413E73-DF9F-4889-9082-448E7A02F911}" name="rampLimit"/>
-    <tableColumn id="10" xr3:uid="{5B872384-D14F-4D48-BD0C-07428EA9AF6F}" name="vomCost"/>
-    <tableColumn id="11" xr3:uid="{6CE473AD-575B-4901-A6C2-8E2B0F47EFFA}" name="losses"/>
+    <tableColumn id="13" xr3:uid="{5D4B04B1-8EAF-412A-9D58-410600F7A9D1}" name="variableTransCost"/>
+    <tableColumn id="14" xr3:uid="{CAF09869-3C7E-4DAB-8296-4BA232549400}" name="transferLoss"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2152,21 +2152,21 @@
   <sheetData>
     <row r="1" spans="1:6" ht="180">
       <c r="A1" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75">
       <c r="A3" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
@@ -2176,10 +2176,10 @@
     <row r="4" spans="1:6" ht="30.75" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2188,10 +2188,10 @@
     <row r="5" spans="1:6">
       <c r="A5" s="14"/>
       <c r="B5" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -2200,10 +2200,10 @@
     <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2212,10 +2212,10 @@
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="14"/>
       <c r="B7" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -2224,10 +2224,10 @@
     <row r="8" spans="1:6" ht="45">
       <c r="A8" s="14"/>
       <c r="B8" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -2236,10 +2236,10 @@
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="14"/>
       <c r="B9" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -2248,10 +2248,10 @@
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="14"/>
       <c r="B10" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="A12" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="14" spans="1:6" ht="45">
       <c r="A14" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="17" spans="1:6" ht="30">
       <c r="A17" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -2338,13 +2338,13 @@
         <v>28</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="75">
@@ -2355,13 +2355,13 @@
         <v>28</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
@@ -2369,16 +2369,16 @@
         <v>3</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C20" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>181</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2390,31 +2390,31 @@
     </row>
     <row r="24" spans="1:6" ht="60">
       <c r="A24" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2445,10 @@
         <v>90</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>58</v>
@@ -2460,7 +2460,7 @@
         <v>89</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2472,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>2030</v>
@@ -2484,7 +2484,7 @@
         <v>1400</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2496,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3">
         <v>2030</v>
@@ -2508,7 +2508,7 @@
         <v>400</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2517,7 +2517,7 @@
         <v>DKBH-DKE1</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -2532,7 +2532,7 @@
         <v>1200</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2544,7 +2544,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -2556,7 +2556,7 @@
         <v>600</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2568,7 +2568,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6">
         <v>2030</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2592,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7">
         <v>2030</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2616,7 +2616,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8">
         <v>2030</v>
@@ -2628,7 +2628,7 @@
         <v>2000</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2640,7 +2640,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D9">
         <v>2030</v>
@@ -2652,7 +2652,7 @@
         <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2664,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10">
         <v>2030</v>
@@ -2676,7 +2676,7 @@
         <v>400</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2688,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11">
         <v>2030</v>
@@ -2700,7 +2700,7 @@
         <v>600</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2712,7 +2712,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2733,7 +2733,7 @@
         <v>PL00I-PL00</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2760,7 +2760,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14">
         <v>2030</v>
@@ -2772,7 +2772,7 @@
         <v>400</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2784,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15">
         <v>2040</v>
@@ -2796,7 +2796,7 @@
         <v>3400</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2808,7 +2808,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D16">
         <v>2040</v>
@@ -2820,7 +2820,7 @@
         <v>400</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2829,7 +2829,7 @@
         <v>DKBH-DKE1</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -2844,7 +2844,7 @@
         <v>1200</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2856,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D18">
         <v>2040</v>
@@ -2868,7 +2868,7 @@
         <v>600</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2880,7 +2880,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19">
         <v>2040</v>
@@ -2892,7 +2892,7 @@
         <v>3315.6529999999998</v>
       </c>
       <c r="G19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2904,7 +2904,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D20">
         <v>2040</v>
@@ -2916,7 +2916,7 @@
         <v>1330</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2928,7 +2928,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D21">
         <v>2040</v>
@@ -2940,7 +2940,7 @@
         <v>2000</v>
       </c>
       <c r="G21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2952,7 +2952,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D22">
         <v>2040</v>
@@ -2964,7 +2964,7 @@
         <v>1100</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2976,7 +2976,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23">
         <v>2040</v>
@@ -2988,7 +2988,7 @@
         <v>400</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3000,7 +3000,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24">
         <v>2040</v>
@@ -3012,7 +3012,7 @@
         <v>600</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3024,7 +3024,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25">
         <v>2040</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3045,7 +3045,7 @@
         <v>PL00I-PL00</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3072,7 +3072,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D27">
         <v>2040</v>
@@ -3084,7 +3084,7 @@
         <v>400</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="2" spans="1:8" hidden="1">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="3" spans="1:8" hidden="1">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -3181,10 +3181,10 @@
     </row>
     <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3198,10 +3198,10 @@
     </row>
     <row r="5" spans="1:8" hidden="1">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="6" spans="1:8" hidden="1">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="8" spans="1:8" hidden="1">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="9" spans="1:8" hidden="1">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="10" spans="1:8" hidden="1">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="11" spans="1:8" hidden="1">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="12" spans="1:8" hidden="1">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="13" spans="1:8" hidden="1">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="14" spans="1:8" hidden="1">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="17" spans="1:5" hidden="1">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
@@ -3419,10 +3419,10 @@
     </row>
     <row r="18" spans="1:5" hidden="1">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="19" spans="1:5" hidden="1">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="20" spans="1:5" hidden="1">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="21" spans="1:5" hidden="1">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="22" spans="1:5" hidden="1">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="23" spans="1:5" hidden="1">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
@@ -3538,10 +3538,10 @@
     </row>
     <row r="25" spans="1:5" hidden="1">
       <c r="A25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -3558,7 +3558,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -3575,7 +3575,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -3592,7 +3592,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -3609,7 +3609,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -3694,7 +3694,7 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -3728,7 +3728,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -3745,7 +3745,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -3779,7 +3779,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -3796,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -3813,7 +3813,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
@@ -3830,7 +3830,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -3864,7 +3864,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -3878,10 +3878,10 @@
     </row>
     <row r="45" spans="1:5" hidden="1">
       <c r="A45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="46" spans="1:5" hidden="1">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -3912,10 +3912,10 @@
     </row>
     <row r="47" spans="1:5" hidden="1">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -3929,10 +3929,10 @@
     </row>
     <row r="48" spans="1:5" hidden="1">
       <c r="A48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -3963,10 +3963,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
@@ -4014,10 +4014,10 @@
     </row>
     <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -4065,10 +4065,10 @@
     </row>
     <row r="56" spans="1:5" hidden="1">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B57" t="s">
         <v>47</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -4136,7 +4136,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
@@ -4153,7 +4153,7 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -4170,7 +4170,7 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
@@ -4187,7 +4187,7 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -4374,7 +4374,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
@@ -4391,7 +4391,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -4425,7 +4425,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -4442,7 +4442,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -4459,7 +4459,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -4476,7 +4476,7 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -4493,7 +4493,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -4510,7 +4510,7 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -4561,7 +4561,7 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
@@ -4578,7 +4578,7 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -4595,7 +4595,7 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -4629,7 +4629,7 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -4680,7 +4680,7 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -4731,7 +4731,7 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -4748,7 +4748,7 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -4765,7 +4765,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -4782,7 +4782,7 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -4799,7 +4799,7 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -4816,7 +4816,7 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -4833,7 +4833,7 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -4884,7 +4884,7 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
@@ -4969,7 +4969,7 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
@@ -4986,7 +4986,7 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -5020,7 +5020,7 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -5037,7 +5037,7 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
@@ -5054,7 +5054,7 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -5071,7 +5071,7 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
@@ -5105,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
@@ -5122,7 +5122,7 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -5139,7 +5139,7 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -5173,7 +5173,7 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
@@ -5190,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
@@ -5207,7 +5207,7 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -5224,7 +5224,7 @@
         <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -5241,7 +5241,7 @@
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
@@ -5258,7 +5258,7 @@
         <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
@@ -5292,7 +5292,7 @@
         <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
@@ -5309,7 +5309,7 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
@@ -5343,7 +5343,7 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
@@ -5360,7 +5360,7 @@
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
@@ -5377,7 +5377,7 @@
         <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
@@ -5394,7 +5394,7 @@
         <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
@@ -5411,7 +5411,7 @@
         <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
@@ -5428,7 +5428,7 @@
         <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
@@ -5479,7 +5479,7 @@
         <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
@@ -5496,7 +5496,7 @@
         <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -5513,7 +5513,7 @@
         <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -5530,7 +5530,7 @@
         <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
@@ -5547,7 +5547,7 @@
         <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
@@ -5564,7 +5564,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
@@ -5666,7 +5666,7 @@
         <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -5683,7 +5683,7 @@
         <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
@@ -5700,7 +5700,7 @@
         <v>14</v>
       </c>
       <c r="B152" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -5734,7 +5734,7 @@
         <v>14</v>
       </c>
       <c r="B154" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
@@ -5751,7 +5751,7 @@
         <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
@@ -5785,7 +5785,7 @@
         <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
@@ -5802,7 +5802,7 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
@@ -5819,7 +5819,7 @@
         <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -5836,7 +5836,7 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
@@ -5853,7 +5853,7 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -5955,7 +5955,7 @@
         <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
@@ -5972,7 +5972,7 @@
         <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C168" t="s">
         <v>8</v>
@@ -6023,7 +6023,7 @@
         <v>15</v>
       </c>
       <c r="B171" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C171" t="s">
         <v>8</v>
@@ -6040,7 +6040,7 @@
         <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C172" t="s">
         <v>8</v>
@@ -6057,7 +6057,7 @@
         <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C173" t="s">
         <v>8</v>
@@ -6074,7 +6074,7 @@
         <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
@@ -6091,7 +6091,7 @@
         <v>15</v>
       </c>
       <c r="B175" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C175" t="s">
         <v>8</v>
@@ -6108,7 +6108,7 @@
         <v>15</v>
       </c>
       <c r="B176" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C176" t="s">
         <v>8</v>
@@ -6159,7 +6159,7 @@
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C179" t="s">
         <v>8</v>
@@ -6176,7 +6176,7 @@
         <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
         <v>8</v>
@@ -6193,7 +6193,7 @@
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
         <v>8</v>
@@ -6210,7 +6210,7 @@
         <v>16</v>
       </c>
       <c r="B182" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
         <v>8</v>
@@ -6227,7 +6227,7 @@
         <v>16</v>
       </c>
       <c r="B183" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C183" t="s">
         <v>8</v>
@@ -6295,7 +6295,7 @@
         <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
         <v>8</v>
@@ -6312,7 +6312,7 @@
         <v>16</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
         <v>8</v>
@@ -6329,7 +6329,7 @@
         <v>16</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
         <v>8</v>
@@ -6346,7 +6346,7 @@
         <v>16</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
         <v>8</v>
@@ -6363,7 +6363,7 @@
         <v>16</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
         <v>8</v>
@@ -6380,7 +6380,7 @@
         <v>16</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C192" t="s">
         <v>8</v>
@@ -6414,7 +6414,7 @@
         <v>16</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s">
         <v>8</v>
@@ -6431,7 +6431,7 @@
         <v>17</v>
       </c>
       <c r="B195" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C195" t="s">
         <v>8</v>
@@ -6448,7 +6448,7 @@
         <v>17</v>
       </c>
       <c r="B196" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C196" t="s">
         <v>8</v>
@@ -6465,7 +6465,7 @@
         <v>17</v>
       </c>
       <c r="B197" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C197" t="s">
         <v>8</v>
@@ -6516,7 +6516,7 @@
         <v>17</v>
       </c>
       <c r="B200" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C200" t="s">
         <v>8</v>
@@ -6533,7 +6533,7 @@
         <v>17</v>
       </c>
       <c r="B201" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C201" t="s">
         <v>8</v>
@@ -6550,7 +6550,7 @@
         <v>17</v>
       </c>
       <c r="B202" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C202" t="s">
         <v>8</v>
@@ -6584,7 +6584,7 @@
         <v>17</v>
       </c>
       <c r="B204" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C204" t="s">
         <v>8</v>
@@ -6601,7 +6601,7 @@
         <v>17</v>
       </c>
       <c r="B205" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C205" t="s">
         <v>8</v>
@@ -6618,7 +6618,7 @@
         <v>18</v>
       </c>
       <c r="B206" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C206" t="s">
         <v>8</v>
@@ -6635,7 +6635,7 @@
         <v>18</v>
       </c>
       <c r="B207" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C207" t="s">
         <v>8</v>
@@ -6652,7 +6652,7 @@
         <v>18</v>
       </c>
       <c r="B208" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C208" t="s">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         <v>18</v>
       </c>
       <c r="B209" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
@@ -6771,7 +6771,7 @@
         <v>18</v>
       </c>
       <c r="B215" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C215" t="s">
         <v>8</v>
@@ -6788,7 +6788,7 @@
         <v>18</v>
       </c>
       <c r="B216" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C216" t="s">
         <v>8</v>
@@ -6822,7 +6822,7 @@
         <v>18</v>
       </c>
       <c r="B218" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C218" t="s">
         <v>8</v>
@@ -6839,7 +6839,7 @@
         <v>18</v>
       </c>
       <c r="B219" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C219" t="s">
         <v>8</v>
@@ -6873,7 +6873,7 @@
         <v>18</v>
       </c>
       <c r="B221" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C221" t="s">
         <v>8</v>
@@ -6890,7 +6890,7 @@
         <v>19</v>
       </c>
       <c r="B222" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C222" t="s">
         <v>8</v>
@@ -6907,7 +6907,7 @@
         <v>19</v>
       </c>
       <c r="B223" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C223" t="s">
         <v>8</v>
@@ -6924,7 +6924,7 @@
         <v>19</v>
       </c>
       <c r="B224" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C224" t="s">
         <v>8</v>
@@ -6941,7 +6941,7 @@
         <v>19</v>
       </c>
       <c r="B225" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C225" t="s">
         <v>8</v>
@@ -6958,7 +6958,7 @@
         <v>19</v>
       </c>
       <c r="B226" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C226" t="s">
         <v>8</v>
@@ -6975,7 +6975,7 @@
         <v>19</v>
       </c>
       <c r="B227" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C227" t="s">
         <v>8</v>
@@ -6992,7 +6992,7 @@
         <v>20</v>
       </c>
       <c r="B228" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C228" t="s">
         <v>8</v>
@@ -7009,7 +7009,7 @@
         <v>20</v>
       </c>
       <c r="B229" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C229" t="s">
         <v>8</v>
@@ -7026,7 +7026,7 @@
         <v>20</v>
       </c>
       <c r="B230" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C230" t="s">
         <v>8</v>
@@ -7043,7 +7043,7 @@
         <v>20</v>
       </c>
       <c r="B231" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C231" t="s">
         <v>8</v>
@@ -7060,7 +7060,7 @@
         <v>20</v>
       </c>
       <c r="B232" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C232" t="s">
         <v>8</v>
@@ -7077,7 +7077,7 @@
         <v>21</v>
       </c>
       <c r="B233" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C233" t="s">
         <v>8</v>
@@ -7094,7 +7094,7 @@
         <v>21</v>
       </c>
       <c r="B234" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C234" t="s">
         <v>8</v>
@@ -7111,7 +7111,7 @@
         <v>21</v>
       </c>
       <c r="B235" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
@@ -7128,7 +7128,7 @@
         <v>21</v>
       </c>
       <c r="B236" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -7145,7 +7145,7 @@
         <v>21</v>
       </c>
       <c r="B237" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -7162,7 +7162,7 @@
         <v>21</v>
       </c>
       <c r="B238" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C238" t="s">
         <v>8</v>
@@ -7179,7 +7179,7 @@
         <v>21</v>
       </c>
       <c r="B239" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C239" t="s">
         <v>8</v>
@@ -7196,7 +7196,7 @@
         <v>21</v>
       </c>
       <c r="B240" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
@@ -7213,7 +7213,7 @@
         <v>22</v>
       </c>
       <c r="B241" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C241" t="s">
         <v>8</v>
@@ -7264,7 +7264,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -7332,7 +7332,7 @@
         <v>22</v>
       </c>
       <c r="B248" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
@@ -7349,7 +7349,7 @@
         <v>22</v>
       </c>
       <c r="B249" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C249" t="s">
         <v>8</v>
@@ -7400,7 +7400,7 @@
         <v>22</v>
       </c>
       <c r="B252" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C252" t="s">
         <v>8</v>
@@ -7417,7 +7417,7 @@
         <v>22</v>
       </c>
       <c r="B253" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C253" t="s">
         <v>8</v>
@@ -7434,7 +7434,7 @@
         <v>22</v>
       </c>
       <c r="B254" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C254" t="s">
         <v>8</v>
@@ -7451,7 +7451,7 @@
         <v>22</v>
       </c>
       <c r="B255" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C255" t="s">
         <v>8</v>
@@ -7468,7 +7468,7 @@
         <v>22</v>
       </c>
       <c r="B256" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C256" t="s">
         <v>8</v>
@@ -7485,7 +7485,7 @@
         <v>22</v>
       </c>
       <c r="B257" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C257" t="s">
         <v>8</v>
@@ -7536,7 +7536,7 @@
         <v>22</v>
       </c>
       <c r="B260" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C260" t="s">
         <v>8</v>
@@ -7553,7 +7553,7 @@
         <v>23</v>
       </c>
       <c r="B261" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C261" t="s">
         <v>8</v>
@@ -7570,7 +7570,7 @@
         <v>23</v>
       </c>
       <c r="B262" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C262" t="s">
         <v>8</v>
@@ -7587,7 +7587,7 @@
         <v>23</v>
       </c>
       <c r="B263" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C263" t="s">
         <v>8</v>
@@ -7604,7 +7604,7 @@
         <v>23</v>
       </c>
       <c r="B264" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C264" t="s">
         <v>8</v>
@@ -7638,7 +7638,7 @@
         <v>23</v>
       </c>
       <c r="B266" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C266" t="s">
         <v>8</v>
@@ -7655,7 +7655,7 @@
         <v>23</v>
       </c>
       <c r="B267" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C267" t="s">
         <v>8</v>
@@ -7689,7 +7689,7 @@
         <v>24</v>
       </c>
       <c r="B269" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C269" t="s">
         <v>8</v>
@@ -7706,7 +7706,7 @@
         <v>24</v>
       </c>
       <c r="B270" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C270" t="s">
         <v>8</v>
@@ -7723,7 +7723,7 @@
         <v>24</v>
       </c>
       <c r="B271" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C271" t="s">
         <v>8</v>
@@ -7740,7 +7740,7 @@
         <v>24</v>
       </c>
       <c r="B272" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C272" t="s">
         <v>8</v>
@@ -7757,7 +7757,7 @@
         <v>24</v>
       </c>
       <c r="B273" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C273" t="s">
         <v>8</v>
@@ -7774,7 +7774,7 @@
         <v>24</v>
       </c>
       <c r="B274" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C274" t="s">
         <v>8</v>
@@ -7808,7 +7808,7 @@
         <v>24</v>
       </c>
       <c r="B276" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C276" t="s">
         <v>8</v>
@@ -7825,7 +7825,7 @@
         <v>25</v>
       </c>
       <c r="B277" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C277" t="s">
         <v>8</v>
@@ -7842,7 +7842,7 @@
         <v>25</v>
       </c>
       <c r="B278" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C278" t="s">
         <v>8</v>
@@ -7859,7 +7859,7 @@
         <v>25</v>
       </c>
       <c r="B279" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C279" t="s">
         <v>8</v>
@@ -7876,7 +7876,7 @@
         <v>25</v>
       </c>
       <c r="B280" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C280" t="s">
         <v>8</v>
@@ -7910,7 +7910,7 @@
         <v>25</v>
       </c>
       <c r="B282" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C282" t="s">
         <v>8</v>
@@ -7944,7 +7944,7 @@
         <v>25</v>
       </c>
       <c r="B284" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C284" t="s">
         <v>8</v>
@@ -7978,7 +7978,7 @@
         <v>25</v>
       </c>
       <c r="B286" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C286" t="s">
         <v>8</v>
@@ -7995,7 +7995,7 @@
         <v>26</v>
       </c>
       <c r="B287" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C287" t="s">
         <v>8</v>
@@ -8012,7 +8012,7 @@
         <v>26</v>
       </c>
       <c r="B288" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C288" t="s">
         <v>8</v>
@@ -8029,7 +8029,7 @@
         <v>26</v>
       </c>
       <c r="B289" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C289" t="s">
         <v>8</v>
@@ -8046,7 +8046,7 @@
         <v>26</v>
       </c>
       <c r="B290" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C290" t="s">
         <v>8</v>
@@ -8063,7 +8063,7 @@
         <v>26</v>
       </c>
       <c r="B291" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C291" t="s">
         <v>8</v>
@@ -8080,7 +8080,7 @@
         <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C292" t="s">
         <v>8</v>
@@ -8097,7 +8097,7 @@
         <v>26</v>
       </c>
       <c r="B293" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C293" t="s">
         <v>8</v>
@@ -8131,7 +8131,7 @@
         <v>26</v>
       </c>
       <c r="B295" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C295" t="s">
         <v>8</v>
@@ -8148,7 +8148,7 @@
         <v>27</v>
       </c>
       <c r="B296" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C296" t="s">
         <v>8</v>
@@ -8165,7 +8165,7 @@
         <v>27</v>
       </c>
       <c r="B297" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C297" t="s">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         <v>27</v>
       </c>
       <c r="B298" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C298" t="s">
         <v>8</v>
@@ -8199,7 +8199,7 @@
         <v>27</v>
       </c>
       <c r="B299" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C299" t="s">
         <v>8</v>
@@ -8386,7 +8386,7 @@
         <v>27</v>
       </c>
       <c r="B310" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C310" t="s">
         <v>8</v>
@@ -8403,7 +8403,7 @@
         <v>27</v>
       </c>
       <c r="B311" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C311" t="s">
         <v>8</v>
@@ -8437,7 +8437,7 @@
         <v>27</v>
       </c>
       <c r="B313" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C313" t="s">
         <v>8</v>
@@ -8471,7 +8471,7 @@
         <v>27</v>
       </c>
       <c r="B315" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C315" t="s">
         <v>8</v>
@@ -8488,7 +8488,7 @@
         <v>27</v>
       </c>
       <c r="B316" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C316" t="s">
         <v>8</v>
@@ -8505,7 +8505,7 @@
         <v>27</v>
       </c>
       <c r="B317" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C317" t="s">
         <v>8</v>
@@ -8522,7 +8522,7 @@
         <v>27</v>
       </c>
       <c r="B318" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C318" t="s">
         <v>8</v>
@@ -8556,7 +8556,7 @@
         <v>27</v>
       </c>
       <c r="B320" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C320" t="s">
         <v>8</v>
@@ -8570,10 +8570,10 @@
     </row>
     <row r="321" spans="1:5" hidden="1">
       <c r="A321" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B321" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C321" t="s">
         <v>8</v>
@@ -8587,10 +8587,10 @@
     </row>
     <row r="322" spans="1:5" hidden="1">
       <c r="A322" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B322" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C322" t="s">
         <v>8</v>
@@ -8604,10 +8604,10 @@
     </row>
     <row r="323" spans="1:5" hidden="1">
       <c r="A323" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B323" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C323" t="s">
         <v>8</v>
@@ -8621,10 +8621,10 @@
     </row>
     <row r="324" spans="1:5" hidden="1">
       <c r="A324" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B324" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C324" t="s">
         <v>8</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="325" spans="1:5" hidden="1">
       <c r="A325" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B325" t="s">
         <v>48</v>
@@ -8655,10 +8655,10 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B326" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C326" t="s">
         <v>8</v>
@@ -8672,10 +8672,10 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B327" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C327" t="s">
         <v>8</v>
@@ -8689,10 +8689,10 @@
     </row>
     <row r="328" spans="1:5" hidden="1">
       <c r="A328" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B328" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C328" t="s">
         <v>8</v>
@@ -8706,10 +8706,10 @@
     </row>
     <row r="329" spans="1:5" hidden="1">
       <c r="A329" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B329" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C329" t="s">
         <v>8</v>
@@ -8723,10 +8723,10 @@
     </row>
     <row r="330" spans="1:5" hidden="1">
       <c r="A330" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B330" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C330" t="s">
         <v>8</v>
@@ -8740,10 +8740,10 @@
     </row>
     <row r="331" spans="1:5" hidden="1">
       <c r="A331" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B331" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C331" t="s">
         <v>8</v>
@@ -8757,10 +8757,10 @@
     </row>
     <row r="332" spans="1:5" hidden="1">
       <c r="A332" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B332" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C332" t="s">
         <v>8</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="333" spans="1:5" hidden="1">
       <c r="A333" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B333" t="s">
         <v>47</v>
@@ -8791,7 +8791,7 @@
     </row>
     <row r="334" spans="1:5" hidden="1">
       <c r="A334" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B334" t="s">
         <v>40</v>
@@ -8808,10 +8808,10 @@
     </row>
     <row r="335" spans="1:5" hidden="1">
       <c r="A335" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B335" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C335" t="s">
         <v>8</v>
@@ -8828,7 +8828,7 @@
         <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C336" t="s">
         <v>8</v>
@@ -8845,7 +8845,7 @@
         <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C337" t="s">
         <v>8</v>
@@ -8862,7 +8862,7 @@
         <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C338" t="s">
         <v>8</v>
@@ -8879,7 +8879,7 @@
         <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C339" t="s">
         <v>8</v>
@@ -8947,7 +8947,7 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C343" t="s">
         <v>8</v>
@@ -8998,7 +8998,7 @@
         <v>6</v>
       </c>
       <c r="B346" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C346" t="s">
         <v>8</v>
@@ -9015,7 +9015,7 @@
         <v>6</v>
       </c>
       <c r="B347" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C347" t="s">
         <v>8</v>
@@ -9032,7 +9032,7 @@
         <v>6</v>
       </c>
       <c r="B348" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C348" t="s">
         <v>8</v>
@@ -9049,7 +9049,7 @@
         <v>6</v>
       </c>
       <c r="B349" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C349" t="s">
         <v>8</v>
@@ -9066,7 +9066,7 @@
         <v>6</v>
       </c>
       <c r="B350" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C350" t="s">
         <v>8</v>
@@ -9083,7 +9083,7 @@
         <v>6</v>
       </c>
       <c r="B351" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C351" t="s">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         <v>6</v>
       </c>
       <c r="B353" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C353" t="s">
         <v>8</v>
@@ -9131,10 +9131,10 @@
     </row>
     <row r="354" spans="1:5" hidden="1">
       <c r="A354" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B354" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C354" t="s">
         <v>8</v>
@@ -9148,10 +9148,10 @@
     </row>
     <row r="355" spans="1:5" hidden="1">
       <c r="A355" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B355" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C355" t="s">
         <v>8</v>
@@ -9165,10 +9165,10 @@
     </row>
     <row r="356" spans="1:5" hidden="1">
       <c r="A356" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B356" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C356" t="s">
         <v>8</v>
@@ -9182,10 +9182,10 @@
     </row>
     <row r="357" spans="1:5" hidden="1">
       <c r="A357" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B357" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C357" t="s">
         <v>8</v>
@@ -9199,10 +9199,10 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B358" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C358" t="s">
         <v>8</v>
@@ -9216,10 +9216,10 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B359" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C359" t="s">
         <v>8</v>
@@ -9233,10 +9233,10 @@
     </row>
     <row r="360" spans="1:5" hidden="1">
       <c r="A360" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B360" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C360" t="s">
         <v>8</v>
@@ -9250,10 +9250,10 @@
     </row>
     <row r="361" spans="1:5" hidden="1">
       <c r="A361" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B361" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C361" t="s">
         <v>8</v>
@@ -9267,10 +9267,10 @@
     </row>
     <row r="362" spans="1:5" hidden="1">
       <c r="A362" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B362" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C362" t="s">
         <v>8</v>
@@ -9284,10 +9284,10 @@
     </row>
     <row r="363" spans="1:5" hidden="1">
       <c r="A363" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B363" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C363" t="s">
         <v>8</v>
@@ -9301,10 +9301,10 @@
     </row>
     <row r="364" spans="1:5" hidden="1">
       <c r="A364" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B364" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C364" t="s">
         <v>8</v>
@@ -9318,7 +9318,7 @@
     </row>
     <row r="365" spans="1:5" hidden="1">
       <c r="A365" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B365" t="s">
         <v>47</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="366" spans="1:5" hidden="1">
       <c r="A366" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B366" t="s">
         <v>40</v>
@@ -9352,10 +9352,10 @@
     </row>
     <row r="367" spans="1:5" hidden="1">
       <c r="A367" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B367" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C367" t="s">
         <v>8</v>
@@ -9372,7 +9372,7 @@
         <v>9</v>
       </c>
       <c r="B368" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C368" t="s">
         <v>8</v>
@@ -9389,7 +9389,7 @@
         <v>9</v>
       </c>
       <c r="B369" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C369" t="s">
         <v>8</v>
@@ -9406,7 +9406,7 @@
         <v>9</v>
       </c>
       <c r="B370" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C370" t="s">
         <v>8</v>
@@ -9423,7 +9423,7 @@
         <v>9</v>
       </c>
       <c r="B371" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C371" t="s">
         <v>8</v>
@@ -9559,7 +9559,7 @@
         <v>9</v>
       </c>
       <c r="B379" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C379" t="s">
         <v>8</v>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B380" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C380" t="s">
         <v>8</v>
@@ -9593,7 +9593,7 @@
         <v>9</v>
       </c>
       <c r="B381" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C381" t="s">
         <v>8</v>
@@ -9610,7 +9610,7 @@
         <v>9</v>
       </c>
       <c r="B382" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C382" t="s">
         <v>8</v>
@@ -9627,7 +9627,7 @@
         <v>9</v>
       </c>
       <c r="B383" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C383" t="s">
         <v>8</v>
@@ -9644,7 +9644,7 @@
         <v>9</v>
       </c>
       <c r="B384" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C384" t="s">
         <v>8</v>
@@ -9661,7 +9661,7 @@
         <v>9</v>
       </c>
       <c r="B385" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C385" t="s">
         <v>8</v>
@@ -9678,7 +9678,7 @@
         <v>9</v>
       </c>
       <c r="B386" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C386" t="s">
         <v>8</v>
@@ -9729,7 +9729,7 @@
         <v>9</v>
       </c>
       <c r="B389" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C389" t="s">
         <v>8</v>
@@ -9746,7 +9746,7 @@
         <v>10</v>
       </c>
       <c r="B390" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C390" t="s">
         <v>8</v>
@@ -9763,7 +9763,7 @@
         <v>10</v>
       </c>
       <c r="B391" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C391" t="s">
         <v>8</v>
@@ -9780,7 +9780,7 @@
         <v>10</v>
       </c>
       <c r="B392" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C392" t="s">
         <v>8</v>
@@ -9831,7 +9831,7 @@
         <v>10</v>
       </c>
       <c r="B395" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C395" t="s">
         <v>8</v>
@@ -9882,7 +9882,7 @@
         <v>10</v>
       </c>
       <c r="B398" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C398" t="s">
         <v>8</v>
@@ -9899,7 +9899,7 @@
         <v>10</v>
       </c>
       <c r="B399" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C399" t="s">
         <v>8</v>
@@ -9916,7 +9916,7 @@
         <v>10</v>
       </c>
       <c r="B400" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
@@ -9933,7 +9933,7 @@
         <v>11</v>
       </c>
       <c r="B401" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C401" t="s">
         <v>8</v>
@@ -9950,7 +9950,7 @@
         <v>11</v>
       </c>
       <c r="B402" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
@@ -9967,7 +9967,7 @@
         <v>11</v>
       </c>
       <c r="B403" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
@@ -9984,7 +9984,7 @@
         <v>11</v>
       </c>
       <c r="B404" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
@@ -10018,7 +10018,7 @@
         <v>11</v>
       </c>
       <c r="B406" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C406" t="s">
         <v>8</v>
@@ -10069,7 +10069,7 @@
         <v>11</v>
       </c>
       <c r="B409" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C409" t="s">
         <v>8</v>
@@ -10086,7 +10086,7 @@
         <v>11</v>
       </c>
       <c r="B410" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
@@ -10120,7 +10120,7 @@
         <v>11</v>
       </c>
       <c r="B412" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
@@ -10137,7 +10137,7 @@
         <v>11</v>
       </c>
       <c r="B413" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
@@ -10154,7 +10154,7 @@
         <v>11</v>
       </c>
       <c r="B414" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
@@ -10171,7 +10171,7 @@
         <v>12</v>
       </c>
       <c r="B415" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C415" t="s">
         <v>8</v>
@@ -10205,7 +10205,7 @@
         <v>12</v>
       </c>
       <c r="B417" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
@@ -10222,7 +10222,7 @@
         <v>12</v>
       </c>
       <c r="B418" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C418" t="s">
         <v>8</v>
@@ -10239,7 +10239,7 @@
         <v>12</v>
       </c>
       <c r="B419" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C419" t="s">
         <v>8</v>
@@ -10256,7 +10256,7 @@
         <v>12</v>
       </c>
       <c r="B420" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
@@ -10273,7 +10273,7 @@
         <v>12</v>
       </c>
       <c r="B421" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C421" t="s">
         <v>8</v>
@@ -10290,7 +10290,7 @@
         <v>12</v>
       </c>
       <c r="B422" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C422" t="s">
         <v>8</v>
@@ -10307,7 +10307,7 @@
         <v>13</v>
       </c>
       <c r="B423" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C423" t="s">
         <v>8</v>
@@ -10324,7 +10324,7 @@
         <v>13</v>
       </c>
       <c r="B424" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C424" t="s">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         <v>13</v>
       </c>
       <c r="B425" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C425" t="s">
         <v>8</v>
@@ -10358,7 +10358,7 @@
         <v>13</v>
       </c>
       <c r="B426" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C426" t="s">
         <v>8</v>
@@ -10392,7 +10392,7 @@
         <v>13</v>
       </c>
       <c r="B428" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C428" t="s">
         <v>8</v>
@@ -10409,7 +10409,7 @@
         <v>13</v>
       </c>
       <c r="B429" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C429" t="s">
         <v>8</v>
@@ -10426,7 +10426,7 @@
         <v>13</v>
       </c>
       <c r="B430" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C430" t="s">
         <v>8</v>
@@ -10443,7 +10443,7 @@
         <v>13</v>
       </c>
       <c r="B431" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C431" t="s">
         <v>8</v>
@@ -10460,7 +10460,7 @@
         <v>13</v>
       </c>
       <c r="B432" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C432" t="s">
         <v>8</v>
@@ -10477,7 +10477,7 @@
         <v>13</v>
       </c>
       <c r="B433" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C433" t="s">
         <v>8</v>
@@ -10494,7 +10494,7 @@
         <v>13</v>
       </c>
       <c r="B434" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C434" t="s">
         <v>8</v>
@@ -10511,7 +10511,7 @@
         <v>13</v>
       </c>
       <c r="B435" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C435" t="s">
         <v>8</v>
@@ -10562,7 +10562,7 @@
         <v>13</v>
       </c>
       <c r="B438" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C438" t="s">
         <v>8</v>
@@ -10579,7 +10579,7 @@
         <v>13</v>
       </c>
       <c r="B439" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C439" t="s">
         <v>8</v>
@@ -10596,7 +10596,7 @@
         <v>14</v>
       </c>
       <c r="B440" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C440" t="s">
         <v>8</v>
@@ -10613,7 +10613,7 @@
         <v>14</v>
       </c>
       <c r="B441" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C441" t="s">
         <v>8</v>
@@ -10630,7 +10630,7 @@
         <v>14</v>
       </c>
       <c r="B442" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C442" t="s">
         <v>8</v>
@@ -10647,7 +10647,7 @@
         <v>14</v>
       </c>
       <c r="B443" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C443" t="s">
         <v>8</v>
@@ -10732,7 +10732,7 @@
         <v>14</v>
       </c>
       <c r="B448" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C448" t="s">
         <v>8</v>
@@ -10749,7 +10749,7 @@
         <v>14</v>
       </c>
       <c r="B449" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C449" t="s">
         <v>8</v>
@@ -10766,7 +10766,7 @@
         <v>14</v>
       </c>
       <c r="B450" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C450" t="s">
         <v>8</v>
@@ -10800,7 +10800,7 @@
         <v>14</v>
       </c>
       <c r="B452" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C452" t="s">
         <v>8</v>
@@ -10817,7 +10817,7 @@
         <v>14</v>
       </c>
       <c r="B453" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C453" t="s">
         <v>8</v>
@@ -10851,7 +10851,7 @@
         <v>14</v>
       </c>
       <c r="B455" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C455" t="s">
         <v>8</v>
@@ -10868,7 +10868,7 @@
         <v>15</v>
       </c>
       <c r="B456" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C456" t="s">
         <v>8</v>
@@ -10885,7 +10885,7 @@
         <v>15</v>
       </c>
       <c r="B457" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C457" t="s">
         <v>8</v>
@@ -10902,7 +10902,7 @@
         <v>15</v>
       </c>
       <c r="B458" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C458" t="s">
         <v>8</v>
@@ -10919,7 +10919,7 @@
         <v>15</v>
       </c>
       <c r="B459" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C459" t="s">
         <v>8</v>
@@ -10987,7 +10987,7 @@
         <v>15</v>
       </c>
       <c r="B463" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C463" t="s">
         <v>8</v>
@@ -11004,7 +11004,7 @@
         <v>15</v>
       </c>
       <c r="B464" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C464" t="s">
         <v>8</v>
@@ -11055,7 +11055,7 @@
         <v>15</v>
       </c>
       <c r="B467" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C467" t="s">
         <v>8</v>
@@ -11072,7 +11072,7 @@
         <v>15</v>
       </c>
       <c r="B468" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C468" t="s">
         <v>8</v>
@@ -11089,7 +11089,7 @@
         <v>15</v>
       </c>
       <c r="B469" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C469" t="s">
         <v>8</v>
@@ -11106,7 +11106,7 @@
         <v>15</v>
       </c>
       <c r="B470" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C470" t="s">
         <v>8</v>
@@ -11123,7 +11123,7 @@
         <v>15</v>
       </c>
       <c r="B471" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C471" t="s">
         <v>8</v>
@@ -11140,7 +11140,7 @@
         <v>15</v>
       </c>
       <c r="B472" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C472" t="s">
         <v>8</v>
@@ -11191,7 +11191,7 @@
         <v>15</v>
       </c>
       <c r="B475" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C475" t="s">
         <v>8</v>
@@ -11208,7 +11208,7 @@
         <v>16</v>
       </c>
       <c r="B476" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C476" t="s">
         <v>8</v>
@@ -11225,7 +11225,7 @@
         <v>16</v>
       </c>
       <c r="B477" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C477" t="s">
         <v>8</v>
@@ -11242,7 +11242,7 @@
         <v>16</v>
       </c>
       <c r="B478" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C478" t="s">
         <v>8</v>
@@ -11259,7 +11259,7 @@
         <v>16</v>
       </c>
       <c r="B479" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C479" t="s">
         <v>8</v>
@@ -11310,7 +11310,7 @@
         <v>16</v>
       </c>
       <c r="B482" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C482" t="s">
         <v>8</v>
@@ -11327,7 +11327,7 @@
         <v>16</v>
       </c>
       <c r="B483" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C483" t="s">
         <v>8</v>
@@ -11344,7 +11344,7 @@
         <v>16</v>
       </c>
       <c r="B484" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C484" t="s">
         <v>8</v>
@@ -11361,7 +11361,7 @@
         <v>16</v>
       </c>
       <c r="B485" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C485" t="s">
         <v>8</v>
@@ -11378,7 +11378,7 @@
         <v>16</v>
       </c>
       <c r="B486" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C486" t="s">
         <v>8</v>
@@ -11395,7 +11395,7 @@
         <v>16</v>
       </c>
       <c r="B487" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C487" t="s">
         <v>8</v>
@@ -11429,7 +11429,7 @@
         <v>16</v>
       </c>
       <c r="B489" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C489" t="s">
         <v>8</v>
@@ -11446,7 +11446,7 @@
         <v>17</v>
       </c>
       <c r="B490" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C490" t="s">
         <v>8</v>
@@ -11463,7 +11463,7 @@
         <v>17</v>
       </c>
       <c r="B491" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C491" t="s">
         <v>8</v>
@@ -11480,7 +11480,7 @@
         <v>17</v>
       </c>
       <c r="B492" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C492" t="s">
         <v>8</v>
@@ -11531,7 +11531,7 @@
         <v>17</v>
       </c>
       <c r="B495" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C495" t="s">
         <v>8</v>
@@ -11548,7 +11548,7 @@
         <v>17</v>
       </c>
       <c r="B496" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C496" t="s">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         <v>17</v>
       </c>
       <c r="B497" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C497" t="s">
         <v>8</v>
@@ -11599,7 +11599,7 @@
         <v>17</v>
       </c>
       <c r="B499" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C499" t="s">
         <v>8</v>
@@ -11616,7 +11616,7 @@
         <v>17</v>
       </c>
       <c r="B500" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C500" t="s">
         <v>8</v>
@@ -11633,7 +11633,7 @@
         <v>18</v>
       </c>
       <c r="B501" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C501" t="s">
         <v>8</v>
@@ -11650,7 +11650,7 @@
         <v>18</v>
       </c>
       <c r="B502" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C502" t="s">
         <v>8</v>
@@ -11667,7 +11667,7 @@
         <v>18</v>
       </c>
       <c r="B503" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C503" t="s">
         <v>8</v>
@@ -11684,7 +11684,7 @@
         <v>18</v>
       </c>
       <c r="B504" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C504" t="s">
         <v>8</v>
@@ -11786,7 +11786,7 @@
         <v>18</v>
       </c>
       <c r="B510" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C510" t="s">
         <v>8</v>
@@ -11803,7 +11803,7 @@
         <v>18</v>
       </c>
       <c r="B511" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C511" t="s">
         <v>8</v>
@@ -11820,7 +11820,7 @@
         <v>18</v>
       </c>
       <c r="B512" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C512" t="s">
         <v>8</v>
@@ -11837,7 +11837,7 @@
         <v>18</v>
       </c>
       <c r="B513" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C513" t="s">
         <v>8</v>
@@ -11871,7 +11871,7 @@
         <v>18</v>
       </c>
       <c r="B515" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C515" t="s">
         <v>8</v>
@@ -11888,7 +11888,7 @@
         <v>19</v>
       </c>
       <c r="B516" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C516" t="s">
         <v>8</v>
@@ -11905,7 +11905,7 @@
         <v>19</v>
       </c>
       <c r="B517" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C517" t="s">
         <v>8</v>
@@ -11922,7 +11922,7 @@
         <v>19</v>
       </c>
       <c r="B518" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C518" t="s">
         <v>8</v>
@@ -11939,7 +11939,7 @@
         <v>19</v>
       </c>
       <c r="B519" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C519" t="s">
         <v>8</v>
@@ -11956,7 +11956,7 @@
         <v>19</v>
       </c>
       <c r="B520" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C520" t="s">
         <v>8</v>
@@ -11973,7 +11973,7 @@
         <v>19</v>
       </c>
       <c r="B521" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C521" t="s">
         <v>8</v>
@@ -11990,7 +11990,7 @@
         <v>19</v>
       </c>
       <c r="B522" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C522" t="s">
         <v>8</v>
@@ -12007,7 +12007,7 @@
         <v>20</v>
       </c>
       <c r="B523" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C523" t="s">
         <v>8</v>
@@ -12024,7 +12024,7 @@
         <v>20</v>
       </c>
       <c r="B524" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C524" t="s">
         <v>8</v>
@@ -12041,7 +12041,7 @@
         <v>20</v>
       </c>
       <c r="B525" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C525" t="s">
         <v>8</v>
@@ -12058,7 +12058,7 @@
         <v>20</v>
       </c>
       <c r="B526" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C526" t="s">
         <v>8</v>
@@ -12075,7 +12075,7 @@
         <v>20</v>
       </c>
       <c r="B527" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C527" t="s">
         <v>8</v>
@@ -12092,7 +12092,7 @@
         <v>20</v>
       </c>
       <c r="B528" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C528" t="s">
         <v>8</v>
@@ -12109,7 +12109,7 @@
         <v>20</v>
       </c>
       <c r="B529" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C529" t="s">
         <v>8</v>
@@ -12126,7 +12126,7 @@
         <v>21</v>
       </c>
       <c r="B530" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C530" t="s">
         <v>8</v>
@@ -12143,7 +12143,7 @@
         <v>21</v>
       </c>
       <c r="B531" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C531" t="s">
         <v>8</v>
@@ -12160,7 +12160,7 @@
         <v>21</v>
       </c>
       <c r="B532" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C532" t="s">
         <v>8</v>
@@ -12177,7 +12177,7 @@
         <v>21</v>
       </c>
       <c r="B533" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C533" t="s">
         <v>8</v>
@@ -12194,7 +12194,7 @@
         <v>21</v>
       </c>
       <c r="B534" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C534" t="s">
         <v>8</v>
@@ -12211,7 +12211,7 @@
         <v>21</v>
       </c>
       <c r="B535" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C535" t="s">
         <v>8</v>
@@ -12228,7 +12228,7 @@
         <v>21</v>
       </c>
       <c r="B536" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C536" t="s">
         <v>8</v>
@@ -12245,7 +12245,7 @@
         <v>21</v>
       </c>
       <c r="B537" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C537" t="s">
         <v>8</v>
@@ -12262,7 +12262,7 @@
         <v>22</v>
       </c>
       <c r="B538" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C538" t="s">
         <v>8</v>
@@ -12364,7 +12364,7 @@
         <v>22</v>
       </c>
       <c r="B544" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C544" t="s">
         <v>8</v>
@@ -12381,7 +12381,7 @@
         <v>22</v>
       </c>
       <c r="B545" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C545" t="s">
         <v>8</v>
@@ -12449,7 +12449,7 @@
         <v>22</v>
       </c>
       <c r="B549" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C549" t="s">
         <v>8</v>
@@ -12466,7 +12466,7 @@
         <v>22</v>
       </c>
       <c r="B550" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C550" t="s">
         <v>8</v>
@@ -12483,7 +12483,7 @@
         <v>22</v>
       </c>
       <c r="B551" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C551" t="s">
         <v>8</v>
@@ -12500,7 +12500,7 @@
         <v>22</v>
       </c>
       <c r="B552" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C552" t="s">
         <v>8</v>
@@ -12517,7 +12517,7 @@
         <v>22</v>
       </c>
       <c r="B553" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C553" t="s">
         <v>8</v>
@@ -12534,7 +12534,7 @@
         <v>22</v>
       </c>
       <c r="B554" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C554" t="s">
         <v>8</v>
@@ -12585,7 +12585,7 @@
         <v>22</v>
       </c>
       <c r="B557" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C557" t="s">
         <v>8</v>
@@ -12602,7 +12602,7 @@
         <v>23</v>
       </c>
       <c r="B558" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C558" t="s">
         <v>8</v>
@@ -12619,7 +12619,7 @@
         <v>23</v>
       </c>
       <c r="B559" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C559" t="s">
         <v>8</v>
@@ -12636,7 +12636,7 @@
         <v>23</v>
       </c>
       <c r="B560" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C560" t="s">
         <v>8</v>
@@ -12653,7 +12653,7 @@
         <v>23</v>
       </c>
       <c r="B561" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C561" t="s">
         <v>8</v>
@@ -12687,7 +12687,7 @@
         <v>23</v>
       </c>
       <c r="B563" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C563" t="s">
         <v>8</v>
@@ -12704,7 +12704,7 @@
         <v>23</v>
       </c>
       <c r="B564" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C564" t="s">
         <v>8</v>
@@ -12738,7 +12738,7 @@
         <v>24</v>
       </c>
       <c r="B566" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C566" t="s">
         <v>8</v>
@@ -12755,7 +12755,7 @@
         <v>24</v>
       </c>
       <c r="B567" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C567" t="s">
         <v>8</v>
@@ -12772,7 +12772,7 @@
         <v>24</v>
       </c>
       <c r="B568" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C568" t="s">
         <v>8</v>
@@ -12789,7 +12789,7 @@
         <v>24</v>
       </c>
       <c r="B569" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C569" t="s">
         <v>8</v>
@@ -12806,7 +12806,7 @@
         <v>24</v>
       </c>
       <c r="B570" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C570" t="s">
         <v>8</v>
@@ -12823,7 +12823,7 @@
         <v>24</v>
       </c>
       <c r="B571" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C571" t="s">
         <v>8</v>
@@ -12840,7 +12840,7 @@
         <v>24</v>
       </c>
       <c r="B572" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C572" t="s">
         <v>8</v>
@@ -12874,7 +12874,7 @@
         <v>24</v>
       </c>
       <c r="B574" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C574" t="s">
         <v>8</v>
@@ -12891,7 +12891,7 @@
         <v>25</v>
       </c>
       <c r="B575" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C575" t="s">
         <v>8</v>
@@ -12908,7 +12908,7 @@
         <v>25</v>
       </c>
       <c r="B576" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C576" t="s">
         <v>8</v>
@@ -12925,7 +12925,7 @@
         <v>25</v>
       </c>
       <c r="B577" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C577" t="s">
         <v>8</v>
@@ -12942,7 +12942,7 @@
         <v>25</v>
       </c>
       <c r="B578" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C578" t="s">
         <v>8</v>
@@ -12959,7 +12959,7 @@
         <v>25</v>
       </c>
       <c r="B579" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C579" t="s">
         <v>8</v>
@@ -12993,7 +12993,7 @@
         <v>25</v>
       </c>
       <c r="B581" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C581" t="s">
         <v>8</v>
@@ -13010,7 +13010,7 @@
         <v>25</v>
       </c>
       <c r="B582" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C582" t="s">
         <v>8</v>
@@ -13044,7 +13044,7 @@
         <v>25</v>
       </c>
       <c r="B584" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C584" t="s">
         <v>8</v>
@@ -13061,7 +13061,7 @@
         <v>26</v>
       </c>
       <c r="B585" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C585" t="s">
         <v>8</v>
@@ -13078,7 +13078,7 @@
         <v>26</v>
       </c>
       <c r="B586" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C586" t="s">
         <v>8</v>
@@ -13095,7 +13095,7 @@
         <v>26</v>
       </c>
       <c r="B587" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C587" t="s">
         <v>8</v>
@@ -13112,7 +13112,7 @@
         <v>26</v>
       </c>
       <c r="B588" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C588" t="s">
         <v>8</v>
@@ -13129,7 +13129,7 @@
         <v>26</v>
       </c>
       <c r="B589" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C589" t="s">
         <v>8</v>
@@ -13146,7 +13146,7 @@
         <v>26</v>
       </c>
       <c r="B590" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C590" t="s">
         <v>8</v>
@@ -13163,7 +13163,7 @@
         <v>26</v>
       </c>
       <c r="B591" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C591" t="s">
         <v>8</v>
@@ -13197,7 +13197,7 @@
         <v>26</v>
       </c>
       <c r="B593" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C593" t="s">
         <v>8</v>
@@ -13214,7 +13214,7 @@
         <v>27</v>
       </c>
       <c r="B594" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C594" t="s">
         <v>8</v>
@@ -13231,7 +13231,7 @@
         <v>27</v>
       </c>
       <c r="B595" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C595" t="s">
         <v>8</v>
@@ -13248,7 +13248,7 @@
         <v>27</v>
       </c>
       <c r="B596" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C596" t="s">
         <v>8</v>
@@ -13265,7 +13265,7 @@
         <v>27</v>
       </c>
       <c r="B597" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C597" t="s">
         <v>8</v>
@@ -13418,7 +13418,7 @@
         <v>27</v>
       </c>
       <c r="B606" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C606" t="s">
         <v>8</v>
@@ -13435,7 +13435,7 @@
         <v>27</v>
       </c>
       <c r="B607" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C607" t="s">
         <v>8</v>
@@ -13469,7 +13469,7 @@
         <v>27</v>
       </c>
       <c r="B609" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C609" t="s">
         <v>8</v>
@@ -13503,7 +13503,7 @@
         <v>27</v>
       </c>
       <c r="B611" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C611" t="s">
         <v>8</v>
@@ -13520,7 +13520,7 @@
         <v>27</v>
       </c>
       <c r="B612" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C612" t="s">
         <v>8</v>
@@ -13537,7 +13537,7 @@
         <v>27</v>
       </c>
       <c r="B613" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C613" t="s">
         <v>8</v>
@@ -13554,7 +13554,7 @@
         <v>27</v>
       </c>
       <c r="B614" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C614" t="s">
         <v>8</v>
@@ -13588,7 +13588,7 @@
         <v>27</v>
       </c>
       <c r="B616" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C616" t="s">
         <v>8</v>
@@ -13645,12 +13645,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -13684,7 +13684,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -14058,7 +14058,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -14411,8 +14411,8 @@
   </sheetPr>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14420,18 +14420,20 @@
     <col min="1" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>87</v>
@@ -14452,21 +14454,21 @@
         <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -14495,10 +14497,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -14530,7 +14532,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -14565,7 +14567,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -14600,7 +14602,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -14635,7 +14637,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -14670,10 +14672,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -14705,10 +14707,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -14740,7 +14742,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -14775,7 +14777,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -14810,7 +14812,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -14845,7 +14847,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -14880,7 +14882,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -14915,7 +14917,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -14950,7 +14952,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -14985,7 +14987,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -15020,7 +15022,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -15055,7 +15057,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -15087,7 +15089,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -15122,7 +15124,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -15157,7 +15159,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -15192,7 +15194,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -15227,7 +15229,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -15262,7 +15264,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -15297,7 +15299,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -15332,7 +15334,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -15367,7 +15369,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -15399,7 +15401,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -15434,7 +15436,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -15469,7 +15471,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -15504,7 +15506,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -15539,7 +15541,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -15574,7 +15576,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -15609,7 +15611,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -15644,7 +15646,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -15679,7 +15681,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -15714,7 +15716,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -15749,7 +15751,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -15784,7 +15786,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -15819,7 +15821,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -15854,7 +15856,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -15889,7 +15891,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -15924,7 +15926,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -15959,7 +15961,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
@@ -15994,7 +15996,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -16029,7 +16031,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -16064,13 +16066,13 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -16099,10 +16101,10 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -16134,7 +16136,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -16169,7 +16171,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -16204,7 +16206,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -16239,7 +16241,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -16274,10 +16276,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -16309,10 +16311,10 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
@@ -16344,7 +16346,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -16379,7 +16381,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
@@ -16414,7 +16416,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
@@ -16449,7 +16451,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
@@ -16484,7 +16486,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
@@ -16519,7 +16521,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
@@ -16554,7 +16556,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
@@ -16589,7 +16591,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
@@ -16624,7 +16626,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -16659,7 +16661,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -16694,7 +16696,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -16729,7 +16731,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -16764,7 +16766,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -16799,7 +16801,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -16834,7 +16836,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -16869,7 +16871,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -16904,7 +16906,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
@@ -16939,7 +16941,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
@@ -16974,7 +16976,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -17009,7 +17011,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -17044,7 +17046,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -17079,7 +17081,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
@@ -17114,7 +17116,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
@@ -17149,7 +17151,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -17184,7 +17186,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -17219,7 +17221,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -17254,7 +17256,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
@@ -17289,7 +17291,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
@@ -17324,7 +17326,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B84" t="s">
         <v>19</v>
@@ -17359,7 +17361,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
@@ -17394,7 +17396,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -17429,7 +17431,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -17464,7 +17466,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
         <v>21</v>
@@ -17499,7 +17501,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
@@ -17534,7 +17536,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
@@ -17569,7 +17571,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
@@ -17604,7 +17606,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
         <v>24</v>
@@ -17639,7 +17641,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
@@ -17753,22 +17755,22 @@
         <v>69</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>70</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>71</v>
@@ -17813,7 +17815,7 @@
         <v>84</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AJ1" s="8" t="s">
         <v>85</v>
@@ -17824,7 +17826,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17833,10 +17835,10 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -17896,27 +17898,27 @@
         <v>36.020000000000003</v>
       </c>
       <c r="AM2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AN2" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AO2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="43">
         <v>1</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -17924,7 +17926,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K3" s="41" t="s">
         <v>7</v>
@@ -17992,13 +17994,13 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
       <c r="AM3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AN3" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AO3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -18035,13 +18037,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18052,10 +18054,10 @@
         <v>2030</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E2" s="31">
         <v>105</v>
@@ -18069,10 +18071,10 @@
         <v>2040</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" s="31">
         <v>105</v>
@@ -18114,10 +18116,10 @@
         <v>87</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18128,7 +18130,7 @@
         <v>2030</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D2" s="32">
         <v>27</v>
@@ -18164,7 +18166,7 @@
         <v>2030</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D4" s="32">
         <v>55</v>
@@ -18182,7 +18184,7 @@
         <v>2030</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="32">
         <v>46</v>
@@ -18218,7 +18220,7 @@
         <v>2030</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D7" s="34">
         <v>8</v>
@@ -18236,7 +18238,7 @@
         <v>2030</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" s="32">
         <v>26</v>
@@ -18254,7 +18256,7 @@
         <v>2030</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" s="33">
         <v>1</v>
@@ -18272,7 +18274,7 @@
         <v>2030</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D10" s="33">
         <v>1</v>
@@ -18290,7 +18292,7 @@
         <v>2030</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D11" s="33">
         <v>10</v>
@@ -18308,7 +18310,7 @@
         <v>2040</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D12" s="32">
         <v>27</v>
@@ -18344,7 +18346,7 @@
         <v>2040</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D14" s="32">
         <v>55</v>
@@ -18362,7 +18364,7 @@
         <v>2040</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D15" s="32">
         <v>46</v>
@@ -18398,7 +18400,7 @@
         <v>2040</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D17" s="34">
         <v>8</v>
@@ -18416,7 +18418,7 @@
         <v>2040</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D18" s="32">
         <v>26</v>
@@ -18434,7 +18436,7 @@
         <v>2040</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D19" s="33">
         <v>1</v>
@@ -18452,7 +18454,7 @@
         <v>2040</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D20" s="33">
         <v>1</v>
@@ -18470,7 +18472,7 @@
         <v>2040</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D21" s="33">
         <v>10</v>
@@ -18517,10 +18519,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>58</v>
@@ -18532,33 +18534,33 @@
         <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C2">
         <v>2030</v>
@@ -18590,7 +18592,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -18763,12 +18765,12 @@
         <v>2400</v>
       </c>
       <c r="L7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -18803,7 +18805,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -18871,7 +18873,7 @@
         <v>3000</v>
       </c>
       <c r="L10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -19049,7 +19051,7 @@
         <v>3000</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -19437,7 +19439,7 @@
         <v>879</v>
       </c>
       <c r="L26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -19825,7 +19827,7 @@
         <v>2800</v>
       </c>
       <c r="L37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -20180,10 +20182,10 @@
     </row>
     <row r="48" spans="1:12" hidden="1">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C48">
         <v>2040</v>
@@ -20215,7 +20217,7 @@
     </row>
     <row r="49" spans="1:12" hidden="1">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -20388,12 +20390,12 @@
         <v>4800</v>
       </c>
       <c r="L53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:12" hidden="1">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
@@ -20428,7 +20430,7 @@
     </row>
     <row r="55" spans="1:12" hidden="1">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -20496,7 +20498,7 @@
         <v>3000</v>
       </c>
       <c r="L56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:12" hidden="1">
@@ -20674,7 +20676,7 @@
         <v>3000</v>
       </c>
       <c r="L61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:12" hidden="1">
@@ -21062,7 +21064,7 @@
         <v>1879</v>
       </c>
       <c r="L72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:12" hidden="1">
@@ -21450,7 +21452,7 @@
         <v>2800</v>
       </c>
       <c r="L83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:12" hidden="1">
@@ -21836,10 +21838,10 @@
         <v>90</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>58</v>
@@ -21860,7 +21862,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>2030</v>
@@ -21878,7 +21880,7 @@
         <v>BEOF-UK00</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -21902,7 +21904,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4">
         <v>2030</v>
@@ -21923,7 +21925,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5">
         <v>2030</v>
@@ -21962,7 +21964,7 @@
         <v>DKBH-DKE1</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -21986,7 +21988,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>2030</v>
@@ -22004,7 +22006,7 @@
         <v>EEOF-LV00</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -22028,7 +22030,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10">
         <v>2030</v>
@@ -22070,7 +22072,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12">
         <v>2030</v>
@@ -22088,7 +22090,7 @@
         <v>NLLL-UK00</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -22133,7 +22135,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15">
         <v>2040</v>
@@ -22151,7 +22153,7 @@
         <v>BEOF-UK00</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -22175,7 +22177,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17">
         <v>2040</v>
@@ -22196,7 +22198,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18">
         <v>2040</v>
@@ -22235,7 +22237,7 @@
         <v>DKBH-DKE1</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -22259,7 +22261,7 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D21">
         <v>2040</v>
@@ -22277,7 +22279,7 @@
         <v>EEOF-LV00</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -22301,7 +22303,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D23">
         <v>2040</v>
@@ -22343,7 +22345,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25">
         <v>2040</v>
@@ -22361,7 +22363,7 @@
         <v>NLLL-UK00</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>

--- a/src_files/data_files/TYNDP-2024_National_Trends.xlsx
+++ b/src_files/data_files/TYNDP-2024_National_Trends.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778B319-F1D1-4C03-B442-2E14D1A73627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD589B83-82E9-4843-B962-E92BCFB4F0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="9" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="215">
   <si>
     <t>Country</t>
   </si>
@@ -1242,7 +1242,29 @@
     <cellStyle name="Normal 5" xfId="2" xr:uid="{3F0C574D-7EC4-4897-89EC-E327150F272B}"/>
     <cellStyle name="Standard_Data provided by OT3" xfId="6" xr:uid="{1E95AE55-13E4-4211-A613-AFC1DB5E5A34}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -1290,25 +1312,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1499,7 +1502,7 @@
       <sheetName val="data_fuelEmissions"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="4">
           <cell r="E4" t="str">
@@ -1623,7 +1626,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4481F0AF-41D8-47A8-8506-AC52CB6AB7F9}" name="Table5" displayName="Table5" ref="A1:H616" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4481F0AF-41D8-47A8-8506-AC52CB6AB7F9}" name="Table5" displayName="Table5" ref="A1:H616" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:H616" xr:uid="{4481F0AF-41D8-47A8-8506-AC52CB6AB7F9}">
     <filterColumn colId="1">
       <filters>
@@ -1647,7 +1650,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE65DD6F-AEBC-42F9-B7B9-FF669064D0A0}" name="Table4" displayName="Table4" ref="A1:G45" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE65DD6F-AEBC-42F9-B7B9-FF669064D0A0}" name="Table4" displayName="Table4" ref="A1:G45" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:G45" xr:uid="{BE65DD6F-AEBC-42F9-B7B9-FF669064D0A0}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4DDF1ABC-FF46-4BB6-A809-F638501F6746}" name="Country"/>
@@ -1663,7 +1666,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B440C99F-3BB1-4A8C-9867-FC60A58307DE}" name="Table6" displayName="Table6" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B440C99F-3BB1-4A8C-9867-FC60A58307DE}" name="Table6" displayName="Table6" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:I1048576" xr:uid="{B440C99F-3BB1-4A8C-9867-FC60A58307DE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{02926FC6-CA21-44BB-975F-A929C6C412D4}" name="grid"/>
@@ -1681,15 +1684,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D9844F2F-2EE0-434B-9492-0280A28AB057}" name="Table8" displayName="Table8" ref="A1:E21" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:E21" xr:uid="{D9844F2F-2EE0-434B-9492-0280A28AB057}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EE76C5C2-E9D6-4CA0-9ABF-B1C7F3426312}" name="Scenario" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D9844F2F-2EE0-434B-9492-0280A28AB057}" name="Table8" displayName="Table8" ref="A1:F21" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:F21" xr:uid="{D9844F2F-2EE0-434B-9492-0280A28AB057}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EE76C5C2-E9D6-4CA0-9ABF-B1C7F3426312}" name="Scenario" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{40AE79E8-AB14-466F-AE4B-226B9D11277C}" name="Year"/>
-    <tableColumn id="3" xr3:uid="{9172289D-E869-498C-9DCD-9CEC866DBBD2}" name="grid" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{AEC998FA-121F-4D1C-B1B1-FC7C7DDBA7AE}" name="price" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{9056A538-46B6-4FAC-AA92-94F33B818677}" name="emission_CO2" dataDxfId="3">
-      <calculatedColumnFormula>IFERROR(VLOOKUP($C2, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{F58D1D29-CB7C-4B03-8AC3-0955B77DC71F}" name="Country" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9172289D-E869-498C-9DCD-9CEC866DBBD2}" name="grid" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AEC998FA-121F-4D1C-B1B1-FC7C7DDBA7AE}" name="price" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9056A538-46B6-4FAC-AA92-94F33B818677}" name="emission_CO2" dataDxfId="5">
+      <calculatedColumnFormula>IFERROR(VLOOKUP($D2, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1697,7 +1701,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9719B7EE-3FF9-4612-B637-C2081C2392C1}" name="Table7" displayName="Table7" ref="A1:L93" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9719B7EE-3FF9-4612-B637-C2081C2392C1}" name="Table7" displayName="Table7" ref="A1:L93" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:L93" xr:uid="{9719B7EE-3FF9-4612-B637-C2081C2392C1}">
     <filterColumn colId="2">
       <filters>
@@ -14288,7 +14292,7 @@
   </sheetPr>
   <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -20085,395 +20089,459 @@
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>2030</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="32">
+      <c r="E2" s="32">
         <v>27</v>
       </c>
-      <c r="E2" s="33">
-        <f>IFERROR(VLOOKUP($C2, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F2" s="33">
+        <f>IFERROR(VLOOKUP($D2, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>2030</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="32">
+      <c r="E3" s="32">
         <v>2.5</v>
       </c>
-      <c r="E3" s="33">
-        <f>IFERROR(VLOOKUP($C3, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F3" s="33">
+        <f>IFERROR(VLOOKUP($D3, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <v>2030</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="32">
+      <c r="E4" s="32">
         <v>55</v>
       </c>
-      <c r="E4" s="33">
-        <f>IFERROR(VLOOKUP($C4, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F4" s="33">
+        <f>IFERROR(VLOOKUP($D4, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B5">
         <v>2030</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="32">
+      <c r="E5" s="32">
         <v>46</v>
       </c>
-      <c r="E5" s="33">
-        <f>IFERROR(VLOOKUP($C5, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F5" s="33">
+        <f>IFERROR(VLOOKUP($D5, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.28079999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>2030</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="32">
+      <c r="E6" s="32">
         <v>65</v>
       </c>
-      <c r="E6" s="33">
-        <f>IFERROR(VLOOKUP($C6, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F6" s="33">
+        <f>IFERROR(VLOOKUP($D6, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.25559999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>2030</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="34">
-        <v>8</v>
-      </c>
-      <c r="E7" s="33">
-        <f>IFERROR(VLOOKUP($C7, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="E7" s="34">
+        <v>8</v>
+      </c>
+      <c r="F7" s="33">
+        <f>IFERROR(VLOOKUP($D7, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.37080000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>2030</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="32">
+      <c r="E8" s="32">
         <v>26</v>
       </c>
-      <c r="E8" s="33">
-        <f>IFERROR(VLOOKUP($C8, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F8" s="33">
+        <f>IFERROR(VLOOKUP($D8, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>2030</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="33">
+      <c r="E9" s="33">
         <v>1</v>
       </c>
-      <c r="E9" s="33">
-        <f>IFERROR(VLOOKUP($C9, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F9" s="33">
+        <f>IFERROR(VLOOKUP($D9, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2030</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="33">
+      <c r="E10" s="33">
         <v>1</v>
       </c>
-      <c r="E10" s="33">
-        <f>IFERROR(VLOOKUP($C10, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F10" s="33">
+        <f>IFERROR(VLOOKUP($D10, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>2030</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="33">
+      <c r="E11" s="33">
         <v>10</v>
       </c>
-      <c r="E11" s="33">
-        <f>IFERROR(VLOOKUP($C11, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F11" s="33">
+        <f>IFERROR(VLOOKUP($D11, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B12">
         <v>2040</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="32">
+      <c r="E12" s="32">
         <v>27</v>
       </c>
-      <c r="E12" s="33">
-        <f>IFERROR(VLOOKUP($C12, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F12" s="33">
+        <f>IFERROR(VLOOKUP($D12, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B13">
         <v>2040</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="32">
+      <c r="E13" s="32">
         <v>2.5</v>
       </c>
-      <c r="E13" s="33">
-        <f>IFERROR(VLOOKUP($C13, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F13" s="33">
+        <f>IFERROR(VLOOKUP($D13, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B14">
         <v>2040</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="32">
+      <c r="E14" s="32">
         <v>55</v>
       </c>
-      <c r="E14" s="33">
-        <f>IFERROR(VLOOKUP($C14, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F14" s="33">
+        <f>IFERROR(VLOOKUP($D14, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B15">
         <v>2040</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="32">
+      <c r="E15" s="32">
         <v>46</v>
       </c>
-      <c r="E15" s="33">
-        <f>IFERROR(VLOOKUP($C15, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F15" s="33">
+        <f>IFERROR(VLOOKUP($D15, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.28079999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B16">
         <v>2040</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="32">
+      <c r="E16" s="32">
         <v>65</v>
       </c>
-      <c r="E16" s="33">
-        <f>IFERROR(VLOOKUP($C16, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F16" s="33">
+        <f>IFERROR(VLOOKUP($D16, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.25559999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>2040</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="34">
-        <v>8</v>
-      </c>
-      <c r="E17" s="33">
-        <f>IFERROR(VLOOKUP($C17, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="E17" s="34">
+        <v>8</v>
+      </c>
+      <c r="F17" s="33">
+        <f>IFERROR(VLOOKUP($D17, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.37080000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>2040</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="32">
+      <c r="E18" s="32">
         <v>26</v>
       </c>
-      <c r="E18" s="33">
-        <f>IFERROR(VLOOKUP($C18, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F18" s="33">
+        <f>IFERROR(VLOOKUP($D18, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B19">
         <v>2040</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="33">
+      <c r="E19" s="33">
         <v>1</v>
       </c>
-      <c r="E19" s="33">
-        <f>IFERROR(VLOOKUP($C19, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F19" s="33">
+        <f>IFERROR(VLOOKUP($D19, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B20">
         <v>2040</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="33">
+      <c r="E20" s="33">
         <v>1</v>
       </c>
-      <c r="E20" s="33">
-        <f>IFERROR(VLOOKUP($C20, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F20" s="33">
+        <f>IFERROR(VLOOKUP($D20, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B21">
         <v>2040</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="33">
+      <c r="E21" s="33">
         <v>10</v>
       </c>
-      <c r="E21" s="33">
-        <f>IFERROR(VLOOKUP($C21, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
+      <c r="F21" s="33">
+        <f>IFERROR(VLOOKUP($D21, [1]data_fuelEmissions!$D$4:$F$14,3,FALSE), 0)</f>
         <v>0.41399999999999998</v>
       </c>
     </row>
